--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/50/Output_2_40.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/50/Output_2_40.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3768360.626290312</v>
+        <v>3768007.700204836</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>238992.8148320321</v>
+        <v>238992.8148320345</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>504792.0292736553</v>
+        <v>504792.0292736555</v>
       </c>
     </row>
     <row r="9">
@@ -659,16 +659,16 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>378.1144210805207</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>369.0957251250487</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>390.8378626949542</v>
+        <v>41.91176353194846</v>
       </c>
       <c r="F2" t="n">
-        <v>310.8013786744498</v>
+        <v>10.00967878293136</v>
       </c>
       <c r="G2" t="n">
         <v>11.94294668035388</v>
@@ -707,22 +707,22 @@
         <v>89.73190363910518</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>185.3566856159496</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>222.1153568062989</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>252.3364829231459</v>
       </c>
       <c r="V2" t="n">
         <v>333.6094813630181</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>358.909580840975</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>378.2098390737216</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -735,7 +735,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>157.8252483534483</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
         <v>160.0866360314548</v>
@@ -744,7 +744,7 @@
         <v>137.45025063969</v>
       </c>
       <c r="E3" t="n">
-        <v>145.5577298436975</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
         <v>133.3468600696244</v>
@@ -756,7 +756,7 @@
         <v>98.93847887876893</v>
       </c>
       <c r="I3" t="n">
-        <v>67.69846245683961</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,7 +783,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>59.18642621600367</v>
       </c>
       <c r="S3" t="n">
         <v>151.2714921173871</v>
@@ -792,19 +792,19 @@
         <v>186.7982527956746</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>216.3098444776729</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>226.1116663261494</v>
       </c>
       <c r="W3" t="n">
-        <v>131.1851617660168</v>
+        <v>238.9027100790231</v>
       </c>
       <c r="X3" t="n">
-        <v>195.9378182409833</v>
+        <v>148.2898866490505</v>
       </c>
       <c r="Y3" t="n">
-        <v>190.5961130869169</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -859,7 +859,7 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>38.15196793284785</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -868,16 +868,16 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>1.518793999885657</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>14.5038758621203</v>
+        <v>258.1279513971616</v>
       </c>
       <c r="W4" t="n">
-        <v>283.2948374677749</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>228.939939463578</v>
@@ -893,16 +893,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>390.1031041228389</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>378.1144210805207</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>369.0957251250487</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>390.8378626949542</v>
       </c>
       <c r="F5" t="n">
         <v>10.00967878293136</v>
@@ -914,7 +914,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>171.0890268032919</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,22 +944,22 @@
         <v>89.73190363910518</v>
       </c>
       <c r="S5" t="n">
-        <v>185.3566856159496</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>222.1153568062989</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>252.3364829231459</v>
       </c>
       <c r="V5" t="n">
-        <v>227.6638974044033</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>358.909580840975</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>377.1608800863918</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -978,7 +978,7 @@
         <v>160.0866360314548</v>
       </c>
       <c r="D6" t="n">
-        <v>137.45025063969</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
         <v>145.5577298436975</v>
@@ -1020,13 +1020,13 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>59.18642621600367</v>
       </c>
       <c r="S6" t="n">
-        <v>51.56696649405593</v>
+        <v>151.2714921173871</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>186.7982527956746</v>
       </c>
       <c r="U6" t="n">
         <v>216.3098444776729</v>
@@ -1035,13 +1035,13 @@
         <v>226.1116663261494</v>
       </c>
       <c r="W6" t="n">
-        <v>238.9027100790231</v>
+        <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>195.9378182409833</v>
       </c>
       <c r="Y6" t="n">
-        <v>190.5961130869169</v>
+        <v>25.32205092963446</v>
       </c>
     </row>
     <row r="7">
@@ -1051,7 +1051,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>181.719814997536</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -1060,7 +1060,7 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>150.4889240962943</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -1099,22 +1099,22 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>12.59665167322035</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>230.8471636524779</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>194.5299136996428</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>283.2948374677749</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -1133,7 +1133,7 @@
         <v>390.1031041228389</v>
       </c>
       <c r="C8" t="n">
-        <v>378.1144210805207</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -1142,13 +1142,13 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>410.0096787829314</v>
+        <v>10.00967878293136</v>
       </c>
       <c r="G8" t="n">
-        <v>411.9429466803539</v>
+        <v>11.94294668035388</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>329.4930616586638</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1178,13 +1178,13 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>89.73190363910518</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>185.3566856159496</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>222.1153568062989</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -1193,13 +1193,13 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>358.909580840975</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>141.0598120912427</v>
       </c>
       <c r="Y8" t="n">
-        <v>358.6946091634243</v>
+        <v>389.6064368699203</v>
       </c>
     </row>
     <row r="9">
@@ -1215,19 +1215,19 @@
         <v>160.0866360314548</v>
       </c>
       <c r="D9" t="n">
-        <v>129.6177110567237</v>
+        <v>137.45025063969</v>
       </c>
       <c r="E9" t="n">
         <v>145.5577298436975</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>133.3468600696244</v>
       </c>
       <c r="G9" t="n">
-        <v>127.4412149769483</v>
+        <v>78.11832527047109</v>
       </c>
       <c r="H9" t="n">
-        <v>98.93847887876893</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
@@ -1257,13 +1257,13 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>59.18642621600367</v>
       </c>
       <c r="S9" t="n">
         <v>151.2714921173871</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>186.7982527956746</v>
       </c>
       <c r="U9" t="n">
         <v>216.3098444776729</v>
@@ -1272,7 +1272,7 @@
         <v>226.1116663261494</v>
       </c>
       <c r="W9" t="n">
-        <v>238.9027100790231</v>
+        <v>0</v>
       </c>
       <c r="X9" t="n">
         <v>195.9378182409833</v>
@@ -1333,19 +1333,19 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>38.15196793284785</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>22.54853274729805</v>
       </c>
       <c r="T10" t="n">
-        <v>230.8471636524779</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>114.1716741434592</v>
+        <v>284.3183371157911</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -1376,19 +1376,19 @@
         <v>255.6655596168399</v>
       </c>
       <c r="E11" t="n">
-        <v>158.5685126833364</v>
+        <v>1.499879995623098</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>296.5795132747226</v>
       </c>
       <c r="G11" t="n">
-        <v>298.5127811721452</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>216.0628961504551</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>57.65886129508321</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>71.92652010774084</v>
       </c>
       <c r="T11" t="n">
         <v>108.6851912980902</v>
@@ -1430,13 +1430,13 @@
         <v>220.1793158548093</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>245.4794153327662</v>
       </c>
       <c r="X11" t="n">
-        <v>264.7796735655129</v>
+        <v>264.7796735655128</v>
       </c>
       <c r="Y11" t="n">
-        <v>276.1762713617117</v>
+        <v>276.1762713617116</v>
       </c>
     </row>
     <row r="12">
@@ -1467,7 +1467,7 @@
         <v>98.93847887876893</v>
       </c>
       <c r="I12" t="n">
-        <v>67.69846245683961</v>
+        <v>53.1329711713359</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>44.62093493050097</v>
+        <v>59.18642621600367</v>
       </c>
       <c r="S12" t="n">
         <v>151.2714921173871</v>
@@ -1525,28 +1525,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>68.2896494893273</v>
+        <v>68.28964948932729</v>
       </c>
       <c r="C13" t="n">
-        <v>54.48964433472779</v>
+        <v>54.48964433472777</v>
       </c>
       <c r="D13" t="n">
-        <v>38.11100873230617</v>
+        <v>38.11100873230616</v>
       </c>
       <c r="E13" t="n">
-        <v>37.05875858808562</v>
+        <v>37.05875858808561</v>
       </c>
       <c r="F13" t="n">
-        <v>37.52568291627193</v>
+        <v>37.52568291627192</v>
       </c>
       <c r="G13" t="n">
-        <v>53.80038563761977</v>
+        <v>53.80038563761975</v>
       </c>
       <c r="H13" t="n">
-        <v>44.34875326031019</v>
+        <v>44.34875326031018</v>
       </c>
       <c r="I13" t="n">
-        <v>29.33084844513954</v>
+        <v>29.33084844513952</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,10 +1573,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>34.59639806355685</v>
+        <v>34.59639806355683</v>
       </c>
       <c r="S13" t="n">
-        <v>98.14249946214059</v>
+        <v>98.14249946214058</v>
       </c>
       <c r="T13" t="n">
         <v>117.4169981442692</v>
@@ -1588,13 +1588,13 @@
         <v>144.6977858889529</v>
       </c>
       <c r="W13" t="n">
-        <v>169.8646719595662</v>
+        <v>169.8646719595661</v>
       </c>
       <c r="X13" t="n">
         <v>115.5097739553693</v>
       </c>
       <c r="Y13" t="n">
-        <v>106.384641711437</v>
+        <v>106.3846417114369</v>
       </c>
     </row>
     <row r="14">
@@ -1604,28 +1604,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>276.6729386146303</v>
+        <v>276.6729386146302</v>
       </c>
       <c r="C14" t="n">
-        <v>264.684255572312</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>255.66555961684</v>
+        <v>255.6655596168399</v>
       </c>
       <c r="E14" t="n">
-        <v>82.01649711989114</v>
+        <v>277.4076971867455</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>296.5795132747226</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>298.5127811721451</v>
       </c>
       <c r="H14" t="n">
         <v>216.0628961504551</v>
       </c>
       <c r="I14" t="n">
-        <v>57.65886129508324</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>71.92652010774087</v>
+        <v>71.92652010774084</v>
       </c>
       <c r="T14" t="n">
         <v>108.6851912980902</v>
@@ -1664,16 +1664,16 @@
         <v>138.9063174149372</v>
       </c>
       <c r="V14" t="n">
-        <v>220.1793158548094</v>
+        <v>220.1793158548093</v>
       </c>
       <c r="W14" t="n">
-        <v>245.4794153327663</v>
+        <v>245.4794153327662</v>
       </c>
       <c r="X14" t="n">
-        <v>264.7796735655129</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>276.1762713617117</v>
+        <v>72.81556728089703</v>
       </c>
     </row>
     <row r="15">
@@ -1698,13 +1698,13 @@
         <v>133.3468600696244</v>
       </c>
       <c r="G15" t="n">
-        <v>112.8757236914454</v>
+        <v>127.4412149769483</v>
       </c>
       <c r="H15" t="n">
         <v>98.93847887876893</v>
       </c>
       <c r="I15" t="n">
-        <v>67.69846245683961</v>
+        <v>53.1329711713359</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1762,28 +1762,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>68.28964948932732</v>
+        <v>68.28964948932729</v>
       </c>
       <c r="C16" t="n">
-        <v>54.4896443347278</v>
+        <v>54.48964433472777</v>
       </c>
       <c r="D16" t="n">
-        <v>38.11100873230619</v>
+        <v>38.11100873230616</v>
       </c>
       <c r="E16" t="n">
-        <v>37.05875858808564</v>
+        <v>37.05875858808561</v>
       </c>
       <c r="F16" t="n">
-        <v>37.52568291627195</v>
+        <v>37.52568291627192</v>
       </c>
       <c r="G16" t="n">
-        <v>53.80038563761978</v>
+        <v>53.80038563761975</v>
       </c>
       <c r="H16" t="n">
-        <v>44.3487532603102</v>
+        <v>44.34875326031018</v>
       </c>
       <c r="I16" t="n">
-        <v>29.33084844513955</v>
+        <v>29.33084844513952</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,10 +1810,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>34.59639806355686</v>
+        <v>34.59639806355683</v>
       </c>
       <c r="S16" t="n">
-        <v>98.14249946214061</v>
+        <v>98.14249946214058</v>
       </c>
       <c r="T16" t="n">
         <v>117.4169981442692</v>
@@ -1825,13 +1825,13 @@
         <v>144.6977858889529</v>
       </c>
       <c r="W16" t="n">
-        <v>169.8646719595662</v>
+        <v>169.8646719595661</v>
       </c>
       <c r="X16" t="n">
         <v>115.5097739553693</v>
       </c>
       <c r="Y16" t="n">
-        <v>106.384641711437</v>
+        <v>106.3846417114369</v>
       </c>
     </row>
     <row r="17">
@@ -1898,7 +1898,7 @@
         <v>55.986291663842</v>
       </c>
       <c r="U17" t="n">
-        <v>86.20741778069032</v>
+        <v>86.20741778068896</v>
       </c>
       <c r="V17" t="n">
         <v>167.4804162205611</v>
@@ -1910,7 +1910,7 @@
         <v>212.0807739312646</v>
       </c>
       <c r="Y17" t="n">
-        <v>223.4773717274634</v>
+        <v>223.4773717274637</v>
       </c>
     </row>
     <row r="18">
@@ -1935,7 +1935,7 @@
         <v>133.3468600696244</v>
       </c>
       <c r="G18" t="n">
-        <v>127.4412149769483</v>
+        <v>112.8757236914445</v>
       </c>
       <c r="H18" t="n">
         <v>98.93847887876893</v>
@@ -1968,7 +1968,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>44.62093493050097</v>
+        <v>59.18642621600367</v>
       </c>
       <c r="S18" t="n">
         <v>151.2714921173871</v>
@@ -2178,7 +2178,7 @@
         <v>98.93847887876893</v>
       </c>
       <c r="I21" t="n">
-        <v>67.69846245683961</v>
+        <v>53.1329711713359</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2205,7 +2205,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>44.62093493050097</v>
+        <v>59.18642621600367</v>
       </c>
       <c r="S21" t="n">
         <v>151.2714921173871</v>
@@ -2412,10 +2412,10 @@
         <v>127.4412149769483</v>
       </c>
       <c r="H24" t="n">
-        <v>84.37298759326568</v>
+        <v>98.93847887876893</v>
       </c>
       <c r="I24" t="n">
-        <v>67.69846245683961</v>
+        <v>53.13297117133636</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2552,13 +2552,13 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>263.3161537670948</v>
+        <v>263.3161537670949</v>
       </c>
       <c r="C26" t="n">
         <v>251.3274707247766</v>
       </c>
       <c r="D26" t="n">
-        <v>242.3087747693045</v>
+        <v>242.3087747693046</v>
       </c>
       <c r="E26" t="n">
         <v>264.0509123392101</v>
@@ -2570,10 +2570,10 @@
         <v>285.1559963246098</v>
       </c>
       <c r="H26" t="n">
-        <v>202.7061113029197</v>
+        <v>202.7061113029189</v>
       </c>
       <c r="I26" t="n">
-        <v>44.30207644754783</v>
+        <v>44.30207644754785</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,19 +2603,19 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>58.56973526020546</v>
+        <v>58.56973526020548</v>
       </c>
       <c r="T26" t="n">
-        <v>95.32840645055482</v>
+        <v>95.32840645055484</v>
       </c>
       <c r="U26" t="n">
         <v>125.5495325674018</v>
       </c>
       <c r="V26" t="n">
-        <v>206.8225310072739</v>
+        <v>206.822531007274</v>
       </c>
       <c r="W26" t="n">
-        <v>232.1226304852308</v>
+        <v>232.1226304852309</v>
       </c>
       <c r="X26" t="n">
         <v>251.4228887179775</v>
@@ -2649,10 +2649,10 @@
         <v>127.4412149769483</v>
       </c>
       <c r="H27" t="n">
-        <v>84.37298759326558</v>
+        <v>98.93847887876893</v>
       </c>
       <c r="I27" t="n">
-        <v>67.69846245683961</v>
+        <v>53.13297117133627</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2710,28 +2710,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>54.93286464179191</v>
+        <v>54.93286464179192</v>
       </c>
       <c r="C28" t="n">
-        <v>41.13285948719239</v>
+        <v>41.13285948719241</v>
       </c>
       <c r="D28" t="n">
-        <v>24.75422388477078</v>
+        <v>24.75422388477079</v>
       </c>
       <c r="E28" t="n">
-        <v>23.70197374055023</v>
+        <v>23.70197374055024</v>
       </c>
       <c r="F28" t="n">
-        <v>24.16889806873654</v>
+        <v>24.16889806873655</v>
       </c>
       <c r="G28" t="n">
-        <v>40.44360079008437</v>
+        <v>40.44360079008439</v>
       </c>
       <c r="H28" t="n">
-        <v>30.9919684127748</v>
+        <v>30.99196841277481</v>
       </c>
       <c r="I28" t="n">
-        <v>15.97406359760414</v>
+        <v>15.97406359760416</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,10 +2758,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>21.23961321602145</v>
+        <v>21.23961321602147</v>
       </c>
       <c r="S28" t="n">
-        <v>84.7857146146052</v>
+        <v>84.78571461460521</v>
       </c>
       <c r="T28" t="n">
         <v>104.0602132967338</v>
@@ -2773,13 +2773,13 @@
         <v>131.3410010414175</v>
       </c>
       <c r="W28" t="n">
-        <v>156.5078871120307</v>
+        <v>156.5078871120308</v>
       </c>
       <c r="X28" t="n">
         <v>102.1529891078339</v>
       </c>
       <c r="Y28" t="n">
-        <v>93.02785686390156</v>
+        <v>93.02785686390158</v>
       </c>
     </row>
     <row r="29">
@@ -2789,13 +2789,13 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>263.3161537670948</v>
+        <v>263.3161537670949</v>
       </c>
       <c r="C29" t="n">
-        <v>251.3274707247765</v>
+        <v>251.3274707247766</v>
       </c>
       <c r="D29" t="n">
-        <v>242.3087747693045</v>
+        <v>242.3087747693046</v>
       </c>
       <c r="E29" t="n">
         <v>264.0509123392101</v>
@@ -2810,7 +2810,7 @@
         <v>202.7061113029197</v>
       </c>
       <c r="I29" t="n">
-        <v>44.30207644754779</v>
+        <v>44.30207644754785</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,22 +2840,22 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>58.56973526020542</v>
+        <v>58.56973526020548</v>
       </c>
       <c r="T29" t="n">
-        <v>95.32840645055478</v>
+        <v>95.32840645055484</v>
       </c>
       <c r="U29" t="n">
-        <v>125.5495325674017</v>
+        <v>125.5495325674018</v>
       </c>
       <c r="V29" t="n">
-        <v>206.8225310072741</v>
+        <v>206.822531007274</v>
       </c>
       <c r="W29" t="n">
-        <v>232.1226304852308</v>
+        <v>232.1226304852309</v>
       </c>
       <c r="X29" t="n">
-        <v>251.4228887179774</v>
+        <v>251.4228887179775</v>
       </c>
       <c r="Y29" t="n">
         <v>262.8194865141762</v>
@@ -2886,10 +2886,10 @@
         <v>127.4412149769483</v>
       </c>
       <c r="H30" t="n">
-        <v>98.93847887876893</v>
+        <v>84.37298759326558</v>
       </c>
       <c r="I30" t="n">
-        <v>53.13297117133625</v>
+        <v>67.69846245683961</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2947,28 +2947,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>54.93286464179187</v>
+        <v>54.93286464179192</v>
       </c>
       <c r="C31" t="n">
-        <v>41.13285948719235</v>
+        <v>41.13285948719241</v>
       </c>
       <c r="D31" t="n">
-        <v>24.75422388477074</v>
+        <v>24.75422388477079</v>
       </c>
       <c r="E31" t="n">
-        <v>23.70197374055019</v>
+        <v>23.70197374055024</v>
       </c>
       <c r="F31" t="n">
-        <v>24.1688980687365</v>
+        <v>24.16889806873655</v>
       </c>
       <c r="G31" t="n">
-        <v>40.44360079008433</v>
+        <v>40.44360079008439</v>
       </c>
       <c r="H31" t="n">
-        <v>30.99196841277475</v>
+        <v>30.99196841277481</v>
       </c>
       <c r="I31" t="n">
-        <v>15.9740635976041</v>
+        <v>15.97406359760416</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,10 +2995,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>21.23961321602141</v>
+        <v>21.23961321602147</v>
       </c>
       <c r="S31" t="n">
-        <v>84.78571461460515</v>
+        <v>84.78571461460521</v>
       </c>
       <c r="T31" t="n">
         <v>104.0602132967338</v>
@@ -3010,13 +3010,13 @@
         <v>131.3410010414175</v>
       </c>
       <c r="W31" t="n">
-        <v>156.5078871120307</v>
+        <v>156.5078871120308</v>
       </c>
       <c r="X31" t="n">
-        <v>102.1529891078338</v>
+        <v>102.1529891078339</v>
       </c>
       <c r="Y31" t="n">
-        <v>93.02785686390152</v>
+        <v>93.02785686390158</v>
       </c>
     </row>
     <row r="32">
@@ -3026,28 +3026,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>253.0186241529799</v>
+        <v>253.0186241529798</v>
       </c>
       <c r="C32" t="n">
-        <v>241.0299411106617</v>
+        <v>241.0299411106615</v>
       </c>
       <c r="D32" t="n">
-        <v>232.0112451551896</v>
+        <v>232.0112451551895</v>
       </c>
       <c r="E32" t="n">
-        <v>253.7533827250952</v>
+        <v>253.753382725095</v>
       </c>
       <c r="F32" t="n">
-        <v>272.9251988130724</v>
+        <v>272.9251988130721</v>
       </c>
       <c r="G32" t="n">
-        <v>274.8584667104949</v>
+        <v>274.8584667104947</v>
       </c>
       <c r="H32" t="n">
-        <v>192.4085816888048</v>
+        <v>192.4085816888046</v>
       </c>
       <c r="I32" t="n">
-        <v>34.00454683343293</v>
+        <v>34.00454683343276</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,25 +3077,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>48.27220564609055</v>
+        <v>48.27220564609038</v>
       </c>
       <c r="T32" t="n">
-        <v>85.03087683643992</v>
+        <v>85.03087683643975</v>
       </c>
       <c r="U32" t="n">
-        <v>115.2520029532869</v>
+        <v>115.2520029532867</v>
       </c>
       <c r="V32" t="n">
-        <v>196.525001393159</v>
+        <v>196.5250013931589</v>
       </c>
       <c r="W32" t="n">
-        <v>221.8251008711159</v>
+        <v>221.8251008711158</v>
       </c>
       <c r="X32" t="n">
-        <v>241.1253591038626</v>
+        <v>241.1253591038624</v>
       </c>
       <c r="Y32" t="n">
-        <v>252.5219569000613</v>
+        <v>252.5219569000612</v>
       </c>
     </row>
     <row r="33">
@@ -3117,7 +3117,7 @@
         <v>145.5577298436975</v>
       </c>
       <c r="F33" t="n">
-        <v>133.3468600696244</v>
+        <v>118.7813687841209</v>
       </c>
       <c r="G33" t="n">
         <v>127.4412149769483</v>
@@ -3126,7 +3126,7 @@
         <v>98.93847887876893</v>
       </c>
       <c r="I33" t="n">
-        <v>53.1329711713361</v>
+        <v>67.69846245683961</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>44.635335027677</v>
+        <v>44.63533502767683</v>
       </c>
       <c r="C34" t="n">
-        <v>30.83532987307748</v>
+        <v>30.83532987307731</v>
       </c>
       <c r="D34" t="n">
-        <v>14.45669427065587</v>
+        <v>14.4566942706557</v>
       </c>
       <c r="E34" t="n">
-        <v>13.40444412643532</v>
+        <v>13.40444412643515</v>
       </c>
       <c r="F34" t="n">
-        <v>13.87136845462163</v>
+        <v>13.87136845462146</v>
       </c>
       <c r="G34" t="n">
-        <v>30.14607117596947</v>
+        <v>30.1460711759693</v>
       </c>
       <c r="H34" t="n">
-        <v>20.69443879865989</v>
+        <v>20.69443879865972</v>
       </c>
       <c r="I34" t="n">
-        <v>5.676533983489236</v>
+        <v>5.676533983489065</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,28 +3232,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>10.94208360190655</v>
+        <v>10.94208360190638</v>
       </c>
       <c r="S34" t="n">
-        <v>74.48818500049029</v>
+        <v>74.48818500049012</v>
       </c>
       <c r="T34" t="n">
-        <v>93.76268368261893</v>
+        <v>93.76268368261876</v>
       </c>
       <c r="U34" t="n">
-        <v>147.2338571459321</v>
+        <v>147.2338571459319</v>
       </c>
       <c r="V34" t="n">
-        <v>121.0434714273026</v>
+        <v>121.0434714273024</v>
       </c>
       <c r="W34" t="n">
-        <v>146.2103574979159</v>
+        <v>146.2103574979157</v>
       </c>
       <c r="X34" t="n">
-        <v>91.85545949371897</v>
+        <v>91.8554594937188</v>
       </c>
       <c r="Y34" t="n">
-        <v>82.73032724978665</v>
+        <v>82.73032724978648</v>
       </c>
     </row>
     <row r="35">
@@ -3266,25 +3266,25 @@
         <v>223.974038980382</v>
       </c>
       <c r="C35" t="n">
-        <v>211.9853559380638</v>
+        <v>211.9853559380637</v>
       </c>
       <c r="D35" t="n">
-        <v>202.9666599825918</v>
+        <v>202.9666599825917</v>
       </c>
       <c r="E35" t="n">
         <v>224.7087975524973</v>
       </c>
       <c r="F35" t="n">
-        <v>243.8806136404745</v>
+        <v>243.8806136404744</v>
       </c>
       <c r="G35" t="n">
-        <v>245.813881537897</v>
+        <v>245.8138815378969</v>
       </c>
       <c r="H35" t="n">
         <v>163.3639965162069</v>
       </c>
       <c r="I35" t="n">
-        <v>4.959961660835035</v>
+        <v>4.959961660835006</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3314,22 +3314,22 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>19.22762047349266</v>
+        <v>19.22762047349264</v>
       </c>
       <c r="T35" t="n">
-        <v>55.98629166384202</v>
+        <v>55.986291663842</v>
       </c>
       <c r="U35" t="n">
-        <v>86.20741778068898</v>
+        <v>86.20741778068896</v>
       </c>
       <c r="V35" t="n">
-        <v>167.4804162205612</v>
+        <v>167.4804162205611</v>
       </c>
       <c r="W35" t="n">
-        <v>192.7805156985181</v>
+        <v>192.780515698518</v>
       </c>
       <c r="X35" t="n">
-        <v>212.0807739312647</v>
+        <v>212.0807739312646</v>
       </c>
       <c r="Y35" t="n">
         <v>223.4773717274634</v>
@@ -3351,7 +3351,7 @@
         <v>137.45025063969</v>
       </c>
       <c r="E36" t="n">
-        <v>145.5577298436975</v>
+        <v>130.9922385581942</v>
       </c>
       <c r="F36" t="n">
         <v>133.3468600696244</v>
@@ -3390,7 +3390,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>44.62093493050007</v>
+        <v>59.18642621600367</v>
       </c>
       <c r="S36" t="n">
         <v>151.2714921173871</v>
@@ -3421,10 +3421,10 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>15.59074985507911</v>
+        <v>15.59074985507908</v>
       </c>
       <c r="C37" t="n">
-        <v>1.790744700479593</v>
+        <v>1.790744700479564</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
@@ -3436,7 +3436,7 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>1.101486003371576</v>
+        <v>1.101486003371548</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3472,25 +3472,25 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>45.4435998278924</v>
+        <v>45.44359982789237</v>
       </c>
       <c r="T37" t="n">
-        <v>64.71809851002104</v>
+        <v>64.71809851002101</v>
       </c>
       <c r="U37" t="n">
         <v>118.1892719733342</v>
       </c>
       <c r="V37" t="n">
-        <v>91.9988862547047</v>
+        <v>91.99888625470467</v>
       </c>
       <c r="W37" t="n">
-        <v>117.165772325318</v>
+        <v>117.1657723253179</v>
       </c>
       <c r="X37" t="n">
-        <v>62.81087432112108</v>
+        <v>62.81087432112105</v>
       </c>
       <c r="Y37" t="n">
-        <v>53.68574207718876</v>
+        <v>53.68574207718873</v>
       </c>
     </row>
     <row r="38">
@@ -3503,25 +3503,25 @@
         <v>223.974038980382</v>
       </c>
       <c r="C38" t="n">
-        <v>211.9853559380638</v>
+        <v>211.9853559380637</v>
       </c>
       <c r="D38" t="n">
-        <v>202.9666599825918</v>
+        <v>202.9666599825917</v>
       </c>
       <c r="E38" t="n">
         <v>224.7087975524973</v>
       </c>
       <c r="F38" t="n">
-        <v>243.8806136404745</v>
+        <v>243.8806136404744</v>
       </c>
       <c r="G38" t="n">
-        <v>245.813881537897</v>
+        <v>245.8138815378969</v>
       </c>
       <c r="H38" t="n">
         <v>163.3639965162069</v>
       </c>
       <c r="I38" t="n">
-        <v>4.959961660835035</v>
+        <v>4.959961660835006</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3551,22 +3551,22 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>19.22762047349266</v>
+        <v>19.22762047349264</v>
       </c>
       <c r="T38" t="n">
-        <v>55.98629166384202</v>
+        <v>55.986291663842</v>
       </c>
       <c r="U38" t="n">
-        <v>86.20741778068898</v>
+        <v>86.20741778068896</v>
       </c>
       <c r="V38" t="n">
-        <v>167.4804162205612</v>
+        <v>167.4804162205611</v>
       </c>
       <c r="W38" t="n">
-        <v>192.7805156985181</v>
+        <v>192.780515698518</v>
       </c>
       <c r="X38" t="n">
-        <v>212.0807739312647</v>
+        <v>212.0807739312646</v>
       </c>
       <c r="Y38" t="n">
         <v>223.4773717274634</v>
@@ -3594,13 +3594,13 @@
         <v>133.3468600696244</v>
       </c>
       <c r="G39" t="n">
-        <v>112.8757236914445</v>
+        <v>127.4412149769483</v>
       </c>
       <c r="H39" t="n">
         <v>98.93847887876893</v>
       </c>
       <c r="I39" t="n">
-        <v>67.69846245683961</v>
+        <v>53.13297117133546</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3658,10 +3658,10 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>15.59074985507911</v>
+        <v>15.59074985507908</v>
       </c>
       <c r="C40" t="n">
-        <v>1.790744700479593</v>
+        <v>1.790744700479564</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
@@ -3673,7 +3673,7 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>1.101486003371576</v>
+        <v>1.101486003371548</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3709,25 +3709,25 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>45.4435998278924</v>
+        <v>45.44359982789237</v>
       </c>
       <c r="T40" t="n">
-        <v>64.71809851002104</v>
+        <v>64.71809851002101</v>
       </c>
       <c r="U40" t="n">
         <v>118.1892719733342</v>
       </c>
       <c r="V40" t="n">
-        <v>91.9988862547047</v>
+        <v>91.99888625470467</v>
       </c>
       <c r="W40" t="n">
-        <v>117.165772325318</v>
+        <v>117.1657723253179</v>
       </c>
       <c r="X40" t="n">
-        <v>62.81087432112108</v>
+        <v>62.81087432112105</v>
       </c>
       <c r="Y40" t="n">
-        <v>53.68574207718876</v>
+        <v>53.68574207718873</v>
       </c>
     </row>
     <row r="41">
@@ -3737,7 +3737,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>255.8299181189405</v>
+        <v>255.8299181189404</v>
       </c>
       <c r="C41" t="n">
         <v>243.8412350766222</v>
@@ -3746,16 +3746,16 @@
         <v>234.8225391211502</v>
       </c>
       <c r="E41" t="n">
-        <v>256.5646766910558</v>
+        <v>256.5646766910557</v>
       </c>
       <c r="F41" t="n">
-        <v>275.7364927790329</v>
+        <v>112.3839071765052</v>
       </c>
       <c r="G41" t="n">
-        <v>277.6697606764554</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>195.2198756547653</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3788,13 +3788,13 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>51.08349961205107</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>87.84217080240043</v>
       </c>
       <c r="U41" t="n">
-        <v>11.18649670948042</v>
+        <v>118.0632969192474</v>
       </c>
       <c r="V41" t="n">
         <v>199.3362953591196</v>
@@ -3806,7 +3806,7 @@
         <v>243.9366530698231</v>
       </c>
       <c r="Y41" t="n">
-        <v>255.3332508660219</v>
+        <v>255.3332508660218</v>
       </c>
     </row>
     <row r="42">
@@ -3834,7 +3834,7 @@
         <v>127.4412149769483</v>
       </c>
       <c r="H42" t="n">
-        <v>98.93847887876893</v>
+        <v>84.37298759326521</v>
       </c>
       <c r="I42" t="n">
         <v>67.69846245683961</v>
@@ -3867,7 +3867,7 @@
         <v>59.18642621600367</v>
       </c>
       <c r="S42" t="n">
-        <v>136.7060008318836</v>
+        <v>151.2714921173871</v>
       </c>
       <c r="T42" t="n">
         <v>186.7982527956746</v>
@@ -3895,28 +3895,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>47.44662899363757</v>
+        <v>47.44662899363752</v>
       </c>
       <c r="C43" t="n">
-        <v>33.64662383903806</v>
+        <v>33.646623839038</v>
       </c>
       <c r="D43" t="n">
-        <v>17.26798823661645</v>
+        <v>17.26798823661639</v>
       </c>
       <c r="E43" t="n">
-        <v>16.2157380923959</v>
+        <v>16.21573809239584</v>
       </c>
       <c r="F43" t="n">
-        <v>16.6826624205822</v>
+        <v>16.68266242058215</v>
       </c>
       <c r="G43" t="n">
-        <v>32.95736514193004</v>
+        <v>32.95736514192998</v>
       </c>
       <c r="H43" t="n">
-        <v>23.50573276462046</v>
+        <v>23.5057327646204</v>
       </c>
       <c r="I43" t="n">
-        <v>8.487827949449809</v>
+        <v>8.487827949449752</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,28 +3943,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>13.75337756786712</v>
+        <v>13.75337756786706</v>
       </c>
       <c r="S43" t="n">
-        <v>77.29947896645086</v>
+        <v>77.29947896645081</v>
       </c>
       <c r="T43" t="n">
-        <v>96.5739776485795</v>
+        <v>96.57397764857944</v>
       </c>
       <c r="U43" t="n">
-        <v>150.0451511118927</v>
+        <v>150.0451511118926</v>
       </c>
       <c r="V43" t="n">
-        <v>123.8547653932632</v>
+        <v>123.8547653932631</v>
       </c>
       <c r="W43" t="n">
         <v>149.0216514638764</v>
       </c>
       <c r="X43" t="n">
-        <v>94.66675345967954</v>
+        <v>94.66675345967948</v>
       </c>
       <c r="Y43" t="n">
-        <v>85.54162121574723</v>
+        <v>85.54162121574717</v>
       </c>
     </row>
     <row r="44">
@@ -3974,7 +3974,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>255.8299181189405</v>
+        <v>255.8299181189404</v>
       </c>
       <c r="C44" t="n">
         <v>243.8412350766222</v>
@@ -3983,16 +3983,16 @@
         <v>234.8225391211502</v>
       </c>
       <c r="E44" t="n">
-        <v>256.5646766910558</v>
+        <v>93.21209108852806</v>
       </c>
       <c r="F44" t="n">
         <v>275.7364927790329</v>
       </c>
       <c r="G44" t="n">
-        <v>277.6697606764554</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>92.45949514935272</v>
+        <v>195.2198756547653</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4025,16 +4025,16 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>51.08349961205107</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>87.84217080240043</v>
       </c>
       <c r="U44" t="n">
         <v>118.0632969192474</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>199.3362953591196</v>
       </c>
       <c r="W44" t="n">
         <v>224.6363948370765</v>
@@ -4043,7 +4043,7 @@
         <v>243.9366530698231</v>
       </c>
       <c r="Y44" t="n">
-        <v>255.3332508660219</v>
+        <v>255.3332508660218</v>
       </c>
     </row>
     <row r="45">
@@ -4074,7 +4074,7 @@
         <v>98.93847887876893</v>
       </c>
       <c r="I45" t="n">
-        <v>67.69846245683961</v>
+        <v>53.13297117133634</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4104,7 +4104,7 @@
         <v>59.18642621600367</v>
       </c>
       <c r="S45" t="n">
-        <v>136.7060008318832</v>
+        <v>151.2714921173871</v>
       </c>
       <c r="T45" t="n">
         <v>186.7982527956746</v>
@@ -4132,28 +4132,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>47.44662899363757</v>
+        <v>47.44662899363752</v>
       </c>
       <c r="C46" t="n">
-        <v>33.64662383903806</v>
+        <v>33.646623839038</v>
       </c>
       <c r="D46" t="n">
-        <v>17.26798823661645</v>
+        <v>17.26798823661639</v>
       </c>
       <c r="E46" t="n">
-        <v>16.2157380923959</v>
+        <v>16.21573809239584</v>
       </c>
       <c r="F46" t="n">
-        <v>16.6826624205822</v>
+        <v>16.68266242058215</v>
       </c>
       <c r="G46" t="n">
-        <v>32.95736514193004</v>
+        <v>32.95736514192998</v>
       </c>
       <c r="H46" t="n">
-        <v>23.50573276462046</v>
+        <v>23.5057327646204</v>
       </c>
       <c r="I46" t="n">
-        <v>8.487827949449809</v>
+        <v>8.487827949449752</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,28 +4180,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>13.75337756786712</v>
+        <v>13.75337756786706</v>
       </c>
       <c r="S46" t="n">
-        <v>77.29947896645086</v>
+        <v>77.29947896645081</v>
       </c>
       <c r="T46" t="n">
-        <v>96.5739776485795</v>
+        <v>96.57397764857944</v>
       </c>
       <c r="U46" t="n">
-        <v>150.0451511118927</v>
+        <v>150.0451511118926</v>
       </c>
       <c r="V46" t="n">
-        <v>123.8547653932632</v>
+        <v>123.8547653932631</v>
       </c>
       <c r="W46" t="n">
         <v>149.0216514638764</v>
       </c>
       <c r="X46" t="n">
-        <v>94.66675345967954</v>
+        <v>94.66675345967948</v>
       </c>
       <c r="Y46" t="n">
-        <v>85.54162121574723</v>
+        <v>85.54162121574717</v>
       </c>
     </row>
   </sheetData>
@@ -4304,31 +4304,31 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1514.387922031921</v>
+        <v>103.3495934863719</v>
       </c>
       <c r="C2" t="n">
-        <v>1132.454163364728</v>
+        <v>103.3495934863719</v>
       </c>
       <c r="D2" t="n">
-        <v>759.630198591952</v>
+        <v>103.3495934863719</v>
       </c>
       <c r="E2" t="n">
-        <v>364.8444786980588</v>
+        <v>61.01447880763605</v>
       </c>
       <c r="F2" t="n">
-        <v>50.9036921582105</v>
+        <v>50.90369215821044</v>
       </c>
       <c r="G2" t="n">
-        <v>38.84010965280253</v>
+        <v>38.84010965280248</v>
       </c>
       <c r="H2" t="n">
-        <v>38.84010965280253</v>
+        <v>38.84010965280248</v>
       </c>
       <c r="I2" t="n">
-        <v>38.84010965280253</v>
+        <v>38.84010965280248</v>
       </c>
       <c r="J2" t="n">
-        <v>110.8386539256082</v>
+        <v>110.8386539256081</v>
       </c>
       <c r="K2" t="n">
         <v>350.9790259703909</v>
@@ -4337,43 +4337,43 @@
         <v>698.8643990553371</v>
       </c>
       <c r="M2" t="n">
-        <v>1092.103565308425</v>
+        <v>936.0803893369839</v>
       </c>
       <c r="N2" t="n">
-        <v>1470.434923996141</v>
+        <v>1314.4117480247</v>
       </c>
       <c r="O2" t="n">
-        <v>1619.416332497536</v>
+        <v>1619.416332497534</v>
       </c>
       <c r="P2" t="n">
-        <v>1847.573228953589</v>
+        <v>1847.573228953587</v>
       </c>
       <c r="Q2" t="n">
-        <v>1942.005482640127</v>
+        <v>1942.005482640124</v>
       </c>
       <c r="R2" t="n">
-        <v>1851.36719613598</v>
+        <v>1851.367196135977</v>
       </c>
       <c r="S2" t="n">
-        <v>1851.36719613598</v>
+        <v>1664.138220766331</v>
       </c>
       <c r="T2" t="n">
-        <v>1851.36719613598</v>
+        <v>1439.779274497342</v>
       </c>
       <c r="U2" t="n">
-        <v>1851.36719613598</v>
+        <v>1184.893938211336</v>
       </c>
       <c r="V2" t="n">
-        <v>1514.387922031921</v>
+        <v>847.9146641072775</v>
       </c>
       <c r="W2" t="n">
-        <v>1514.387922031921</v>
+        <v>485.3797339648785</v>
       </c>
       <c r="X2" t="n">
-        <v>1514.387922031921</v>
+        <v>103.3495934863719</v>
       </c>
       <c r="Y2" t="n">
-        <v>1514.387922031921</v>
+        <v>103.3495934863719</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>918.1528701548465</v>
+        <v>702.7425749017788</v>
       </c>
       <c r="C3" t="n">
-        <v>756.4491973958012</v>
+        <v>541.0389021427335</v>
       </c>
       <c r="D3" t="n">
-        <v>617.6105603860133</v>
+        <v>402.2002651329456</v>
       </c>
       <c r="E3" t="n">
-        <v>470.5825504428846</v>
+        <v>402.2002651329456</v>
       </c>
       <c r="F3" t="n">
-        <v>335.8887523927589</v>
+        <v>267.5064670828199</v>
       </c>
       <c r="G3" t="n">
-        <v>207.1602524160435</v>
+        <v>138.7779671061044</v>
       </c>
       <c r="H3" t="n">
-        <v>107.2223949627415</v>
+        <v>38.84010965280248</v>
       </c>
       <c r="I3" t="n">
-        <v>38.84010965280253</v>
+        <v>38.84010965280248</v>
       </c>
       <c r="J3" t="n">
-        <v>38.84010965280253</v>
+        <v>99.09425618590862</v>
       </c>
       <c r="K3" t="n">
-        <v>268.3306622129912</v>
+        <v>328.5848087460973</v>
       </c>
       <c r="L3" t="n">
-        <v>634.1525073831068</v>
+        <v>678.6168494575651</v>
       </c>
       <c r="M3" t="n">
-        <v>1114.798864336538</v>
+        <v>1159.263206410996</v>
       </c>
       <c r="N3" t="n">
-        <v>1392.033902070381</v>
+        <v>1639.909563364427</v>
       </c>
       <c r="O3" t="n">
-        <v>1784.233852854532</v>
+        <v>1639.909563364427</v>
       </c>
       <c r="P3" t="n">
-        <v>1784.233852854532</v>
+        <v>1942.005482640124</v>
       </c>
       <c r="Q3" t="n">
-        <v>1942.005482640127</v>
+        <v>1942.005482640124</v>
       </c>
       <c r="R3" t="n">
-        <v>1942.005482640127</v>
+        <v>1882.22121373507</v>
       </c>
       <c r="S3" t="n">
-        <v>1789.205995652867</v>
+        <v>1729.42172674781</v>
       </c>
       <c r="T3" t="n">
-        <v>1600.520891818852</v>
+        <v>1540.736622913795</v>
       </c>
       <c r="U3" t="n">
-        <v>1600.520891818852</v>
+        <v>1322.241830512105</v>
       </c>
       <c r="V3" t="n">
-        <v>1600.520891818852</v>
+        <v>1093.846207960439</v>
       </c>
       <c r="W3" t="n">
-        <v>1468.010627408734</v>
+        <v>852.530339193749</v>
       </c>
       <c r="X3" t="n">
-        <v>1270.093639286529</v>
+        <v>702.7425749017788</v>
       </c>
       <c r="Y3" t="n">
-        <v>1077.572312936107</v>
+        <v>702.7425749017788</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>38.84010965280253</v>
+        <v>38.84010965280248</v>
       </c>
       <c r="C4" t="n">
-        <v>38.84010965280253</v>
+        <v>38.84010965280248</v>
       </c>
       <c r="D4" t="n">
-        <v>38.84010965280253</v>
+        <v>38.84010965280248</v>
       </c>
       <c r="E4" t="n">
-        <v>38.84010965280253</v>
+        <v>38.84010965280248</v>
       </c>
       <c r="F4" t="n">
-        <v>38.84010965280253</v>
+        <v>38.84010965280248</v>
       </c>
       <c r="G4" t="n">
-        <v>38.84010965280253</v>
+        <v>38.84010965280248</v>
       </c>
       <c r="H4" t="n">
-        <v>38.84010965280253</v>
+        <v>38.84010965280248</v>
       </c>
       <c r="I4" t="n">
-        <v>38.84010965280253</v>
+        <v>38.84010965280248</v>
       </c>
       <c r="J4" t="n">
-        <v>38.84010965280253</v>
+        <v>38.84010965280248</v>
       </c>
       <c r="K4" t="n">
-        <v>72.44429739744595</v>
+        <v>72.44429739744589</v>
       </c>
       <c r="L4" t="n">
-        <v>173.0513767977055</v>
+        <v>173.0513767977054</v>
       </c>
       <c r="M4" t="n">
-        <v>291.0448829253072</v>
+        <v>291.0448829253071</v>
       </c>
       <c r="N4" t="n">
-        <v>409.4672246749076</v>
+        <v>409.4672246749075</v>
       </c>
       <c r="O4" t="n">
         <v>507.9308711705972</v>
       </c>
       <c r="P4" t="n">
-        <v>570.8993548987351</v>
+        <v>570.8993548987349</v>
       </c>
       <c r="Q4" t="n">
-        <v>570.8993548987351</v>
+        <v>532.3620135524239</v>
       </c>
       <c r="R4" t="n">
-        <v>570.8993548987351</v>
+        <v>532.3620135524239</v>
       </c>
       <c r="S4" t="n">
-        <v>570.8993548987351</v>
+        <v>532.3620135524239</v>
       </c>
       <c r="T4" t="n">
-        <v>570.8993548987351</v>
+        <v>530.8278781990041</v>
       </c>
       <c r="U4" t="n">
-        <v>570.8993548987351</v>
+        <v>530.8278781990041</v>
       </c>
       <c r="V4" t="n">
-        <v>556.2489752400277</v>
+        <v>270.0925737574267</v>
       </c>
       <c r="W4" t="n">
         <v>270.0925737574267</v>
       </c>
       <c r="X4" t="n">
-        <v>38.84010965280253</v>
+        <v>38.84010965280248</v>
       </c>
       <c r="Y4" t="n">
-        <v>38.84010965280253</v>
+        <v>38.84010965280248</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>815.7722022476053</v>
+        <v>628.6173974927332</v>
       </c>
       <c r="C5" t="n">
-        <v>433.8384435804126</v>
+        <v>628.6173974927332</v>
       </c>
       <c r="D5" t="n">
-        <v>61.01447880763611</v>
+        <v>628.6173974927332</v>
       </c>
       <c r="E5" t="n">
-        <v>61.01447880763611</v>
+        <v>233.8316775988401</v>
       </c>
       <c r="F5" t="n">
-        <v>50.9036921582105</v>
+        <v>223.7208909494144</v>
       </c>
       <c r="G5" t="n">
-        <v>38.84010965280253</v>
+        <v>211.6573084440065</v>
       </c>
       <c r="H5" t="n">
-        <v>38.84010965280253</v>
+        <v>211.6573084440065</v>
       </c>
       <c r="I5" t="n">
-        <v>38.84010965280253</v>
+        <v>38.84010965280248</v>
       </c>
       <c r="J5" t="n">
-        <v>38.84010965280253</v>
+        <v>110.8386539256081</v>
       </c>
       <c r="K5" t="n">
-        <v>194.9558499989525</v>
+        <v>350.9790259703909</v>
       </c>
       <c r="L5" t="n">
-        <v>542.8412230838987</v>
+        <v>698.8643990553371</v>
       </c>
       <c r="M5" t="n">
-        <v>936.0803893369866</v>
+        <v>936.0803893369839</v>
       </c>
       <c r="N5" t="n">
-        <v>1314.411748024702</v>
+        <v>1314.4117480247</v>
       </c>
       <c r="O5" t="n">
-        <v>1619.416332497536</v>
+        <v>1619.416332497534</v>
       </c>
       <c r="P5" t="n">
-        <v>1847.573228953589</v>
+        <v>1847.573228953587</v>
       </c>
       <c r="Q5" t="n">
-        <v>1942.005482640127</v>
+        <v>1942.005482640124</v>
       </c>
       <c r="R5" t="n">
-        <v>1851.36719613598</v>
+        <v>1851.367196135977</v>
       </c>
       <c r="S5" t="n">
-        <v>1664.138220766334</v>
+        <v>1851.367196135977</v>
       </c>
       <c r="T5" t="n">
-        <v>1439.779274497345</v>
+        <v>1627.008249866988</v>
       </c>
       <c r="U5" t="n">
-        <v>1439.779274497345</v>
+        <v>1372.122913580982</v>
       </c>
       <c r="V5" t="n">
-        <v>1209.815741765624</v>
+        <v>1372.122913580982</v>
       </c>
       <c r="W5" t="n">
-        <v>1209.815741765624</v>
+        <v>1009.587983438583</v>
       </c>
       <c r="X5" t="n">
-        <v>1209.815741765624</v>
+        <v>628.6173974927332</v>
       </c>
       <c r="Y5" t="n">
-        <v>1209.815741765624</v>
+        <v>628.6173974927332</v>
       </c>
     </row>
     <row r="6">
@@ -4620,10 +4620,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>849.7705848449076</v>
+        <v>710.9319478351197</v>
       </c>
       <c r="C6" t="n">
-        <v>688.0669120858623</v>
+        <v>549.2282750760744</v>
       </c>
       <c r="D6" t="n">
         <v>549.2282750760744</v>
@@ -4635,61 +4635,61 @@
         <v>267.5064670828199</v>
       </c>
       <c r="G6" t="n">
-        <v>138.7779671061045</v>
+        <v>138.7779671061044</v>
       </c>
       <c r="H6" t="n">
-        <v>38.84010965280253</v>
+        <v>38.84010965280248</v>
       </c>
       <c r="I6" t="n">
-        <v>38.84010965280253</v>
+        <v>38.84010965280248</v>
       </c>
       <c r="J6" t="n">
-        <v>99.09425618590868</v>
+        <v>99.09425618590862</v>
       </c>
       <c r="K6" t="n">
         <v>328.5848087460973</v>
       </c>
       <c r="L6" t="n">
-        <v>328.5848087460973</v>
+        <v>609.2916258412507</v>
       </c>
       <c r="M6" t="n">
-        <v>767.0632556268472</v>
+        <v>1089.937982794681</v>
       </c>
       <c r="N6" t="n">
-        <v>1247.709612580278</v>
+        <v>1089.937982794681</v>
       </c>
       <c r="O6" t="n">
-        <v>1639.909563364429</v>
+        <v>1482.137933578832</v>
       </c>
       <c r="P6" t="n">
-        <v>1942.005482640127</v>
+        <v>1784.233852854529</v>
       </c>
       <c r="Q6" t="n">
-        <v>1942.005482640127</v>
+        <v>1942.005482640124</v>
       </c>
       <c r="R6" t="n">
-        <v>1942.005482640127</v>
+        <v>1882.22121373507</v>
       </c>
       <c r="S6" t="n">
-        <v>1889.917637696636</v>
+        <v>1729.42172674781</v>
       </c>
       <c r="T6" t="n">
-        <v>1889.917637696636</v>
+        <v>1540.736622913795</v>
       </c>
       <c r="U6" t="n">
-        <v>1671.422845294946</v>
+        <v>1322.241830512105</v>
       </c>
       <c r="V6" t="n">
-        <v>1443.02722274328</v>
+        <v>1093.846207960439</v>
       </c>
       <c r="W6" t="n">
-        <v>1201.71135397659</v>
+        <v>1093.846207960439</v>
       </c>
       <c r="X6" t="n">
-        <v>1201.71135397659</v>
+        <v>895.9292198382335</v>
       </c>
       <c r="Y6" t="n">
-        <v>1009.190027626169</v>
+        <v>870.3513906163805</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>190.8491238914837</v>
+        <v>38.84010965280248</v>
       </c>
       <c r="C7" t="n">
-        <v>190.8491238914837</v>
+        <v>38.84010965280248</v>
       </c>
       <c r="D7" t="n">
-        <v>190.8491238914837</v>
+        <v>38.84010965280248</v>
       </c>
       <c r="E7" t="n">
-        <v>38.84010965280253</v>
+        <v>38.84010965280248</v>
       </c>
       <c r="F7" t="n">
-        <v>38.84010965280253</v>
+        <v>38.84010965280248</v>
       </c>
       <c r="G7" t="n">
-        <v>38.84010965280253</v>
+        <v>38.84010965280248</v>
       </c>
       <c r="H7" t="n">
-        <v>38.84010965280253</v>
+        <v>38.84010965280248</v>
       </c>
       <c r="I7" t="n">
-        <v>38.84010965280253</v>
+        <v>38.84010965280248</v>
       </c>
       <c r="J7" t="n">
-        <v>38.84010965280253</v>
+        <v>38.84010965280248</v>
       </c>
       <c r="K7" t="n">
-        <v>72.44429739744595</v>
+        <v>72.44429739744589</v>
       </c>
       <c r="L7" t="n">
-        <v>173.0513767977055</v>
+        <v>173.0513767977054</v>
       </c>
       <c r="M7" t="n">
-        <v>291.0448829253072</v>
+        <v>291.0448829253071</v>
       </c>
       <c r="N7" t="n">
-        <v>409.4672246749076</v>
+        <v>409.4672246749075</v>
       </c>
       <c r="O7" t="n">
         <v>507.9308711705972</v>
       </c>
       <c r="P7" t="n">
-        <v>570.8993548987351</v>
+        <v>570.8993548987349</v>
       </c>
       <c r="Q7" t="n">
-        <v>570.8993548987351</v>
+        <v>570.8993548987349</v>
       </c>
       <c r="R7" t="n">
-        <v>570.8993548987351</v>
+        <v>558.1754643197245</v>
       </c>
       <c r="S7" t="n">
-        <v>570.8993548987351</v>
+        <v>558.1754643197245</v>
       </c>
       <c r="T7" t="n">
-        <v>570.8993548987351</v>
+        <v>324.9965111354034</v>
       </c>
       <c r="U7" t="n">
-        <v>570.8993548987351</v>
+        <v>324.9965111354034</v>
       </c>
       <c r="V7" t="n">
-        <v>374.4044925758635</v>
+        <v>324.9965111354034</v>
       </c>
       <c r="W7" t="n">
-        <v>374.4044925758635</v>
+        <v>38.84010965280248</v>
       </c>
       <c r="X7" t="n">
-        <v>374.4044925758635</v>
+        <v>38.84010965280248</v>
       </c>
       <c r="Y7" t="n">
-        <v>374.4044925758635</v>
+        <v>38.84010965280248</v>
       </c>
     </row>
     <row r="8">
@@ -4778,22 +4778,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1254.213192004034</v>
+        <v>397.0198996587235</v>
       </c>
       <c r="C8" t="n">
-        <v>872.2794333368408</v>
+        <v>397.0198996587235</v>
       </c>
       <c r="D8" t="n">
-        <v>872.2794333368408</v>
+        <v>397.0198996587235</v>
       </c>
       <c r="E8" t="n">
-        <v>872.2794333368408</v>
+        <v>397.0198996587235</v>
       </c>
       <c r="F8" t="n">
-        <v>458.1282426470112</v>
+        <v>386.9091130092979</v>
       </c>
       <c r="G8" t="n">
-        <v>42.02425610119923</v>
+        <v>374.84553050389</v>
       </c>
       <c r="H8" t="n">
         <v>42.02425610119923</v>
@@ -4826,28 +4826,28 @@
         <v>2101.212805059961</v>
       </c>
       <c r="R8" t="n">
-        <v>2010.574518555815</v>
+        <v>2101.212805059961</v>
       </c>
       <c r="S8" t="n">
-        <v>2010.574518555815</v>
+        <v>1913.983829690315</v>
       </c>
       <c r="T8" t="n">
-        <v>2010.574518555815</v>
+        <v>1689.624883421327</v>
       </c>
       <c r="U8" t="n">
-        <v>2010.574518555815</v>
+        <v>1689.624883421327</v>
       </c>
       <c r="V8" t="n">
-        <v>2010.574518555815</v>
+        <v>1689.624883421327</v>
       </c>
       <c r="W8" t="n">
-        <v>2010.574518555815</v>
+        <v>1327.089953278928</v>
       </c>
       <c r="X8" t="n">
-        <v>2010.574518555815</v>
+        <v>1184.605294600905</v>
       </c>
       <c r="Y8" t="n">
-        <v>1648.256731522053</v>
+        <v>791.0634391767427</v>
       </c>
     </row>
     <row r="9">
@@ -4857,22 +4857,22 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>710.3492770987682</v>
+        <v>703.195773126389</v>
       </c>
       <c r="C9" t="n">
-        <v>548.6456043397229</v>
+        <v>541.4921003673437</v>
       </c>
       <c r="D9" t="n">
-        <v>417.7186234743454</v>
+        <v>402.6534633575558</v>
       </c>
       <c r="E9" t="n">
-        <v>270.6906135312166</v>
+        <v>255.625453414427</v>
       </c>
       <c r="F9" t="n">
-        <v>270.6906135312166</v>
+        <v>120.9316553643013</v>
       </c>
       <c r="G9" t="n">
-        <v>141.9621135545012</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="H9" t="n">
         <v>42.02425610119923</v>
@@ -4887,46 +4887,46 @@
         <v>331.768955194494</v>
       </c>
       <c r="L9" t="n">
-        <v>331.768955194494</v>
+        <v>697.5908003646097</v>
       </c>
       <c r="M9" t="n">
-        <v>816.8023087047204</v>
+        <v>737.8796590913968</v>
       </c>
       <c r="N9" t="n">
-        <v>1328.067954827843</v>
+        <v>1249.145305214519</v>
       </c>
       <c r="O9" t="n">
-        <v>1720.267905611993</v>
+        <v>1641.34525599867</v>
       </c>
       <c r="P9" t="n">
-        <v>2022.363824887691</v>
+        <v>1943.441175274367</v>
       </c>
       <c r="Q9" t="n">
         <v>2101.212805059961</v>
       </c>
       <c r="R9" t="n">
-        <v>2101.212805059961</v>
+        <v>2041.428536154907</v>
       </c>
       <c r="S9" t="n">
-        <v>1948.413318072701</v>
+        <v>1888.629049167647</v>
       </c>
       <c r="T9" t="n">
-        <v>1948.413318072701</v>
+        <v>1699.943945333632</v>
       </c>
       <c r="U9" t="n">
-        <v>1729.918525671012</v>
+        <v>1481.449152931943</v>
       </c>
       <c r="V9" t="n">
-        <v>1501.522903119346</v>
+        <v>1253.053530380276</v>
       </c>
       <c r="W9" t="n">
-        <v>1260.207034352656</v>
+        <v>1253.053530380276</v>
       </c>
       <c r="X9" t="n">
-        <v>1062.29004623045</v>
+        <v>1055.136542258071</v>
       </c>
       <c r="Y9" t="n">
-        <v>869.7687198800292</v>
+        <v>862.6152159076499</v>
       </c>
     </row>
     <row r="10">
@@ -4981,16 +4981,16 @@
         <v>574.0835013471317</v>
       </c>
       <c r="Q10" t="n">
-        <v>574.0835013471317</v>
+        <v>535.5461600008207</v>
       </c>
       <c r="R10" t="n">
-        <v>574.0835013471317</v>
+        <v>535.5461600008207</v>
       </c>
       <c r="S10" t="n">
-        <v>574.0835013471317</v>
+        <v>512.7698642964792</v>
       </c>
       <c r="T10" t="n">
-        <v>340.9045481628106</v>
+        <v>512.7698642964792</v>
       </c>
       <c r="U10" t="n">
         <v>225.5796247855791</v>
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1256.650174559145</v>
+        <v>936.0381185586311</v>
       </c>
       <c r="C11" t="n">
-        <v>989.2923406477187</v>
+        <v>668.6802846472049</v>
       </c>
       <c r="D11" t="n">
-        <v>731.0443006307087</v>
+        <v>410.4322446301951</v>
       </c>
       <c r="E11" t="n">
-        <v>570.8740857990558</v>
+        <v>408.9172143315866</v>
       </c>
       <c r="F11" t="n">
-        <v>570.8740857990558</v>
+        <v>109.3419483975233</v>
       </c>
       <c r="G11" t="n">
-        <v>269.3460240090101</v>
+        <v>109.3419483975233</v>
       </c>
       <c r="H11" t="n">
-        <v>51.10067436208575</v>
+        <v>109.3419483975233</v>
       </c>
       <c r="I11" t="n">
-        <v>51.10067436208575</v>
+        <v>51.10067436208574</v>
       </c>
       <c r="J11" t="n">
-        <v>235.395082488018</v>
+        <v>123.0992186348914</v>
       </c>
       <c r="K11" t="n">
-        <v>587.8313183859275</v>
+        <v>363.2395906796742</v>
       </c>
       <c r="L11" t="n">
-        <v>1020.112315444521</v>
+        <v>823.420827617747</v>
       </c>
       <c r="M11" t="n">
-        <v>1413.351481697609</v>
+        <v>1328.955857723962</v>
       </c>
       <c r="N11" t="n">
-        <v>1791.682840385324</v>
+        <v>1791.682840385323</v>
       </c>
       <c r="O11" t="n">
-        <v>2096.687424858158</v>
+        <v>2096.687424858157</v>
       </c>
       <c r="P11" t="n">
-        <v>2324.844321314211</v>
+        <v>2324.84432131421</v>
       </c>
       <c r="Q11" t="n">
-        <v>2531.572438853875</v>
+        <v>2531.572438853874</v>
       </c>
       <c r="R11" t="n">
-        <v>2555.033718104288</v>
+        <v>2555.033718104287</v>
       </c>
       <c r="S11" t="n">
-        <v>2555.033718104288</v>
+        <v>2482.380667490407</v>
       </c>
       <c r="T11" t="n">
-        <v>2445.250696591066</v>
+        <v>2372.597645977185</v>
       </c>
       <c r="U11" t="n">
-        <v>2304.941285060826</v>
+        <v>2232.288234446945</v>
       </c>
       <c r="V11" t="n">
-        <v>2082.537935712533</v>
+        <v>2009.884885098653</v>
       </c>
       <c r="W11" t="n">
-        <v>2082.537935712533</v>
+        <v>1761.92587971202</v>
       </c>
       <c r="X11" t="n">
-        <v>1815.083719989793</v>
+        <v>1494.471663989279</v>
       </c>
       <c r="Y11" t="n">
-        <v>1536.117789321398</v>
+        <v>1215.505733320884</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5094,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>930.4134348641297</v>
+        <v>915.700817404025</v>
       </c>
       <c r="C12" t="n">
-        <v>768.7097621050845</v>
+        <v>753.9971446449797</v>
       </c>
       <c r="D12" t="n">
-        <v>629.8711250952965</v>
+        <v>615.1585076351918</v>
       </c>
       <c r="E12" t="n">
-        <v>482.8431151521678</v>
+        <v>468.130497692063</v>
       </c>
       <c r="F12" t="n">
-        <v>348.1493171020421</v>
+        <v>333.4366996419374</v>
       </c>
       <c r="G12" t="n">
-        <v>219.4208171253267</v>
+        <v>204.7081996652219</v>
       </c>
       <c r="H12" t="n">
-        <v>119.4829596720248</v>
+        <v>104.77034221192</v>
       </c>
       <c r="I12" t="n">
-        <v>51.10067436208575</v>
+        <v>51.10067436208574</v>
       </c>
       <c r="J12" t="n">
-        <v>111.3548208951929</v>
+        <v>111.3548208951919</v>
       </c>
       <c r="K12" t="n">
-        <v>340.8453734553815</v>
+        <v>340.8453734553806</v>
       </c>
       <c r="L12" t="n">
-        <v>706.6672186254972</v>
+        <v>706.6672186254962</v>
       </c>
       <c r="M12" t="n">
-        <v>1191.700572135724</v>
+        <v>1191.700572135723</v>
       </c>
       <c r="N12" t="n">
-        <v>1702.966218258846</v>
+        <v>1702.966218258845</v>
       </c>
       <c r="O12" t="n">
         <v>2095.166169042996</v>
       </c>
       <c r="P12" t="n">
-        <v>2397.262088318694</v>
+        <v>2397.262088318693</v>
       </c>
       <c r="Q12" t="n">
-        <v>2555.033718104288</v>
+        <v>2555.033718104287</v>
       </c>
       <c r="R12" t="n">
-        <v>2509.962066659337</v>
+        <v>2495.249449199232</v>
       </c>
       <c r="S12" t="n">
-        <v>2357.162579672078</v>
+        <v>2342.449962211973</v>
       </c>
       <c r="T12" t="n">
-        <v>2168.477475838063</v>
+        <v>2153.764858377958</v>
       </c>
       <c r="U12" t="n">
-        <v>1949.982683436373</v>
+        <v>1935.270065976268</v>
       </c>
       <c r="V12" t="n">
-        <v>1721.587060884707</v>
+        <v>1706.874443424602</v>
       </c>
       <c r="W12" t="n">
-        <v>1480.271192118017</v>
+        <v>1465.558574657912</v>
       </c>
       <c r="X12" t="n">
-        <v>1282.354203995812</v>
+        <v>1267.641586535707</v>
       </c>
       <c r="Y12" t="n">
-        <v>1089.832877645391</v>
+        <v>1075.120260185286</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>348.7421712453797</v>
+        <v>348.7421712453796</v>
       </c>
       <c r="C13" t="n">
-        <v>293.7021264628264</v>
+        <v>293.7021264628262</v>
       </c>
       <c r="D13" t="n">
-        <v>255.2061580463555</v>
+        <v>255.2061580463553</v>
       </c>
       <c r="E13" t="n">
-        <v>217.7730685634407</v>
+        <v>217.7730685634406</v>
       </c>
       <c r="F13" t="n">
-        <v>179.8683383449842</v>
+        <v>179.8683383449841</v>
       </c>
       <c r="G13" t="n">
-        <v>125.5245144686006</v>
+        <v>125.5245144686005</v>
       </c>
       <c r="H13" t="n">
-        <v>80.72779400364085</v>
+        <v>80.72779400364084</v>
       </c>
       <c r="I13" t="n">
-        <v>51.10067436208575</v>
+        <v>51.10067436208574</v>
       </c>
       <c r="J13" t="n">
-        <v>104.5344386772431</v>
+        <v>104.5344386772426</v>
       </c>
       <c r="K13" t="n">
-        <v>250.4344902750131</v>
+        <v>250.4344902750126</v>
       </c>
       <c r="L13" t="n">
-        <v>463.3374335283996</v>
+        <v>463.3374335283984</v>
       </c>
       <c r="M13" t="n">
-        <v>693.626803509128</v>
+        <v>693.6268035091273</v>
       </c>
       <c r="N13" t="n">
-        <v>924.3450091118551</v>
+        <v>924.3450091118543</v>
       </c>
       <c r="O13" t="n">
         <v>1135.104519460671</v>
       </c>
       <c r="P13" t="n">
-        <v>1310.368867041936</v>
+        <v>1310.368867041935</v>
       </c>
       <c r="Q13" t="n">
-        <v>1384.894282641543</v>
+        <v>1384.894282641542</v>
       </c>
       <c r="R13" t="n">
-        <v>1349.948426011688</v>
+        <v>1349.948426011687</v>
       </c>
       <c r="S13" t="n">
-        <v>1250.814588171142</v>
+        <v>1250.814588171141</v>
       </c>
       <c r="T13" t="n">
-        <v>1132.211559742587</v>
+        <v>1132.211559742586</v>
       </c>
       <c r="U13" t="n">
-        <v>959.597244987453</v>
+        <v>959.5972449874528</v>
       </c>
       <c r="V13" t="n">
-        <v>813.4378653016421</v>
+        <v>813.4378653016416</v>
       </c>
       <c r="W13" t="n">
-        <v>641.8573885748076</v>
+        <v>641.8573885748073</v>
       </c>
       <c r="X13" t="n">
-        <v>525.1808492259497</v>
+        <v>525.1808492259495</v>
       </c>
       <c r="Y13" t="n">
-        <v>417.7216151739931</v>
+        <v>417.721615173993</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5252,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>936.0381185586325</v>
+        <v>1408.907186888256</v>
       </c>
       <c r="C14" t="n">
-        <v>668.680284647206</v>
+        <v>1408.907186888256</v>
       </c>
       <c r="D14" t="n">
-        <v>410.4322446301962</v>
+        <v>1150.659146871246</v>
       </c>
       <c r="E14" t="n">
-        <v>327.5872980444477</v>
+        <v>870.449351733119</v>
       </c>
       <c r="F14" t="n">
-        <v>327.5872980444477</v>
+        <v>570.8740857990557</v>
       </c>
       <c r="G14" t="n">
-        <v>327.5872980444477</v>
+        <v>269.3460240090101</v>
       </c>
       <c r="H14" t="n">
-        <v>109.3419483975234</v>
+        <v>51.10067436208574</v>
       </c>
       <c r="I14" t="n">
-        <v>51.10067436208575</v>
+        <v>51.10067436208574</v>
       </c>
       <c r="J14" t="n">
-        <v>123.0992186348914</v>
+        <v>235.395082488018</v>
       </c>
       <c r="K14" t="n">
-        <v>475.5354545328008</v>
+        <v>587.8313183859275</v>
       </c>
       <c r="L14" t="n">
         <v>935.7166914708737</v>
       </c>
       <c r="M14" t="n">
-        <v>1441.251721577088</v>
+        <v>1328.955857723962</v>
       </c>
       <c r="N14" t="n">
         <v>1819.583080264804</v>
       </c>
       <c r="O14" t="n">
-        <v>2208.983288711285</v>
+        <v>2124.587664737638</v>
       </c>
       <c r="P14" t="n">
-        <v>2437.140185167338</v>
+        <v>2352.744561193691</v>
       </c>
       <c r="Q14" t="n">
-        <v>2531.572438853875</v>
+        <v>2531.572438853874</v>
       </c>
       <c r="R14" t="n">
-        <v>2555.033718104288</v>
+        <v>2555.033718104287</v>
       </c>
       <c r="S14" t="n">
-        <v>2482.380667490408</v>
+        <v>2482.380667490407</v>
       </c>
       <c r="T14" t="n">
         <v>2372.597645977185</v>
       </c>
       <c r="U14" t="n">
-        <v>2232.288234446946</v>
+        <v>2232.288234446945</v>
       </c>
       <c r="V14" t="n">
-        <v>2009.884885098654</v>
+        <v>2009.884885098653</v>
       </c>
       <c r="W14" t="n">
         <v>1761.925879712021</v>
       </c>
       <c r="X14" t="n">
-        <v>1494.471663989281</v>
+        <v>1761.925879712021</v>
       </c>
       <c r="Y14" t="n">
-        <v>1215.505733320885</v>
+        <v>1688.374801650508</v>
       </c>
     </row>
     <row r="15">
@@ -5331,76 +5331,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>915.7008174040259</v>
+        <v>915.700817404025</v>
       </c>
       <c r="C15" t="n">
-        <v>753.9971446449806</v>
+        <v>753.9971446449797</v>
       </c>
       <c r="D15" t="n">
-        <v>615.1585076351927</v>
+        <v>615.1585076351918</v>
       </c>
       <c r="E15" t="n">
-        <v>468.1304976920639</v>
+        <v>468.130497692063</v>
       </c>
       <c r="F15" t="n">
-        <v>333.4366996419383</v>
+        <v>333.4366996419374</v>
       </c>
       <c r="G15" t="n">
-        <v>219.4208171253267</v>
+        <v>204.7081996652219</v>
       </c>
       <c r="H15" t="n">
-        <v>119.4829596720248</v>
+        <v>104.77034221192</v>
       </c>
       <c r="I15" t="n">
-        <v>51.10067436208575</v>
+        <v>51.10067436208574</v>
       </c>
       <c r="J15" t="n">
-        <v>111.3548208951929</v>
+        <v>111.354820895192</v>
       </c>
       <c r="K15" t="n">
-        <v>340.8453734553815</v>
+        <v>340.8453734553806</v>
       </c>
       <c r="L15" t="n">
-        <v>706.6672186254972</v>
+        <v>706.6672186254963</v>
       </c>
       <c r="M15" t="n">
-        <v>1191.700572135724</v>
+        <v>1191.700572135723</v>
       </c>
       <c r="N15" t="n">
-        <v>1702.966218258846</v>
+        <v>1702.966218258845</v>
       </c>
       <c r="O15" t="n">
         <v>2095.166169042996</v>
       </c>
       <c r="P15" t="n">
-        <v>2397.262088318694</v>
+        <v>2397.262088318693</v>
       </c>
       <c r="Q15" t="n">
-        <v>2555.033718104288</v>
+        <v>2555.033718104287</v>
       </c>
       <c r="R15" t="n">
-        <v>2495.249449199233</v>
+        <v>2495.249449199232</v>
       </c>
       <c r="S15" t="n">
-        <v>2342.449962211974</v>
+        <v>2342.449962211973</v>
       </c>
       <c r="T15" t="n">
-        <v>2153.764858377959</v>
+        <v>2153.764858377958</v>
       </c>
       <c r="U15" t="n">
-        <v>1935.270065976269</v>
+        <v>1935.270065976268</v>
       </c>
       <c r="V15" t="n">
-        <v>1706.874443424603</v>
+        <v>1706.874443424602</v>
       </c>
       <c r="W15" t="n">
-        <v>1465.558574657913</v>
+        <v>1465.558574657912</v>
       </c>
       <c r="X15" t="n">
-        <v>1267.641586535708</v>
+        <v>1267.641586535707</v>
       </c>
       <c r="Y15" t="n">
-        <v>1075.120260185287</v>
+        <v>1075.120260185286</v>
       </c>
     </row>
     <row r="16">
@@ -5410,46 +5410,46 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>348.7421712453798</v>
+        <v>348.7421712453796</v>
       </c>
       <c r="C16" t="n">
-        <v>293.7021264628265</v>
+        <v>293.7021264628263</v>
       </c>
       <c r="D16" t="n">
-        <v>255.2061580463556</v>
+        <v>255.2061580463554</v>
       </c>
       <c r="E16" t="n">
-        <v>217.7730685634408</v>
+        <v>217.7730685634407</v>
       </c>
       <c r="F16" t="n">
-        <v>179.8683383449843</v>
+        <v>179.8683383449842</v>
       </c>
       <c r="G16" t="n">
-        <v>125.5245144686007</v>
+        <v>125.5245144686006</v>
       </c>
       <c r="H16" t="n">
-        <v>80.72779400364087</v>
+        <v>80.72779400364081</v>
       </c>
       <c r="I16" t="n">
-        <v>51.10067436208575</v>
+        <v>51.10067436208574</v>
       </c>
       <c r="J16" t="n">
-        <v>104.5344386772437</v>
+        <v>104.5344386772431</v>
       </c>
       <c r="K16" t="n">
-        <v>250.4344902750137</v>
+        <v>250.4344902750131</v>
       </c>
       <c r="L16" t="n">
-        <v>463.3374335283999</v>
+        <v>463.3374335283992</v>
       </c>
       <c r="M16" t="n">
-        <v>693.6268035091282</v>
+        <v>693.6268035091276</v>
       </c>
       <c r="N16" t="n">
-        <v>924.3450091118552</v>
+        <v>924.3450091118547</v>
       </c>
       <c r="O16" t="n">
-        <v>1135.104519460672</v>
+        <v>1135.104519460671</v>
       </c>
       <c r="P16" t="n">
         <v>1310.368867041936</v>
@@ -5458,28 +5458,28 @@
         <v>1384.894282641543</v>
       </c>
       <c r="R16" t="n">
-        <v>1349.948426011688</v>
+        <v>1349.948426011687</v>
       </c>
       <c r="S16" t="n">
-        <v>1250.814588171142</v>
+        <v>1250.814588171141</v>
       </c>
       <c r="T16" t="n">
         <v>1132.211559742587</v>
       </c>
       <c r="U16" t="n">
-        <v>959.5972449874532</v>
+        <v>959.5972449874529</v>
       </c>
       <c r="V16" t="n">
-        <v>813.4378653016422</v>
+        <v>813.4378653016419</v>
       </c>
       <c r="W16" t="n">
-        <v>641.8573885748077</v>
+        <v>641.8573885748074</v>
       </c>
       <c r="X16" t="n">
-        <v>525.1808492259498</v>
+        <v>525.1808492259495</v>
       </c>
       <c r="Y16" t="n">
-        <v>417.7216151739933</v>
+        <v>417.721615173993</v>
       </c>
     </row>
     <row r="17">
@@ -5507,55 +5507,55 @@
         <v>221.1248745409159</v>
       </c>
       <c r="H17" t="n">
-        <v>56.11073664575748</v>
+        <v>56.11073664575746</v>
       </c>
       <c r="I17" t="n">
-        <v>51.10067436208575</v>
+        <v>51.10067436208574</v>
       </c>
       <c r="J17" t="n">
-        <v>287.5669931259238</v>
+        <v>123.0992186348914</v>
       </c>
       <c r="K17" t="n">
-        <v>692.175139661739</v>
+        <v>363.2395906796742</v>
       </c>
       <c r="L17" t="n">
-        <v>1080.236268659742</v>
+        <v>711.1249637646204</v>
       </c>
       <c r="M17" t="n">
-        <v>1473.47543491283</v>
+        <v>1220.173075819082</v>
       </c>
       <c r="N17" t="n">
-        <v>1851.806793600545</v>
+        <v>1598.504434506798</v>
       </c>
       <c r="O17" t="n">
-        <v>2156.811378073379</v>
+        <v>1903.509018979632</v>
       </c>
       <c r="P17" t="n">
-        <v>2384.968274529433</v>
+        <v>2296.133689926718</v>
       </c>
       <c r="Q17" t="n">
-        <v>2479.40052821597</v>
+        <v>2555.033718104287</v>
       </c>
       <c r="R17" t="n">
-        <v>2555.033718104288</v>
+        <v>2555.033718104287</v>
       </c>
       <c r="S17" t="n">
-        <v>2535.611879242174</v>
+        <v>2535.611879242173</v>
       </c>
       <c r="T17" t="n">
-        <v>2479.060069480718</v>
+        <v>2479.060069480717</v>
       </c>
       <c r="U17" t="n">
-        <v>2391.981869702242</v>
+        <v>2391.981869702243</v>
       </c>
       <c r="V17" t="n">
-        <v>2222.809732105716</v>
+        <v>2222.809732105717</v>
       </c>
       <c r="W17" t="n">
-        <v>2028.081938470849</v>
+        <v>2028.08193847085</v>
       </c>
       <c r="X17" t="n">
-        <v>1813.858934499875</v>
+        <v>1813.858934499876</v>
       </c>
       <c r="Y17" t="n">
         <v>1588.124215583245</v>
@@ -5568,28 +5568,28 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>930.4134348641297</v>
+        <v>915.700817404025</v>
       </c>
       <c r="C18" t="n">
-        <v>768.7097621050845</v>
+        <v>753.9971446449797</v>
       </c>
       <c r="D18" t="n">
-        <v>629.8711250952965</v>
+        <v>615.1585076351918</v>
       </c>
       <c r="E18" t="n">
-        <v>482.8431151521678</v>
+        <v>468.130497692063</v>
       </c>
       <c r="F18" t="n">
-        <v>348.1493171020421</v>
+        <v>333.4366996419374</v>
       </c>
       <c r="G18" t="n">
         <v>219.4208171253267</v>
       </c>
       <c r="H18" t="n">
-        <v>119.4829596720248</v>
+        <v>119.4829596720247</v>
       </c>
       <c r="I18" t="n">
-        <v>51.10067436208575</v>
+        <v>51.10067436208574</v>
       </c>
       <c r="J18" t="n">
         <v>111.3548208951919</v>
@@ -5613,31 +5613,31 @@
         <v>2397.262088318693</v>
       </c>
       <c r="Q18" t="n">
-        <v>2555.033718104288</v>
+        <v>2555.033718104287</v>
       </c>
       <c r="R18" t="n">
-        <v>2509.962066659337</v>
+        <v>2495.249449199232</v>
       </c>
       <c r="S18" t="n">
-        <v>2357.162579672078</v>
+        <v>2342.449962211973</v>
       </c>
       <c r="T18" t="n">
-        <v>2168.477475838063</v>
+        <v>2153.764858377958</v>
       </c>
       <c r="U18" t="n">
-        <v>1949.982683436373</v>
+        <v>1935.270065976268</v>
       </c>
       <c r="V18" t="n">
-        <v>1721.587060884707</v>
+        <v>1706.874443424602</v>
       </c>
       <c r="W18" t="n">
-        <v>1480.271192118017</v>
+        <v>1465.558574657912</v>
       </c>
       <c r="X18" t="n">
-        <v>1282.354203995812</v>
+        <v>1267.641586535707</v>
       </c>
       <c r="Y18" t="n">
-        <v>1089.832877645391</v>
+        <v>1075.120260185286</v>
       </c>
     </row>
     <row r="19">
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>54.02211951749092</v>
+        <v>52.90950739287318</v>
       </c>
       <c r="C19" t="n">
-        <v>52.21328648670348</v>
+        <v>51.10067436208574</v>
       </c>
       <c r="D19" t="n">
-        <v>52.21328648670348</v>
+        <v>51.10067436208574</v>
       </c>
       <c r="E19" t="n">
-        <v>52.21328648670348</v>
+        <v>51.10067436208574</v>
       </c>
       <c r="F19" t="n">
-        <v>52.21328648670348</v>
+        <v>66.12215891288227</v>
       </c>
       <c r="G19" t="n">
-        <v>51.10067436208575</v>
+        <v>65.00954678826454</v>
       </c>
       <c r="H19" t="n">
-        <v>51.10067436208575</v>
+        <v>73.27619169846319</v>
       </c>
       <c r="I19" t="n">
-        <v>51.10067436208575</v>
+        <v>78.28534634413701</v>
       </c>
       <c r="J19" t="n">
-        <v>51.10067436208575</v>
+        <v>78.28534634413701</v>
       </c>
       <c r="K19" t="n">
-        <v>84.70486210672917</v>
+        <v>111.8895340887804</v>
       </c>
       <c r="L19" t="n">
-        <v>185.3119415069887</v>
+        <v>212.4966134890399</v>
       </c>
       <c r="M19" t="n">
-        <v>303.3054476345904</v>
+        <v>330.4901196166417</v>
       </c>
       <c r="N19" t="n">
-        <v>421.7277893841908</v>
+        <v>448.912461366242</v>
       </c>
       <c r="O19" t="n">
-        <v>520.1914358798805</v>
+        <v>547.3761078619317</v>
       </c>
       <c r="P19" t="n">
-        <v>583.1599196080183</v>
+        <v>610.3445915900695</v>
       </c>
       <c r="Q19" t="n">
-        <v>629.3786802696717</v>
+        <v>610.3445915900695</v>
       </c>
       <c r="R19" t="n">
-        <v>629.3786802696717</v>
+        <v>628.266068145054</v>
       </c>
       <c r="S19" t="n">
-        <v>583.4760541808915</v>
+        <v>582.3634420562738</v>
       </c>
       <c r="T19" t="n">
-        <v>518.1042375041027</v>
+        <v>516.991625379485</v>
       </c>
       <c r="U19" t="n">
-        <v>398.7211345007349</v>
+        <v>397.6085223761172</v>
       </c>
       <c r="V19" t="n">
-        <v>305.7929665666898</v>
+        <v>304.680354442072</v>
       </c>
       <c r="W19" t="n">
-        <v>187.4437015916211</v>
+        <v>186.3310894670034</v>
       </c>
       <c r="X19" t="n">
-        <v>123.9983739945291</v>
+        <v>122.8857618699114</v>
       </c>
       <c r="Y19" t="n">
-        <v>69.77035169433847</v>
+        <v>68.65773956972075</v>
       </c>
     </row>
     <row r="20">
@@ -5729,58 +5729,58 @@
         <v>1361.887812572759</v>
       </c>
       <c r="C20" t="n">
-        <v>1147.761190413099</v>
+        <v>1147.761190413098</v>
       </c>
       <c r="D20" t="n">
-        <v>942.7443621478543</v>
+        <v>942.744362147854</v>
       </c>
       <c r="E20" t="n">
-        <v>715.7657787614934</v>
+        <v>715.765778761493</v>
       </c>
       <c r="F20" t="n">
-        <v>469.4217245791959</v>
+        <v>469.4217245791957</v>
       </c>
       <c r="G20" t="n">
-        <v>221.1248745409162</v>
+        <v>221.1248745409159</v>
       </c>
       <c r="H20" t="n">
-        <v>56.11073664575748</v>
+        <v>56.11073664575746</v>
       </c>
       <c r="I20" t="n">
-        <v>51.10067436208575</v>
+        <v>51.10067436208574</v>
       </c>
       <c r="J20" t="n">
-        <v>123.0992186348914</v>
+        <v>238.9081644362655</v>
       </c>
       <c r="K20" t="n">
-        <v>363.2395906796742</v>
+        <v>479.0485364810483</v>
       </c>
       <c r="L20" t="n">
-        <v>711.1249637646204</v>
+        <v>826.9339095659946</v>
       </c>
       <c r="M20" t="n">
-        <v>1268.831904508741</v>
+        <v>1220.173075819082</v>
       </c>
       <c r="N20" t="n">
-        <v>1811.631037687489</v>
+        <v>1762.97220899783</v>
       </c>
       <c r="O20" t="n">
-        <v>2116.635622160322</v>
+        <v>2067.976793470664</v>
       </c>
       <c r="P20" t="n">
-        <v>2344.792518616376</v>
+        <v>2460.60146441775</v>
       </c>
       <c r="Q20" t="n">
-        <v>2479.40052821597</v>
+        <v>2555.033718104287</v>
       </c>
       <c r="R20" t="n">
-        <v>2555.033718104288</v>
+        <v>2555.033718104287</v>
       </c>
       <c r="S20" t="n">
-        <v>2535.611879242174</v>
+        <v>2535.611879242173</v>
       </c>
       <c r="T20" t="n">
-        <v>2479.060069480718</v>
+        <v>2479.060069480717</v>
       </c>
       <c r="U20" t="n">
         <v>2391.981869702243</v>
@@ -5792,10 +5792,10 @@
         <v>2028.08193847085</v>
       </c>
       <c r="X20" t="n">
-        <v>1813.858934499876</v>
+        <v>1813.858934499875</v>
       </c>
       <c r="Y20" t="n">
-        <v>1588.124215583246</v>
+        <v>1588.124215583245</v>
       </c>
     </row>
     <row r="21">
@@ -5805,28 +5805,28 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>930.4134348641297</v>
+        <v>915.700817404025</v>
       </c>
       <c r="C21" t="n">
-        <v>768.7097621050845</v>
+        <v>753.9971446449797</v>
       </c>
       <c r="D21" t="n">
-        <v>629.8711250952965</v>
+        <v>615.1585076351918</v>
       </c>
       <c r="E21" t="n">
-        <v>482.8431151521678</v>
+        <v>468.130497692063</v>
       </c>
       <c r="F21" t="n">
-        <v>348.1493171020421</v>
+        <v>333.4366996419374</v>
       </c>
       <c r="G21" t="n">
-        <v>219.4208171253267</v>
+        <v>204.7081996652219</v>
       </c>
       <c r="H21" t="n">
-        <v>119.4829596720248</v>
+        <v>104.77034221192</v>
       </c>
       <c r="I21" t="n">
-        <v>51.10067436208575</v>
+        <v>51.10067436208574</v>
       </c>
       <c r="J21" t="n">
         <v>111.3548208951919</v>
@@ -5850,31 +5850,31 @@
         <v>2397.262088318693</v>
       </c>
       <c r="Q21" t="n">
-        <v>2555.033718104288</v>
+        <v>2555.033718104287</v>
       </c>
       <c r="R21" t="n">
-        <v>2509.962066659337</v>
+        <v>2495.249449199232</v>
       </c>
       <c r="S21" t="n">
-        <v>2357.162579672078</v>
+        <v>2342.449962211973</v>
       </c>
       <c r="T21" t="n">
-        <v>2168.477475838063</v>
+        <v>2153.764858377958</v>
       </c>
       <c r="U21" t="n">
-        <v>1949.982683436373</v>
+        <v>1935.270065976268</v>
       </c>
       <c r="V21" t="n">
-        <v>1721.587060884707</v>
+        <v>1706.874443424602</v>
       </c>
       <c r="W21" t="n">
-        <v>1480.271192118017</v>
+        <v>1465.558574657912</v>
       </c>
       <c r="X21" t="n">
-        <v>1282.354203995812</v>
+        <v>1267.641586535707</v>
       </c>
       <c r="Y21" t="n">
-        <v>1089.832877645391</v>
+        <v>1075.120260185286</v>
       </c>
     </row>
     <row r="22">
@@ -5884,49 +5884,49 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>52.90950739287319</v>
+        <v>52.90950739287318</v>
       </c>
       <c r="C22" t="n">
-        <v>51.10067436208575</v>
+        <v>51.10067436208574</v>
       </c>
       <c r="D22" t="n">
-        <v>65.54268635500839</v>
+        <v>51.10067436208574</v>
       </c>
       <c r="E22" t="n">
-        <v>81.02642599070936</v>
+        <v>51.10067436208574</v>
       </c>
       <c r="F22" t="n">
-        <v>96.04791054150589</v>
+        <v>52.21328648670347</v>
       </c>
       <c r="G22" t="n">
-        <v>94.93529841688816</v>
+        <v>51.10067436208574</v>
       </c>
       <c r="H22" t="n">
-        <v>96.20682289912145</v>
+        <v>51.10067436208574</v>
       </c>
       <c r="I22" t="n">
-        <v>96.20682289912145</v>
+        <v>51.10067436208574</v>
       </c>
       <c r="J22" t="n">
-        <v>96.20682289912145</v>
+        <v>51.10067436208574</v>
       </c>
       <c r="K22" t="n">
-        <v>129.8110106437649</v>
+        <v>84.70486210672915</v>
       </c>
       <c r="L22" t="n">
-        <v>230.4180900440244</v>
+        <v>185.3119415069887</v>
       </c>
       <c r="M22" t="n">
-        <v>348.4115961716261</v>
+        <v>303.3054476345904</v>
       </c>
       <c r="N22" t="n">
-        <v>466.8339379212265</v>
+        <v>421.7277893841908</v>
       </c>
       <c r="O22" t="n">
-        <v>565.2975844169162</v>
+        <v>520.1914358798805</v>
       </c>
       <c r="P22" t="n">
-        <v>628.266068145054</v>
+        <v>583.1599196080183</v>
       </c>
       <c r="Q22" t="n">
         <v>628.266068145054</v>
@@ -5981,34 +5981,34 @@
         <v>221.1248745409159</v>
       </c>
       <c r="H23" t="n">
-        <v>56.11073664575746</v>
+        <v>56.11073664575745</v>
       </c>
       <c r="I23" t="n">
         <v>51.10067436208573</v>
       </c>
       <c r="J23" t="n">
-        <v>287.5669931259238</v>
+        <v>238.9081644362653</v>
       </c>
       <c r="K23" t="n">
-        <v>567.8831210837625</v>
+        <v>479.048536481048</v>
       </c>
       <c r="L23" t="n">
-        <v>915.7684941687087</v>
+        <v>991.4016840570266</v>
       </c>
       <c r="M23" t="n">
-        <v>1309.007660421797</v>
+        <v>1384.640850310115</v>
       </c>
       <c r="N23" t="n">
-        <v>1687.339019109512</v>
+        <v>1762.97220899783</v>
       </c>
       <c r="O23" t="n">
-        <v>1992.343603582346</v>
+        <v>2232.444567961697</v>
       </c>
       <c r="P23" t="n">
-        <v>2384.968274529432</v>
+        <v>2460.60146441775</v>
       </c>
       <c r="Q23" t="n">
-        <v>2479.400528215969</v>
+        <v>2555.033718104287</v>
       </c>
       <c r="R23" t="n">
         <v>2555.033718104287</v>
@@ -6017,16 +6017,16 @@
         <v>2535.611879242173</v>
       </c>
       <c r="T23" t="n">
-        <v>2479.060069480717</v>
+        <v>2479.060069480716</v>
       </c>
       <c r="U23" t="n">
-        <v>2391.981869702243</v>
+        <v>2391.981869702242</v>
       </c>
       <c r="V23" t="n">
-        <v>2222.809732105717</v>
+        <v>2222.809732105716</v>
       </c>
       <c r="W23" t="n">
-        <v>2028.08193847085</v>
+        <v>2028.081938470849</v>
       </c>
       <c r="X23" t="n">
         <v>1813.858934499875</v>
@@ -6060,7 +6060,7 @@
         <v>204.7081996652224</v>
       </c>
       <c r="H24" t="n">
-        <v>119.4829596720247</v>
+        <v>104.7703422119204</v>
       </c>
       <c r="I24" t="n">
         <v>51.10067436208573</v>
@@ -6121,13 +6121,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>54.02211951749089</v>
+        <v>52.90950739287317</v>
       </c>
       <c r="C25" t="n">
-        <v>52.21328648670345</v>
+        <v>51.10067436208573</v>
       </c>
       <c r="D25" t="n">
-        <v>52.21328648670345</v>
+        <v>51.10067436208573</v>
       </c>
       <c r="E25" t="n">
         <v>52.21328648670345</v>
@@ -6139,58 +6139,58 @@
         <v>51.10067436208573</v>
       </c>
       <c r="H25" t="n">
-        <v>51.10067436208573</v>
+        <v>59.36731927228438</v>
       </c>
       <c r="I25" t="n">
-        <v>74.23504503930332</v>
+        <v>59.36731927228438</v>
       </c>
       <c r="J25" t="n">
-        <v>97.31943502373917</v>
+        <v>59.36731927228438</v>
       </c>
       <c r="K25" t="n">
-        <v>130.9236227683826</v>
+        <v>92.97150701692779</v>
       </c>
       <c r="L25" t="n">
-        <v>231.5307021686421</v>
+        <v>193.5785864171873</v>
       </c>
       <c r="M25" t="n">
-        <v>349.5242082962438</v>
+        <v>311.572092544789</v>
       </c>
       <c r="N25" t="n">
-        <v>467.9465500458442</v>
+        <v>429.9944342943894</v>
       </c>
       <c r="O25" t="n">
-        <v>566.4101965415339</v>
+        <v>528.4580807900791</v>
       </c>
       <c r="P25" t="n">
-        <v>629.3786802696717</v>
+        <v>610.3445915900695</v>
       </c>
       <c r="Q25" t="n">
-        <v>629.3786802696717</v>
+        <v>610.3445915900695</v>
       </c>
       <c r="R25" t="n">
-        <v>629.3786802696717</v>
+        <v>628.266068145054</v>
       </c>
       <c r="S25" t="n">
-        <v>583.4760541808915</v>
+        <v>582.3634420562738</v>
       </c>
       <c r="T25" t="n">
-        <v>518.1042375041027</v>
+        <v>516.991625379485</v>
       </c>
       <c r="U25" t="n">
-        <v>398.7211345007348</v>
+        <v>397.608522376117</v>
       </c>
       <c r="V25" t="n">
-        <v>305.7929665666896</v>
+        <v>304.6803544420719</v>
       </c>
       <c r="W25" t="n">
-        <v>187.443701591621</v>
+        <v>186.3310894670033</v>
       </c>
       <c r="X25" t="n">
-        <v>123.9983739945291</v>
+        <v>122.8857618699114</v>
       </c>
       <c r="Y25" t="n">
-        <v>69.77035169433844</v>
+        <v>68.65773956972072</v>
       </c>
     </row>
     <row r="26">
@@ -6200,7 +6200,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1652.229537859157</v>
+        <v>1652.229537859156</v>
       </c>
       <c r="C26" t="n">
         <v>1398.363405813928</v>
@@ -6209,19 +6209,19 @@
         <v>1153.607067663115</v>
       </c>
       <c r="E26" t="n">
-        <v>886.8889743911859</v>
+        <v>886.8889743911853</v>
       </c>
       <c r="F26" t="n">
-        <v>600.8054103233201</v>
+        <v>600.8054103233194</v>
       </c>
       <c r="G26" t="n">
-        <v>312.7690503994719</v>
+        <v>312.7690503994711</v>
       </c>
       <c r="H26" t="n">
         <v>108.0154026187449</v>
       </c>
       <c r="I26" t="n">
-        <v>63.26583044950467</v>
+        <v>63.26583044950466</v>
       </c>
       <c r="J26" t="n">
         <v>260.7834555744971</v>
@@ -6245,28 +6245,28 @@
         <v>2906.655691687037</v>
       </c>
       <c r="Q26" t="n">
-        <v>3126.607026225761</v>
+        <v>3126.60702622576</v>
       </c>
       <c r="R26" t="n">
         <v>3163.291522475233</v>
       </c>
       <c r="S26" t="n">
-        <v>3104.130173727551</v>
+        <v>3104.13017372755</v>
       </c>
       <c r="T26" t="n">
-        <v>3007.838854080526</v>
+        <v>3007.838854080525</v>
       </c>
       <c r="U26" t="n">
         <v>2881.021144416483</v>
       </c>
       <c r="V26" t="n">
-        <v>2672.109496934389</v>
+        <v>2672.109496934388</v>
       </c>
       <c r="W26" t="n">
         <v>2437.642193413953</v>
       </c>
       <c r="X26" t="n">
-        <v>2183.679679557411</v>
+        <v>2183.67967955741</v>
       </c>
       <c r="Y26" t="n">
         <v>1918.205450755212</v>
@@ -6297,10 +6297,10 @@
         <v>216.8733557526412</v>
       </c>
       <c r="H27" t="n">
-        <v>131.6481157594437</v>
+        <v>116.9354982993393</v>
       </c>
       <c r="I27" t="n">
-        <v>63.26583044950467</v>
+        <v>63.26583044950466</v>
       </c>
       <c r="J27" t="n">
         <v>123.5199769826108</v>
@@ -6358,16 +6358,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>266.4654142694171</v>
+        <v>266.4654142694172</v>
       </c>
       <c r="C28" t="n">
-        <v>224.9170713530611</v>
+        <v>224.9170713530612</v>
       </c>
       <c r="D28" t="n">
-        <v>199.9128048027876</v>
+        <v>199.9128048027877</v>
       </c>
       <c r="E28" t="n">
-        <v>175.9714171860702</v>
+        <v>175.9714171860703</v>
       </c>
       <c r="F28" t="n">
         <v>151.5583888338111</v>
@@ -6376,58 +6376,58 @@
         <v>110.7062668236248</v>
       </c>
       <c r="H28" t="n">
-        <v>79.40124822486239</v>
+        <v>79.4012482248624</v>
       </c>
       <c r="I28" t="n">
-        <v>63.26583044950467</v>
+        <v>63.26583044950466</v>
       </c>
       <c r="J28" t="n">
-        <v>129.922811763722</v>
+        <v>63.26583044950466</v>
       </c>
       <c r="K28" t="n">
-        <v>289.0460803605521</v>
+        <v>222.3890990463347</v>
       </c>
       <c r="L28" t="n">
-        <v>515.1722406129983</v>
+        <v>448.5152592987809</v>
       </c>
       <c r="M28" t="n">
-        <v>758.6848275927866</v>
+        <v>692.0278462785693</v>
       </c>
       <c r="N28" t="n">
-        <v>1002.626250194574</v>
+        <v>894.2409977937905</v>
       </c>
       <c r="O28" t="n">
-        <v>1101.089896690263</v>
+        <v>1118.223725141667</v>
       </c>
       <c r="P28" t="n">
-        <v>1181.192208869804</v>
+        <v>1181.192208869805</v>
       </c>
       <c r="Q28" t="n">
-        <v>1181.192208869804</v>
+        <v>1181.192208869805</v>
       </c>
       <c r="R28" t="n">
         <v>1159.738054106146</v>
       </c>
       <c r="S28" t="n">
-        <v>1074.095918131797</v>
+        <v>1074.095918131798</v>
       </c>
       <c r="T28" t="n">
-        <v>968.98459156944</v>
+        <v>968.9845915694401</v>
       </c>
       <c r="U28" t="n">
-        <v>809.8619786805036</v>
+        <v>809.8619786805037</v>
       </c>
       <c r="V28" t="n">
-        <v>677.1943008608899</v>
+        <v>677.1943008608901</v>
       </c>
       <c r="W28" t="n">
-        <v>519.1055260002528</v>
+        <v>519.1055260002529</v>
       </c>
       <c r="X28" t="n">
-        <v>415.9206885175923</v>
+        <v>415.9206885175925</v>
       </c>
       <c r="Y28" t="n">
-        <v>321.9531563318332</v>
+        <v>321.9531563318333</v>
       </c>
     </row>
     <row r="29">
@@ -6437,31 +6437,31 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1652.229537859158</v>
+        <v>1652.229537859157</v>
       </c>
       <c r="C29" t="n">
         <v>1398.363405813928</v>
       </c>
       <c r="D29" t="n">
-        <v>1153.607067663115</v>
+        <v>1153.607067663116</v>
       </c>
       <c r="E29" t="n">
-        <v>886.8889743911855</v>
+        <v>886.8889743911861</v>
       </c>
       <c r="F29" t="n">
         <v>600.8054103233201</v>
       </c>
       <c r="G29" t="n">
-        <v>312.7690503994718</v>
+        <v>312.7690503994719</v>
       </c>
       <c r="H29" t="n">
         <v>108.0154026187449</v>
       </c>
       <c r="I29" t="n">
-        <v>63.26583044950466</v>
+        <v>63.26583044950463</v>
       </c>
       <c r="J29" t="n">
-        <v>260.7834555744971</v>
+        <v>260.7834555744973</v>
       </c>
       <c r="K29" t="n">
         <v>626.4429084714666</v>
@@ -6500,13 +6500,13 @@
         <v>2672.109496934389</v>
       </c>
       <c r="W29" t="n">
-        <v>2437.642193413954</v>
+        <v>2437.642193413953</v>
       </c>
       <c r="X29" t="n">
         <v>2183.679679557411</v>
       </c>
       <c r="Y29" t="n">
-        <v>1918.205450755213</v>
+        <v>1918.205450755212</v>
       </c>
     </row>
     <row r="30">
@@ -6534,7 +6534,7 @@
         <v>216.8733557526412</v>
       </c>
       <c r="H30" t="n">
-        <v>116.9354982993393</v>
+        <v>131.6481157594437</v>
       </c>
       <c r="I30" t="n">
         <v>63.26583044950467</v>
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>266.4654142694168</v>
+        <v>266.4654142694172</v>
       </c>
       <c r="C31" t="n">
-        <v>224.9170713530609</v>
+        <v>224.9170713530612</v>
       </c>
       <c r="D31" t="n">
-        <v>199.9128048027874</v>
+        <v>199.9128048027877</v>
       </c>
       <c r="E31" t="n">
-        <v>175.97141718607</v>
+        <v>175.9714171860703</v>
       </c>
       <c r="F31" t="n">
-        <v>151.5583888338109</v>
+        <v>151.5583888338111</v>
       </c>
       <c r="G31" t="n">
-        <v>110.7062668236247</v>
+        <v>110.7062668236248</v>
       </c>
       <c r="H31" t="n">
-        <v>79.40124822486234</v>
+        <v>79.4012482248624</v>
       </c>
       <c r="I31" t="n">
         <v>63.26583044950467</v>
       </c>
       <c r="J31" t="n">
-        <v>63.26583044950467</v>
+        <v>129.922811763722</v>
       </c>
       <c r="K31" t="n">
-        <v>222.3890990463348</v>
+        <v>218.4312762132882</v>
       </c>
       <c r="L31" t="n">
-        <v>448.5152592987811</v>
+        <v>444.5574364657344</v>
       </c>
       <c r="M31" t="n">
-        <v>692.0278462785695</v>
+        <v>562.5509425933361</v>
       </c>
       <c r="N31" t="n">
-        <v>935.9692688803566</v>
+        <v>680.9732843429365</v>
       </c>
       <c r="O31" t="n">
-        <v>1034.432915376046</v>
+        <v>904.9560116908128</v>
       </c>
       <c r="P31" t="n">
-        <v>1181.192208869803</v>
+        <v>1093.443576271137</v>
       </c>
       <c r="Q31" t="n">
-        <v>1181.192208869803</v>
+        <v>1181.192208869805</v>
       </c>
       <c r="R31" t="n">
-        <v>1159.738054106145</v>
+        <v>1159.738054106146</v>
       </c>
       <c r="S31" t="n">
-        <v>1074.095918131797</v>
+        <v>1074.095918131798</v>
       </c>
       <c r="T31" t="n">
-        <v>968.9845915694395</v>
+        <v>968.9845915694401</v>
       </c>
       <c r="U31" t="n">
-        <v>809.8619786805032</v>
+        <v>809.8619786805037</v>
       </c>
       <c r="V31" t="n">
-        <v>677.1943008608896</v>
+        <v>677.1943008608901</v>
       </c>
       <c r="W31" t="n">
-        <v>519.1055260002524</v>
+        <v>519.1055260002529</v>
       </c>
       <c r="X31" t="n">
-        <v>415.9206885175919</v>
+        <v>415.9206885175925</v>
       </c>
       <c r="Y31" t="n">
-        <v>321.9531563318328</v>
+        <v>321.9531563318333</v>
       </c>
     </row>
     <row r="32">
@@ -6674,76 +6674,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1576.234575957423</v>
+        <v>1576.234575957421</v>
       </c>
       <c r="C32" t="n">
-        <v>1332.769988976956</v>
+        <v>1332.769988976955</v>
       </c>
       <c r="D32" t="n">
-        <v>1098.415195890906</v>
+        <v>1098.415195890905</v>
       </c>
       <c r="E32" t="n">
-        <v>842.0986476837393</v>
+        <v>842.0986476837385</v>
       </c>
       <c r="F32" t="n">
-        <v>566.4166286806358</v>
+        <v>566.4166286806353</v>
       </c>
       <c r="G32" t="n">
-        <v>288.78181382155</v>
+        <v>288.7818138215498</v>
       </c>
       <c r="H32" t="n">
-        <v>94.42971110558568</v>
+        <v>94.42971110558545</v>
       </c>
       <c r="I32" t="n">
-        <v>60.08168400110797</v>
+        <v>60.08168400110792</v>
       </c>
       <c r="J32" t="n">
-        <v>155.7333337810325</v>
+        <v>267.7938634440742</v>
       </c>
       <c r="K32" t="n">
-        <v>531.5873409959756</v>
+        <v>643.6478706590176</v>
       </c>
       <c r="L32" t="n">
-        <v>1015.186349251082</v>
+        <v>1127.246878914124</v>
       </c>
       <c r="M32" t="n">
-        <v>1544.139150674331</v>
+        <v>1520.486045167212</v>
       </c>
       <c r="N32" t="n">
-        <v>1922.470509362046</v>
+        <v>2034.531039025089</v>
       </c>
       <c r="O32" t="n">
-        <v>2363.188729005041</v>
+        <v>2363.188729005038</v>
       </c>
       <c r="P32" t="n">
-        <v>2727.059260631254</v>
+        <v>2727.059260631252</v>
       </c>
       <c r="Q32" t="n">
-        <v>2957.205149487952</v>
+        <v>2957.205149487949</v>
       </c>
       <c r="R32" t="n">
-        <v>3004.084200055398</v>
+        <v>3004.084200055396</v>
       </c>
       <c r="S32" t="n">
-        <v>2955.324396372479</v>
+        <v>2955.324396372476</v>
       </c>
       <c r="T32" t="n">
-        <v>2869.434621790217</v>
+        <v>2869.434621790214</v>
       </c>
       <c r="U32" t="n">
-        <v>2753.018457190937</v>
+        <v>2753.018457190934</v>
       </c>
       <c r="V32" t="n">
-        <v>2554.508354773604</v>
+        <v>2554.508354773602</v>
       </c>
       <c r="W32" t="n">
-        <v>2330.442596317931</v>
+        <v>2330.44259631793</v>
       </c>
       <c r="X32" t="n">
-        <v>2086.881627526151</v>
+        <v>2086.881627526149</v>
       </c>
       <c r="Y32" t="n">
-        <v>1831.808943788715</v>
+        <v>1831.808943788714</v>
       </c>
     </row>
     <row r="33">
@@ -6765,22 +6765,22 @@
         <v>477.1115073310854</v>
       </c>
       <c r="F33" t="n">
-        <v>342.4177092809598</v>
+        <v>357.1303267410643</v>
       </c>
       <c r="G33" t="n">
-        <v>213.6892093042444</v>
+        <v>228.4018267643489</v>
       </c>
       <c r="H33" t="n">
-        <v>113.7513518509424</v>
+        <v>128.4639693110469</v>
       </c>
       <c r="I33" t="n">
-        <v>60.08168400110797</v>
+        <v>60.08168400110792</v>
       </c>
       <c r="J33" t="n">
         <v>120.3358305342141</v>
       </c>
       <c r="K33" t="n">
-        <v>349.8263830944028</v>
+        <v>349.8263830944027</v>
       </c>
       <c r="L33" t="n">
         <v>715.6482282645184</v>
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>190.4704523676826</v>
+        <v>190.4704523676814</v>
       </c>
       <c r="C34" t="n">
-        <v>159.3236545160892</v>
+        <v>159.3236545160881</v>
       </c>
       <c r="D34" t="n">
-        <v>144.7209330305782</v>
+        <v>144.7209330305773</v>
       </c>
       <c r="E34" t="n">
-        <v>131.1810904786234</v>
+        <v>131.1810904786226</v>
       </c>
       <c r="F34" t="n">
-        <v>117.1696071911268</v>
+        <v>117.1696071911262</v>
       </c>
       <c r="G34" t="n">
-        <v>86.71903024570305</v>
+        <v>86.71903024570264</v>
       </c>
       <c r="H34" t="n">
-        <v>65.81555671170317</v>
+        <v>65.81555671170292</v>
       </c>
       <c r="I34" t="n">
-        <v>60.08168400110797</v>
+        <v>60.08168400110792</v>
       </c>
       <c r="J34" t="n">
-        <v>136.9332196332991</v>
+        <v>110.1536388823091</v>
       </c>
       <c r="K34" t="n">
-        <v>170.5374073779425</v>
+        <v>143.7578266269525</v>
       </c>
       <c r="L34" t="n">
-        <v>271.144486778202</v>
+        <v>380.0785411973727</v>
       </c>
       <c r="M34" t="n">
-        <v>524.8516280759642</v>
+        <v>498.0720473249744</v>
       </c>
       <c r="N34" t="n">
-        <v>778.987604995725</v>
+        <v>616.4943890745748</v>
       </c>
       <c r="O34" t="n">
-        <v>948.614857657069</v>
+        <v>714.9580355702644</v>
       </c>
       <c r="P34" t="n">
-        <v>1011.583341385207</v>
+        <v>913.6401544685629</v>
       </c>
       <c r="Q34" t="n">
-        <v>1011.583341385207</v>
+        <v>1011.583341385204</v>
       </c>
       <c r="R34" t="n">
-        <v>1000.530731686311</v>
+        <v>1000.530731686309</v>
       </c>
       <c r="S34" t="n">
-        <v>925.2901407767251</v>
+        <v>925.2901407767228</v>
       </c>
       <c r="T34" t="n">
-        <v>830.5803592791302</v>
+        <v>830.5803592791281</v>
       </c>
       <c r="U34" t="n">
-        <v>681.8592914549564</v>
+        <v>681.8592914549544</v>
       </c>
       <c r="V34" t="n">
-        <v>559.5931587001053</v>
+        <v>559.5931587001035</v>
       </c>
       <c r="W34" t="n">
-        <v>411.9059289042307</v>
+        <v>411.905928904229</v>
       </c>
       <c r="X34" t="n">
-        <v>319.1226364863328</v>
+        <v>319.1226364863312</v>
       </c>
       <c r="Y34" t="n">
-        <v>235.5566493653362</v>
+        <v>235.5566493653347</v>
       </c>
     </row>
     <row r="35">
@@ -6917,40 +6917,40 @@
         <v>1147.761190413098</v>
       </c>
       <c r="D35" t="n">
-        <v>942.7443621478541</v>
+        <v>942.744362147854</v>
       </c>
       <c r="E35" t="n">
-        <v>715.7657787614932</v>
+        <v>715.765778761493</v>
       </c>
       <c r="F35" t="n">
-        <v>469.4217245791958</v>
+        <v>469.4217245791957</v>
       </c>
       <c r="G35" t="n">
-        <v>221.124874540916</v>
+        <v>221.1248745409159</v>
       </c>
       <c r="H35" t="n">
-        <v>56.11073664575749</v>
+        <v>56.11073664575746</v>
       </c>
       <c r="I35" t="n">
-        <v>51.10067436208574</v>
+        <v>51.10067436208573</v>
       </c>
       <c r="J35" t="n">
-        <v>123.0992186348914</v>
+        <v>287.5669931259238</v>
       </c>
       <c r="K35" t="n">
         <v>527.7073651707066</v>
       </c>
       <c r="L35" t="n">
-        <v>915.7684941687087</v>
+        <v>1040.060512746685</v>
       </c>
       <c r="M35" t="n">
-        <v>1309.007660421797</v>
+        <v>1433.299678999773</v>
       </c>
       <c r="N35" t="n">
-        <v>1851.806793600545</v>
+        <v>1811.631037687489</v>
       </c>
       <c r="O35" t="n">
-        <v>2156.811378073378</v>
+        <v>2116.635622160323</v>
       </c>
       <c r="P35" t="n">
         <v>2384.968274529432</v>
@@ -6971,7 +6971,7 @@
         <v>2391.981869702243</v>
       </c>
       <c r="V35" t="n">
-        <v>2222.809732105716</v>
+        <v>2222.809732105717</v>
       </c>
       <c r="W35" t="n">
         <v>2028.08193847085</v>
@@ -6990,13 +6990,13 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>930.4134348641297</v>
+        <v>915.7008174040254</v>
       </c>
       <c r="C36" t="n">
-        <v>768.7097621050845</v>
+        <v>753.9971446449802</v>
       </c>
       <c r="D36" t="n">
-        <v>629.8711250952965</v>
+        <v>615.1585076351922</v>
       </c>
       <c r="E36" t="n">
         <v>482.8431151521678</v>
@@ -7011,16 +7011,16 @@
         <v>119.4829596720247</v>
       </c>
       <c r="I36" t="n">
-        <v>51.10067436208574</v>
+        <v>51.10067436208573</v>
       </c>
       <c r="J36" t="n">
-        <v>111.354820895192</v>
+        <v>111.3548208951919</v>
       </c>
       <c r="K36" t="n">
-        <v>340.8453734553806</v>
+        <v>340.8453734553805</v>
       </c>
       <c r="L36" t="n">
-        <v>706.6672186254963</v>
+        <v>706.6672186254962</v>
       </c>
       <c r="M36" t="n">
         <v>1191.700572135723</v>
@@ -7038,28 +7038,28 @@
         <v>2555.033718104287</v>
       </c>
       <c r="R36" t="n">
-        <v>2509.962066659337</v>
+        <v>2495.249449199233</v>
       </c>
       <c r="S36" t="n">
-        <v>2357.162579672078</v>
+        <v>2342.449962211973</v>
       </c>
       <c r="T36" t="n">
-        <v>2168.477475838063</v>
+        <v>2153.764858377959</v>
       </c>
       <c r="U36" t="n">
-        <v>1949.982683436373</v>
+        <v>1935.270065976269</v>
       </c>
       <c r="V36" t="n">
-        <v>1721.587060884707</v>
+        <v>1706.874443424603</v>
       </c>
       <c r="W36" t="n">
-        <v>1480.271192118017</v>
+        <v>1465.558574657913</v>
       </c>
       <c r="X36" t="n">
-        <v>1282.354203995812</v>
+        <v>1267.641586535707</v>
       </c>
       <c r="Y36" t="n">
-        <v>1089.832877645391</v>
+        <v>1075.120260185286</v>
       </c>
     </row>
     <row r="37">
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>54.02211951749096</v>
+        <v>54.02211951749089</v>
       </c>
       <c r="C37" t="n">
-        <v>52.2132864867035</v>
+        <v>52.21328648670345</v>
       </c>
       <c r="D37" t="n">
-        <v>52.2132864867035</v>
+        <v>52.21328648670345</v>
       </c>
       <c r="E37" t="n">
-        <v>52.2132864867035</v>
+        <v>52.21328648670345</v>
       </c>
       <c r="F37" t="n">
-        <v>52.2132864867035</v>
+        <v>52.21328648670345</v>
       </c>
       <c r="G37" t="n">
-        <v>51.10067436208574</v>
+        <v>51.10067436208573</v>
       </c>
       <c r="H37" t="n">
-        <v>51.10067436208574</v>
+        <v>51.10067436208573</v>
       </c>
       <c r="I37" t="n">
-        <v>51.10067436208574</v>
+        <v>51.10067436208573</v>
       </c>
       <c r="J37" t="n">
-        <v>51.10067436208574</v>
+        <v>51.10067436208573</v>
       </c>
       <c r="K37" t="n">
-        <v>84.70486210672915</v>
+        <v>84.70486210672914</v>
       </c>
       <c r="L37" t="n">
         <v>185.3119415069887</v>
       </c>
       <c r="M37" t="n">
-        <v>303.3054476345904</v>
+        <v>349.5242082962438</v>
       </c>
       <c r="N37" t="n">
-        <v>421.7277893841908</v>
+        <v>467.9465500458442</v>
       </c>
       <c r="O37" t="n">
-        <v>520.1914358798805</v>
+        <v>566.4101965415339</v>
       </c>
       <c r="P37" t="n">
-        <v>629.378680269672</v>
+        <v>629.3786802696717</v>
       </c>
       <c r="Q37" t="n">
-        <v>629.378680269672</v>
+        <v>629.3786802696717</v>
       </c>
       <c r="R37" t="n">
-        <v>629.378680269672</v>
+        <v>629.3786802696717</v>
       </c>
       <c r="S37" t="n">
-        <v>583.4760541808919</v>
+        <v>583.4760541808915</v>
       </c>
       <c r="T37" t="n">
-        <v>518.1042375041029</v>
+        <v>518.1042375041027</v>
       </c>
       <c r="U37" t="n">
-        <v>398.721134500735</v>
+        <v>398.7211345007348</v>
       </c>
       <c r="V37" t="n">
-        <v>305.7929665666899</v>
+        <v>305.7929665666896</v>
       </c>
       <c r="W37" t="n">
-        <v>187.4437015916212</v>
+        <v>187.443701591621</v>
       </c>
       <c r="X37" t="n">
-        <v>123.9983739945292</v>
+        <v>123.9983739945291</v>
       </c>
       <c r="Y37" t="n">
-        <v>69.77035169433856</v>
+        <v>69.77035169433844</v>
       </c>
     </row>
     <row r="38">
@@ -7148,70 +7148,70 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1361.887812572759</v>
+        <v>1361.887812572758</v>
       </c>
       <c r="C38" t="n">
         <v>1147.761190413098</v>
       </c>
       <c r="D38" t="n">
-        <v>942.7443621478541</v>
+        <v>942.7443621478537</v>
       </c>
       <c r="E38" t="n">
-        <v>715.7657787614932</v>
+        <v>715.7657787614928</v>
       </c>
       <c r="F38" t="n">
-        <v>469.4217245791958</v>
+        <v>469.4217245791954</v>
       </c>
       <c r="G38" t="n">
-        <v>221.124874540916</v>
+        <v>221.1248745409159</v>
       </c>
       <c r="H38" t="n">
-        <v>56.11073664575749</v>
+        <v>56.11073664575745</v>
       </c>
       <c r="I38" t="n">
-        <v>51.10067436208574</v>
+        <v>51.10067436208573</v>
       </c>
       <c r="J38" t="n">
-        <v>123.0992186348914</v>
+        <v>287.5669931259238</v>
       </c>
       <c r="K38" t="n">
-        <v>363.2395906796742</v>
+        <v>527.7073651707066</v>
       </c>
       <c r="L38" t="n">
-        <v>711.1249637646204</v>
+        <v>875.5927382556529</v>
       </c>
       <c r="M38" t="n">
-        <v>1104.364130017708</v>
+        <v>1268.831904508741</v>
       </c>
       <c r="N38" t="n">
-        <v>1522.87124461848</v>
+        <v>1647.163263196456</v>
       </c>
       <c r="O38" t="n">
-        <v>1992.343603582346</v>
+        <v>2116.635622160323</v>
       </c>
       <c r="P38" t="n">
-        <v>2220.500500038399</v>
+        <v>2344.792518616376</v>
       </c>
       <c r="Q38" t="n">
-        <v>2479.400528215969</v>
+        <v>2555.033718104286</v>
       </c>
       <c r="R38" t="n">
-        <v>2555.033718104287</v>
+        <v>2555.033718104286</v>
       </c>
       <c r="S38" t="n">
         <v>2535.611879242173</v>
       </c>
       <c r="T38" t="n">
-        <v>2479.060069480717</v>
+        <v>2479.060069480716</v>
       </c>
       <c r="U38" t="n">
-        <v>2391.981869702243</v>
+        <v>2391.981869702242</v>
       </c>
       <c r="V38" t="n">
-        <v>2222.809732105717</v>
+        <v>2222.809732105716</v>
       </c>
       <c r="W38" t="n">
-        <v>2028.08193847085</v>
+        <v>2028.081938470849</v>
       </c>
       <c r="X38" t="n">
         <v>1813.858934499875</v>
@@ -7227,37 +7227,37 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>915.700817404025</v>
+        <v>915.7008174040245</v>
       </c>
       <c r="C39" t="n">
-        <v>753.9971446449797</v>
+        <v>753.9971446449792</v>
       </c>
       <c r="D39" t="n">
-        <v>615.1585076351918</v>
+        <v>615.1585076351913</v>
       </c>
       <c r="E39" t="n">
-        <v>468.130497692063</v>
+        <v>468.1304976920625</v>
       </c>
       <c r="F39" t="n">
-        <v>333.4366996419374</v>
+        <v>333.4366996419369</v>
       </c>
       <c r="G39" t="n">
-        <v>219.4208171253267</v>
+        <v>204.7081996652215</v>
       </c>
       <c r="H39" t="n">
-        <v>119.4829596720247</v>
+        <v>104.7703422119195</v>
       </c>
       <c r="I39" t="n">
-        <v>51.10067436208574</v>
+        <v>51.10067436208573</v>
       </c>
       <c r="J39" t="n">
         <v>111.3548208951919</v>
       </c>
       <c r="K39" t="n">
-        <v>340.8453734553806</v>
+        <v>340.8453734553805</v>
       </c>
       <c r="L39" t="n">
-        <v>706.6672186254963</v>
+        <v>706.6672186254962</v>
       </c>
       <c r="M39" t="n">
         <v>1191.700572135723</v>
@@ -7266,19 +7266,19 @@
         <v>1702.966218258845</v>
       </c>
       <c r="O39" t="n">
-        <v>2095.166169042996</v>
+        <v>2095.166169042995</v>
       </c>
       <c r="P39" t="n">
-        <v>2397.262088318693</v>
+        <v>2397.262088318692</v>
       </c>
       <c r="Q39" t="n">
-        <v>2555.033718104287</v>
+        <v>2555.033718104286</v>
       </c>
       <c r="R39" t="n">
         <v>2495.249449199232</v>
       </c>
       <c r="S39" t="n">
-        <v>2342.449962211973</v>
+        <v>2342.449962211972</v>
       </c>
       <c r="T39" t="n">
         <v>2153.764858377958</v>
@@ -7293,10 +7293,10 @@
         <v>1465.558574657912</v>
       </c>
       <c r="X39" t="n">
-        <v>1267.641586535707</v>
+        <v>1267.641586535706</v>
       </c>
       <c r="Y39" t="n">
-        <v>1075.120260185286</v>
+        <v>1075.120260185285</v>
       </c>
     </row>
     <row r="40">
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>54.02211951749096</v>
+        <v>52.90950739287317</v>
       </c>
       <c r="C40" t="n">
-        <v>52.2132864867035</v>
+        <v>51.10067436208573</v>
       </c>
       <c r="D40" t="n">
-        <v>52.2132864867035</v>
+        <v>51.10067436208573</v>
       </c>
       <c r="E40" t="n">
-        <v>52.2132864867035</v>
+        <v>51.10067436208573</v>
       </c>
       <c r="F40" t="n">
-        <v>52.2132864867035</v>
+        <v>52.21328648670345</v>
       </c>
       <c r="G40" t="n">
-        <v>51.10067436208574</v>
+        <v>51.10067436208573</v>
       </c>
       <c r="H40" t="n">
-        <v>59.36731927228436</v>
+        <v>51.10067436208573</v>
       </c>
       <c r="I40" t="n">
-        <v>59.36731927228436</v>
+        <v>51.10067436208573</v>
       </c>
       <c r="J40" t="n">
-        <v>59.36731927228436</v>
+        <v>51.10067436208573</v>
       </c>
       <c r="K40" t="n">
-        <v>92.97150701692777</v>
+        <v>84.70486210672914</v>
       </c>
       <c r="L40" t="n">
-        <v>193.5785864171873</v>
+        <v>185.3119415069887</v>
       </c>
       <c r="M40" t="n">
-        <v>311.572092544789</v>
+        <v>303.3054476345904</v>
       </c>
       <c r="N40" t="n">
-        <v>429.9944342943894</v>
+        <v>421.7277893841908</v>
       </c>
       <c r="O40" t="n">
-        <v>528.4580807900791</v>
+        <v>520.1914358798805</v>
       </c>
       <c r="P40" t="n">
-        <v>591.4265645182169</v>
+        <v>628.266068145054</v>
       </c>
       <c r="Q40" t="n">
-        <v>629.378680269672</v>
+        <v>628.266068145054</v>
       </c>
       <c r="R40" t="n">
-        <v>629.378680269672</v>
+        <v>628.266068145054</v>
       </c>
       <c r="S40" t="n">
-        <v>583.4760541808919</v>
+        <v>582.3634420562738</v>
       </c>
       <c r="T40" t="n">
-        <v>518.1042375041029</v>
+        <v>516.991625379485</v>
       </c>
       <c r="U40" t="n">
-        <v>398.721134500735</v>
+        <v>397.608522376117</v>
       </c>
       <c r="V40" t="n">
-        <v>305.7929665666899</v>
+        <v>304.6803544420719</v>
       </c>
       <c r="W40" t="n">
-        <v>187.4437015916212</v>
+        <v>186.3310894670033</v>
       </c>
       <c r="X40" t="n">
-        <v>123.9983739945292</v>
+        <v>122.8857618699114</v>
       </c>
       <c r="Y40" t="n">
-        <v>69.77035169433856</v>
+        <v>68.65773956972072</v>
       </c>
     </row>
     <row r="41">
@@ -7385,28 +7385,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1352.751890871496</v>
+        <v>1104.46656700865</v>
       </c>
       <c r="C41" t="n">
-        <v>1106.447613016323</v>
+        <v>858.1622891534762</v>
       </c>
       <c r="D41" t="n">
-        <v>869.2531290555648</v>
+        <v>620.9678051927185</v>
       </c>
       <c r="E41" t="n">
-        <v>610.0968899736902</v>
+        <v>361.8115661108438</v>
       </c>
       <c r="F41" t="n">
-        <v>331.5751800958791</v>
+        <v>248.2924679527578</v>
       </c>
       <c r="G41" t="n">
-        <v>51.10067436208573</v>
+        <v>248.2924679527578</v>
       </c>
       <c r="H41" t="n">
-        <v>51.10067436208573</v>
+        <v>51.10067436208574</v>
       </c>
       <c r="I41" t="n">
-        <v>51.10067436208573</v>
+        <v>51.10067436208574</v>
       </c>
       <c r="J41" t="n">
         <v>123.0992186348914</v>
@@ -7415,46 +7415,46 @@
         <v>363.2395906796742</v>
       </c>
       <c r="L41" t="n">
-        <v>711.1249637646204</v>
+        <v>757.0780961164803</v>
       </c>
       <c r="M41" t="n">
-        <v>1104.364130017708</v>
+        <v>1150.317262369568</v>
       </c>
       <c r="N41" t="n">
-        <v>1615.625942849283</v>
+        <v>1661.579075201143</v>
       </c>
       <c r="O41" t="n">
-        <v>2053.560981465977</v>
+        <v>1966.583659673978</v>
       </c>
       <c r="P41" t="n">
-        <v>2414.648332065889</v>
+        <v>2327.67101027389</v>
       </c>
       <c r="Q41" t="n">
-        <v>2510.937848563141</v>
+        <v>2555.033718104287</v>
       </c>
       <c r="R41" t="n">
         <v>2555.033718104287</v>
       </c>
       <c r="S41" t="n">
-        <v>2555.033718104287</v>
+        <v>2503.434223546659</v>
       </c>
       <c r="T41" t="n">
-        <v>2555.033718104287</v>
+        <v>2414.704758089689</v>
       </c>
       <c r="U41" t="n">
-        <v>2543.734226478549</v>
+        <v>2295.448902615702</v>
       </c>
       <c r="V41" t="n">
-        <v>2342.384433186509</v>
+        <v>2094.099109323662</v>
       </c>
       <c r="W41" t="n">
-        <v>2115.478983856129</v>
+        <v>1867.193659993282</v>
       </c>
       <c r="X41" t="n">
-        <v>1869.078324189641</v>
+        <v>1620.793000326794</v>
       </c>
       <c r="Y41" t="n">
-        <v>1611.165949577497</v>
+        <v>1362.88062571465</v>
       </c>
     </row>
     <row r="42">
@@ -7464,34 +7464,34 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>930.4134348641297</v>
+        <v>915.700817404025</v>
       </c>
       <c r="C42" t="n">
-        <v>768.7097621050845</v>
+        <v>753.9971446449797</v>
       </c>
       <c r="D42" t="n">
-        <v>629.8711250952965</v>
+        <v>615.1585076351918</v>
       </c>
       <c r="E42" t="n">
-        <v>482.8431151521678</v>
+        <v>468.130497692063</v>
       </c>
       <c r="F42" t="n">
-        <v>348.1493171020421</v>
+        <v>333.4366996419374</v>
       </c>
       <c r="G42" t="n">
-        <v>219.4208171253267</v>
+        <v>204.7081996652219</v>
       </c>
       <c r="H42" t="n">
         <v>119.4829596720247</v>
       </c>
       <c r="I42" t="n">
-        <v>51.10067436208573</v>
+        <v>51.10067436208574</v>
       </c>
       <c r="J42" t="n">
         <v>111.3548208951919</v>
       </c>
       <c r="K42" t="n">
-        <v>340.8453734553805</v>
+        <v>340.8453734553806</v>
       </c>
       <c r="L42" t="n">
         <v>706.6672186254962</v>
@@ -7512,28 +7512,28 @@
         <v>2555.033718104287</v>
       </c>
       <c r="R42" t="n">
-        <v>2495.249449199233</v>
+        <v>2495.249449199232</v>
       </c>
       <c r="S42" t="n">
-        <v>2357.162579672078</v>
+        <v>2342.449962211973</v>
       </c>
       <c r="T42" t="n">
-        <v>2168.477475838063</v>
+        <v>2153.764858377958</v>
       </c>
       <c r="U42" t="n">
-        <v>1949.982683436373</v>
+        <v>1935.270065976268</v>
       </c>
       <c r="V42" t="n">
-        <v>1721.587060884707</v>
+        <v>1706.874443424602</v>
       </c>
       <c r="W42" t="n">
-        <v>1480.271192118017</v>
+        <v>1465.558574657912</v>
       </c>
       <c r="X42" t="n">
-        <v>1282.354203995812</v>
+        <v>1267.641586535707</v>
       </c>
       <c r="Y42" t="n">
-        <v>1089.832877645391</v>
+        <v>1075.120260185286</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>201.3672788516139</v>
+        <v>201.3672788516136</v>
       </c>
       <c r="C43" t="n">
-        <v>167.3807901253129</v>
+        <v>167.3807901253126</v>
       </c>
       <c r="D43" t="n">
-        <v>149.9383777650942</v>
+        <v>149.938377765094</v>
       </c>
       <c r="E43" t="n">
-        <v>133.5588443384317</v>
+        <v>133.5588443384315</v>
       </c>
       <c r="F43" t="n">
-        <v>116.7076701762275</v>
+        <v>116.7076701762273</v>
       </c>
       <c r="G43" t="n">
-        <v>83.4174023560961</v>
+        <v>83.41740235609601</v>
       </c>
       <c r="H43" t="n">
-        <v>59.67423794738856</v>
+        <v>59.67423794738852</v>
       </c>
       <c r="I43" t="n">
-        <v>51.10067436208573</v>
+        <v>51.10067436208574</v>
       </c>
       <c r="J43" t="n">
-        <v>125.1690289679759</v>
+        <v>51.10067436208574</v>
       </c>
       <c r="K43" t="n">
-        <v>158.7732167126193</v>
+        <v>84.70486210672915</v>
       </c>
       <c r="L43" t="n">
-        <v>259.3802961128788</v>
+        <v>185.3119415069887</v>
       </c>
       <c r="M43" t="n">
-        <v>510.30425638434</v>
+        <v>436.2359017784499</v>
       </c>
       <c r="N43" t="n">
-        <v>761.6570522777998</v>
+        <v>658.514795483479</v>
       </c>
       <c r="O43" t="n">
-        <v>860.1206987734895</v>
+        <v>756.9784419791687</v>
       </c>
       <c r="P43" t="n">
-        <v>952.8773798511669</v>
+        <v>952.877379851166</v>
       </c>
       <c r="Q43" t="n">
-        <v>1048.037385741507</v>
+        <v>1048.037385741506</v>
       </c>
       <c r="R43" t="n">
-        <v>1034.145085167904</v>
+        <v>1034.145085167903</v>
       </c>
       <c r="S43" t="n">
-        <v>956.0648033836101</v>
+        <v>956.0648033836094</v>
       </c>
       <c r="T43" t="n">
-        <v>858.5153310113076</v>
+        <v>858.5153310113069</v>
       </c>
       <c r="U43" t="n">
-        <v>706.9545723124261</v>
+        <v>706.9545723124254</v>
       </c>
       <c r="V43" t="n">
-        <v>581.8487486828673</v>
+        <v>581.8487486828667</v>
       </c>
       <c r="W43" t="n">
-        <v>431.321828012285</v>
+        <v>431.3218280122845</v>
       </c>
       <c r="X43" t="n">
-        <v>335.6988447196794</v>
+        <v>335.698844719679</v>
       </c>
       <c r="Y43" t="n">
-        <v>249.2931667239751</v>
+        <v>249.2931667239747</v>
       </c>
     </row>
     <row r="44">
@@ -7622,22 +7622,22 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1446.145320315287</v>
+        <v>1104.46656700865</v>
       </c>
       <c r="C44" t="n">
-        <v>1199.841042460113</v>
+        <v>858.1622891534762</v>
       </c>
       <c r="D44" t="n">
-        <v>962.6465584993555</v>
+        <v>620.9678051927185</v>
       </c>
       <c r="E44" t="n">
-        <v>703.4903194174808</v>
+        <v>526.8141778305688</v>
       </c>
       <c r="F44" t="n">
-        <v>424.9686095396697</v>
+        <v>248.2924679527578</v>
       </c>
       <c r="G44" t="n">
-        <v>144.4941038058764</v>
+        <v>248.2924679527578</v>
       </c>
       <c r="H44" t="n">
         <v>51.10067436208574</v>
@@ -7646,52 +7646,52 @@
         <v>51.10067436208574</v>
       </c>
       <c r="J44" t="n">
-        <v>256.0296727787509</v>
+        <v>169.0523509867514</v>
       </c>
       <c r="K44" t="n">
-        <v>496.1700448235337</v>
+        <v>409.1927230315342</v>
       </c>
       <c r="L44" t="n">
-        <v>976.9858720523393</v>
+        <v>890.0085502603399</v>
       </c>
       <c r="M44" t="n">
-        <v>1503.155492449287</v>
+        <v>1416.178170657287</v>
       </c>
       <c r="N44" t="n">
-        <v>1881.486851137002</v>
+        <v>1794.509529345003</v>
       </c>
       <c r="O44" t="n">
-        <v>2186.491435609836</v>
+        <v>2232.444567961697</v>
       </c>
       <c r="P44" t="n">
-        <v>2414.648332065889</v>
+        <v>2460.60146441775</v>
       </c>
       <c r="Q44" t="n">
-        <v>2510.937848563141</v>
+        <v>2555.033718104287</v>
       </c>
       <c r="R44" t="n">
         <v>2555.033718104287</v>
       </c>
       <c r="S44" t="n">
-        <v>2555.033718104287</v>
+        <v>2503.43422354666</v>
       </c>
       <c r="T44" t="n">
-        <v>2555.033718104287</v>
+        <v>2414.70475808969</v>
       </c>
       <c r="U44" t="n">
-        <v>2435.7778626303</v>
+        <v>2295.448902615703</v>
       </c>
       <c r="V44" t="n">
-        <v>2435.7778626303</v>
+        <v>2094.099109323663</v>
       </c>
       <c r="W44" t="n">
-        <v>2208.87241329992</v>
+        <v>1867.193659993282</v>
       </c>
       <c r="X44" t="n">
-        <v>1962.471753633431</v>
+        <v>1620.793000326794</v>
       </c>
       <c r="Y44" t="n">
-        <v>1704.559379021288</v>
+        <v>1362.880625714651</v>
       </c>
     </row>
     <row r="45">
@@ -7701,25 +7701,25 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>930.4134348641297</v>
+        <v>915.7008174040254</v>
       </c>
       <c r="C45" t="n">
-        <v>768.7097621050845</v>
+        <v>753.9971446449802</v>
       </c>
       <c r="D45" t="n">
-        <v>629.8711250952965</v>
+        <v>615.1585076351922</v>
       </c>
       <c r="E45" t="n">
-        <v>482.8431151521678</v>
+        <v>468.1304976920634</v>
       </c>
       <c r="F45" t="n">
-        <v>348.1493171020421</v>
+        <v>333.4366996419378</v>
       </c>
       <c r="G45" t="n">
-        <v>219.4208171253267</v>
+        <v>204.7081996652224</v>
       </c>
       <c r="H45" t="n">
-        <v>119.4829596720247</v>
+        <v>104.7703422119204</v>
       </c>
       <c r="I45" t="n">
         <v>51.10067436208574</v>
@@ -7749,28 +7749,28 @@
         <v>2555.033718104287</v>
       </c>
       <c r="R45" t="n">
-        <v>2495.249449199232</v>
+        <v>2495.249449199233</v>
       </c>
       <c r="S45" t="n">
-        <v>2357.162579672078</v>
+        <v>2342.449962211973</v>
       </c>
       <c r="T45" t="n">
-        <v>2168.477475838063</v>
+        <v>2153.764858377959</v>
       </c>
       <c r="U45" t="n">
-        <v>1949.982683436373</v>
+        <v>1935.270065976269</v>
       </c>
       <c r="V45" t="n">
-        <v>1721.587060884707</v>
+        <v>1706.874443424603</v>
       </c>
       <c r="W45" t="n">
-        <v>1480.271192118017</v>
+        <v>1465.558574657913</v>
       </c>
       <c r="X45" t="n">
-        <v>1282.354203995812</v>
+        <v>1267.641586535707</v>
       </c>
       <c r="Y45" t="n">
-        <v>1089.832877645391</v>
+        <v>1075.120260185286</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7780,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>201.367278851614</v>
+        <v>201.3672788516136</v>
       </c>
       <c r="C46" t="n">
-        <v>167.3807901253129</v>
+        <v>167.3807901253126</v>
       </c>
       <c r="D46" t="n">
-        <v>149.9383777650943</v>
+        <v>149.938377765094</v>
       </c>
       <c r="E46" t="n">
-        <v>133.5588443384317</v>
+        <v>133.5588443384315</v>
       </c>
       <c r="F46" t="n">
-        <v>116.7076701762275</v>
+        <v>116.7076701762273</v>
       </c>
       <c r="G46" t="n">
-        <v>83.41740235609612</v>
+        <v>83.41740235609601</v>
       </c>
       <c r="H46" t="n">
-        <v>59.67423794738858</v>
+        <v>59.67423794738852</v>
       </c>
       <c r="I46" t="n">
         <v>51.10067436208574</v>
       </c>
       <c r="J46" t="n">
-        <v>125.1690289679759</v>
+        <v>51.10067436208574</v>
       </c>
       <c r="K46" t="n">
-        <v>291.7036708564788</v>
+        <v>217.6353162505886</v>
       </c>
       <c r="L46" t="n">
-        <v>525.2412044005978</v>
+        <v>422.0989476062769</v>
       </c>
       <c r="M46" t="n">
-        <v>643.2347105281995</v>
+        <v>673.0229078777381</v>
       </c>
       <c r="N46" t="n">
-        <v>886.6052555176796</v>
+        <v>791.4452496273385</v>
       </c>
       <c r="O46" t="n">
-        <v>985.0689020133692</v>
+        <v>889.9088961230282</v>
       </c>
       <c r="P46" t="n">
-        <v>1048.037385741507</v>
+        <v>952.877379851166</v>
       </c>
       <c r="Q46" t="n">
-        <v>1048.037385741507</v>
+        <v>1048.037385741506</v>
       </c>
       <c r="R46" t="n">
-        <v>1034.145085167904</v>
+        <v>1034.145085167903</v>
       </c>
       <c r="S46" t="n">
-        <v>956.0648033836101</v>
+        <v>956.0648033836094</v>
       </c>
       <c r="T46" t="n">
-        <v>858.5153310113076</v>
+        <v>858.5153310113069</v>
       </c>
       <c r="U46" t="n">
-        <v>706.9545723124261</v>
+        <v>706.9545723124254</v>
       </c>
       <c r="V46" t="n">
-        <v>581.8487486828673</v>
+        <v>581.8487486828667</v>
       </c>
       <c r="W46" t="n">
-        <v>431.321828012285</v>
+        <v>431.3218280122845</v>
       </c>
       <c r="X46" t="n">
-        <v>335.6988447196794</v>
+        <v>335.698844719679</v>
       </c>
       <c r="Y46" t="n">
-        <v>249.2931667239752</v>
+        <v>249.2931667239747</v>
       </c>
     </row>
   </sheetData>
@@ -7985,13 +7985,13 @@
         <v>542.9595789155856</v>
       </c>
       <c r="M2" t="n">
-        <v>584.3675935406823</v>
+        <v>426.7684258927619</v>
       </c>
       <c r="N2" t="n">
         <v>568.5510017355793</v>
       </c>
       <c r="O2" t="n">
-        <v>337.4410679936515</v>
+        <v>495.0402356415689</v>
       </c>
       <c r="P2" t="n">
         <v>418.3383206229274</v>
@@ -8055,28 +8055,28 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J3" t="n">
-        <v>103.0555716666667</v>
+        <v>163.9183459425315</v>
       </c>
       <c r="K3" t="n">
         <v>343.8048081163522</v>
       </c>
       <c r="L3" t="n">
-        <v>482.0924488944969</v>
+        <v>466.1431514615193</v>
       </c>
       <c r="M3" t="n">
-        <v>600.9852732216715</v>
+        <v>600.9852732216708</v>
       </c>
       <c r="N3" t="n">
-        <v>386.750532718055</v>
+        <v>592.2165117277393</v>
       </c>
       <c r="O3" t="n">
-        <v>512.0210150597484</v>
+        <v>115.8594486111111</v>
       </c>
       <c r="P3" t="n">
-        <v>108.8542060241433</v>
+        <v>414.0015992319183</v>
       </c>
       <c r="Q3" t="n">
-        <v>273.1004740566038</v>
+        <v>113.7351914448925</v>
       </c>
       <c r="R3" t="n">
         <v>59.17817075471706</v>
@@ -8213,16 +8213,16 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>147.0997974279326</v>
+        <v>219.8255997236959</v>
       </c>
       <c r="K5" t="n">
-        <v>336.5156709903598</v>
+        <v>421.3890363425141</v>
       </c>
       <c r="L5" t="n">
         <v>542.9595789155856</v>
       </c>
       <c r="M5" t="n">
-        <v>584.3675935406823</v>
+        <v>426.7684258927619</v>
       </c>
       <c r="N5" t="n">
         <v>568.5510017355793</v>
@@ -8298,13 +8298,13 @@
         <v>343.8048081163522</v>
       </c>
       <c r="L6" t="n">
-        <v>112.5754335711478</v>
+        <v>396.1176730612018</v>
       </c>
       <c r="M6" t="n">
-        <v>558.3914246634074</v>
+        <v>600.9852732216708</v>
       </c>
       <c r="N6" t="n">
-        <v>592.21651172774</v>
+        <v>106.7151410677083</v>
       </c>
       <c r="O6" t="n">
         <v>512.0210150597484</v>
@@ -8313,7 +8313,7 @@
         <v>414.0015992319183</v>
       </c>
       <c r="Q6" t="n">
-        <v>113.7351914448925</v>
+        <v>273.1004740566038</v>
       </c>
       <c r="R6" t="n">
         <v>59.17817075471706</v>
@@ -8535,10 +8535,10 @@
         <v>343.8048081163522</v>
       </c>
       <c r="L9" t="n">
-        <v>112.5754335711478</v>
+        <v>482.0924488944969</v>
       </c>
       <c r="M9" t="n">
-        <v>605.4165828749999</v>
+        <v>156.1797194573845</v>
       </c>
       <c r="N9" t="n">
         <v>623.1450866466196</v>
@@ -8550,7 +8550,7 @@
         <v>414.0015992319183</v>
       </c>
       <c r="Q9" t="n">
-        <v>193.3806259623375</v>
+        <v>273.1004740566038</v>
       </c>
       <c r="R9" t="n">
         <v>59.17817075471706</v>
@@ -8766,7 +8766,7 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J12" t="n">
-        <v>163.9183459425325</v>
+        <v>163.9183459425315</v>
       </c>
       <c r="K12" t="n">
         <v>343.8048081163522</v>
@@ -8784,7 +8784,7 @@
         <v>512.0210150597484</v>
       </c>
       <c r="P12" t="n">
-        <v>414.0015992319183</v>
+        <v>414.0015992319179</v>
       </c>
       <c r="Q12" t="n">
         <v>273.1004740566038</v>
@@ -9003,7 +9003,7 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J15" t="n">
-        <v>163.9183459425325</v>
+        <v>163.9183459425316</v>
       </c>
       <c r="K15" t="n">
         <v>343.8048081163522</v>
@@ -9252,7 +9252,7 @@
         <v>605.4165828749999</v>
       </c>
       <c r="N18" t="n">
-        <v>623.1450866466196</v>
+        <v>623.1450866466193</v>
       </c>
       <c r="O18" t="n">
         <v>512.0210150597484</v>
@@ -9261,7 +9261,7 @@
         <v>414.0015992319183</v>
       </c>
       <c r="Q18" t="n">
-        <v>273.1004740566041</v>
+        <v>273.1004740566038</v>
       </c>
       <c r="R18" t="n">
         <v>59.17817075471706</v>
@@ -9486,7 +9486,7 @@
         <v>482.0924488944969</v>
       </c>
       <c r="M21" t="n">
-        <v>605.4165828749999</v>
+        <v>605.416582875</v>
       </c>
       <c r="N21" t="n">
         <v>623.1450866466196</v>
@@ -9498,7 +9498,7 @@
         <v>414.0015992319183</v>
       </c>
       <c r="Q21" t="n">
-        <v>273.1004740566041</v>
+        <v>273.1004740566038</v>
       </c>
       <c r="R21" t="n">
         <v>59.17817075471706</v>
@@ -10662,7 +10662,7 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J36" t="n">
-        <v>163.9183459425316</v>
+        <v>163.9183459425315</v>
       </c>
       <c r="K36" t="n">
         <v>343.8048081163522</v>
@@ -10905,7 +10905,7 @@
         <v>343.8048081163522</v>
       </c>
       <c r="L39" t="n">
-        <v>482.092448894497</v>
+        <v>482.0924488944969</v>
       </c>
       <c r="M39" t="n">
         <v>605.4165828749999</v>
@@ -10914,7 +10914,7 @@
         <v>623.1450866466196</v>
       </c>
       <c r="O39" t="n">
-        <v>512.0210150597484</v>
+        <v>512.0210150597476</v>
       </c>
       <c r="P39" t="n">
         <v>414.0015992319183</v>
@@ -11151,7 +11151,7 @@
         <v>623.1450866466196</v>
       </c>
       <c r="O42" t="n">
-        <v>512.0210150597484</v>
+        <v>512.021015059748</v>
       </c>
       <c r="P42" t="n">
         <v>414.0015992319183</v>
@@ -11385,7 +11385,7 @@
         <v>605.4165828749999</v>
       </c>
       <c r="N45" t="n">
-        <v>623.1450866466193</v>
+        <v>623.1450866466196</v>
       </c>
       <c r="O45" t="n">
         <v>512.0210150597484</v>
@@ -23264,19 +23264,19 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>118.8391845034091</v>
+        <v>275.9078171911224</v>
       </c>
       <c r="F11" t="n">
-        <v>296.5795132747227</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>298.5127811721451</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>216.0628961504551</v>
       </c>
       <c r="I11" t="n">
-        <v>57.65886129508323</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23306,7 +23306,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>71.92652010774086</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -23318,7 +23318,7 @@
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>245.4794153327663</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
@@ -23495,25 +23495,25 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>264.6842555723119</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>195.3912000668543</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>296.5795132747227</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>298.5127811721452</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>57.65886129508321</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23558,10 +23558,10 @@
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>264.7796735655128</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>203.3607040808146</v>
       </c>
     </row>
     <row r="15">
@@ -23786,7 +23786,7 @@
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>-1.304070691131495e-12</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -23798,7 +23798,7 @@
         <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>-3.694822225952521e-13</v>
       </c>
     </row>
     <row r="18">
@@ -24458,7 +24458,7 @@
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>8.242295734817162e-13</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -24737,7 +24737,7 @@
         <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>-1.989519660128281e-13</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
         <v>0</v>
@@ -25637,16 +25637,16 @@
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>163.3525856025277</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>277.6697606764554</v>
       </c>
       <c r="H41" t="n">
-        <v>195.2198756547654</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>36.8158407993935</v>
+        <v>36.81584079939344</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25676,13 +25676,13 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>51.08349961205113</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>87.84217080240049</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>106.876800209767</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -25871,19 +25871,19 @@
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>163.3525856025276</v>
       </c>
       <c r="F44" t="n">
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>277.6697606764554</v>
       </c>
       <c r="H44" t="n">
-        <v>102.7603805054126</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>36.8158407993935</v>
+        <v>36.81584079939344</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25913,16 +25913,16 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>51.08349961205113</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>87.84217080240049</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
         <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>199.3362953591196</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
         <v>0</v>
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>599077.7752826121</v>
+        <v>599077.775282612</v>
       </c>
     </row>
     <row r="8">
@@ -26311,25 +26311,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>767624.0604941819</v>
+        <v>767624.0604941825</v>
       </c>
       <c r="C2" t="n">
-        <v>767624.060494182</v>
+        <v>767624.0604941823</v>
       </c>
       <c r="D2" t="n">
-        <v>767624.0604941822</v>
+        <v>767624.0604941823</v>
       </c>
       <c r="E2" t="n">
-        <v>704701.57433089</v>
+        <v>704701.5743308901</v>
       </c>
       <c r="F2" t="n">
-        <v>704701.5743308901</v>
+        <v>704701.5743308897</v>
       </c>
       <c r="G2" t="n">
+        <v>767624.0604941804</v>
+      </c>
+      <c r="H2" t="n">
         <v>767624.0604941808</v>
-      </c>
-      <c r="H2" t="n">
-        <v>767624.0604941803</v>
       </c>
       <c r="I2" t="n">
         <v>767624.0604941807</v>
@@ -26338,22 +26338,22 @@
         <v>767624.0604941819</v>
       </c>
       <c r="K2" t="n">
-        <v>767624.0604941814</v>
+        <v>767624.0604941816</v>
       </c>
       <c r="L2" t="n">
-        <v>767624.0604941817</v>
+        <v>767624.060494181</v>
       </c>
       <c r="M2" t="n">
         <v>767624.0604941805</v>
       </c>
       <c r="N2" t="n">
-        <v>767624.0604941807</v>
+        <v>767624.0604941808</v>
       </c>
       <c r="O2" t="n">
-        <v>729588.1408027436</v>
+        <v>729588.1408027444</v>
       </c>
       <c r="P2" t="n">
-        <v>729588.1408027433</v>
+        <v>729588.1408027443</v>
       </c>
     </row>
     <row r="3">
@@ -26363,13 +26363,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>162702.6758397018</v>
+        <v>162702.6758397016</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>12363.64264081832</v>
+        <v>12363.64264081853</v>
       </c>
       <c r="E3" t="n">
         <v>124619.3675503042</v>
@@ -26378,7 +26378,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>42159.11970739859</v>
+        <v>42159.11970739857</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,13 +26387,13 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>226085.712443878</v>
+        <v>226085.7124438778</v>
       </c>
       <c r="K3" t="n">
-        <v>3.410605131648481e-11</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>50397.14339869048</v>
+        <v>50397.14339869064</v>
       </c>
       <c r="M3" t="n">
         <v>23532.8707656167</v>
@@ -26402,7 +26402,7 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>33785.73726634993</v>
+        <v>33785.73726634996</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26415,10 +26415,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>217948.7198045597</v>
+        <v>217948.7198045598</v>
       </c>
       <c r="C4" t="n">
-        <v>217948.7198045597</v>
+        <v>217948.7198045598</v>
       </c>
       <c r="D4" t="n">
         <v>208183.1070948236</v>
@@ -26430,7 +26430,7 @@
         <v>163304.2729689146</v>
       </c>
       <c r="G4" t="n">
-        <v>198982.8504522115</v>
+        <v>198982.8504522114</v>
       </c>
       <c r="H4" t="n">
         <v>198982.8504522115</v>
@@ -26457,7 +26457,7 @@
         <v>177403.7022154403</v>
       </c>
       <c r="P4" t="n">
-        <v>177403.7022154402</v>
+        <v>177403.7022154403</v>
       </c>
     </row>
     <row r="5">
@@ -26467,25 +26467,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>63146.08333612992</v>
+        <v>63146.08333612988</v>
       </c>
       <c r="C5" t="n">
-        <v>63146.08333612992</v>
+        <v>63146.08333612988</v>
       </c>
       <c r="D5" t="n">
         <v>65566.03463691141</v>
       </c>
       <c r="E5" t="n">
-        <v>48372.47309929477</v>
+        <v>48372.47309929476</v>
       </c>
       <c r="F5" t="n">
-        <v>48372.47309929477</v>
+        <v>48372.47309929476</v>
       </c>
       <c r="G5" t="n">
-        <v>52802.81689264638</v>
+        <v>52802.81689264637</v>
       </c>
       <c r="H5" t="n">
-        <v>52802.81689264638</v>
+        <v>52802.81689264637</v>
       </c>
       <c r="I5" t="n">
         <v>52802.81689264637</v>
@@ -26494,10 +26494,10 @@
         <v>58740.88327108059</v>
       </c>
       <c r="K5" t="n">
-        <v>58740.8832710806</v>
+        <v>58740.88327108059</v>
       </c>
       <c r="L5" t="n">
-        <v>57186.63498742813</v>
+        <v>57186.63498742811</v>
       </c>
       <c r="M5" t="n">
         <v>52802.81689264637</v>
@@ -26506,10 +26506,10 @@
         <v>52802.81689264637</v>
       </c>
       <c r="O5" t="n">
-        <v>50124.72498934689</v>
+        <v>50124.72498934691</v>
       </c>
       <c r="P5" t="n">
-        <v>50124.7249893469</v>
+        <v>50124.72498934691</v>
       </c>
     </row>
     <row r="6">
@@ -26519,37 +26519,37 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>323826.5815137906</v>
+        <v>323826.5815137912</v>
       </c>
       <c r="C6" t="n">
-        <v>486529.2573534924</v>
+        <v>486529.2573534925</v>
       </c>
       <c r="D6" t="n">
         <v>481511.2761216288</v>
       </c>
       <c r="E6" t="n">
-        <v>368405.4607123765</v>
+        <v>368248.1544969683</v>
       </c>
       <c r="F6" t="n">
-        <v>493024.8282626807</v>
+        <v>492867.5220472721</v>
       </c>
       <c r="G6" t="n">
-        <v>473679.2734419244</v>
+        <v>473679.273441924</v>
       </c>
       <c r="H6" t="n">
-        <v>515838.3931493225</v>
+        <v>515838.3931493229</v>
       </c>
       <c r="I6" t="n">
         <v>515838.3931493229</v>
       </c>
       <c r="J6" t="n">
-        <v>283030.1233341999</v>
+        <v>283030.1233342</v>
       </c>
       <c r="K6" t="n">
-        <v>509115.8357780772</v>
+        <v>509115.8357780774</v>
       </c>
       <c r="L6" t="n">
-        <v>460486.1233956057</v>
+        <v>460486.123395605</v>
       </c>
       <c r="M6" t="n">
         <v>492305.5223837061</v>
@@ -26558,10 +26558,10 @@
         <v>515838.3931493229</v>
       </c>
       <c r="O6" t="n">
-        <v>468273.9763316066</v>
+        <v>468178.8865323787</v>
       </c>
       <c r="P6" t="n">
-        <v>502059.7135979561</v>
+        <v>501964.6237987285</v>
       </c>
     </row>
   </sheetData>
@@ -26710,10 +26710,10 @@
         <v>126.7869503557441</v>
       </c>
       <c r="K2" t="n">
-        <v>126.7869503557442</v>
+        <v>126.7869503557441</v>
       </c>
       <c r="L2" t="n">
-        <v>137.084479969859</v>
+        <v>137.0844799698592</v>
       </c>
       <c r="M2" t="n">
         <v>166.1290651424569</v>
@@ -26722,10 +26722,10 @@
         <v>166.1290651424569</v>
       </c>
       <c r="O2" t="n">
-        <v>134.2731860038984</v>
+        <v>134.2731860038985</v>
       </c>
       <c r="P2" t="n">
-        <v>134.2731860038984</v>
+        <v>134.2731860038985</v>
       </c>
     </row>
     <row r="3">
@@ -26787,46 +26787,46 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>485.5013706600316</v>
+        <v>485.5013706600309</v>
       </c>
       <c r="C4" t="n">
-        <v>485.5013706600316</v>
+        <v>485.5013706600309</v>
       </c>
       <c r="D4" t="n">
         <v>525.3032012649903</v>
       </c>
       <c r="E4" t="n">
-        <v>638.758429526072</v>
+        <v>638.7584295260717</v>
       </c>
       <c r="F4" t="n">
-        <v>638.758429526072</v>
+        <v>638.7584295260717</v>
       </c>
       <c r="G4" t="n">
-        <v>638.758429526072</v>
+        <v>638.7584295260717</v>
       </c>
       <c r="H4" t="n">
-        <v>638.758429526072</v>
+        <v>638.7584295260717</v>
       </c>
       <c r="I4" t="n">
         <v>638.7584295260716</v>
       </c>
       <c r="J4" t="n">
-        <v>790.8228806188083</v>
+        <v>790.8228806188082</v>
       </c>
       <c r="K4" t="n">
         <v>790.8228806188083</v>
       </c>
       <c r="L4" t="n">
-        <v>751.0210500138496</v>
+        <v>751.0210500138489</v>
       </c>
       <c r="M4" t="n">
+        <v>638.7584295260716</v>
+      </c>
+      <c r="N4" t="n">
+        <v>638.7584295260716</v>
+      </c>
+      <c r="O4" t="n">
         <v>638.7584295260717</v>
-      </c>
-      <c r="N4" t="n">
-        <v>638.7584295260717</v>
-      </c>
-      <c r="O4" t="n">
-        <v>638.7584295260716</v>
       </c>
       <c r="P4" t="n">
         <v>638.7584295260717</v>
@@ -26920,7 +26920,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>52.69889963424824</v>
+        <v>52.69889963424821</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26929,22 +26929,22 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>74.08805072149588</v>
+        <v>74.08805072149589</v>
       </c>
       <c r="K2" t="n">
-        <v>4.263256414560601e-14</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>62.9964292483631</v>
+        <v>62.9964292483633</v>
       </c>
       <c r="M2" t="n">
-        <v>29.04458517259789</v>
+        <v>29.04458517259775</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>42.23217158293741</v>
+        <v>42.23217158293745</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27009,16 +27009,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>485.5013706600316</v>
+        <v>485.5013706600309</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>39.8018306049587</v>
+        <v>39.80183060495938</v>
       </c>
       <c r="E4" t="n">
-        <v>113.4552282610816</v>
+        <v>113.4552282610814</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>637.5658217527682</v>
+        <v>637.5658217527674</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>1.192607773303735</v>
+        <v>1.192607773304189</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27157,7 +27157,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>52.69889963424824</v>
+        <v>52.69889963424821</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27166,10 +27166,10 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>74.08805072149588</v>
+        <v>74.08805072149589</v>
       </c>
       <c r="P2" t="n">
-        <v>4.263256414560601e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27255,16 +27255,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>485.5013706600316</v>
+        <v>485.5013706600309</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>39.8018306049587</v>
+        <v>39.80183060495938</v>
       </c>
       <c r="M4" t="n">
-        <v>113.4552282610816</v>
+        <v>113.4552282610814</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27379,16 +27379,16 @@
         <v>390.1031041228389</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>378.1144210805207</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>369.0957251250487</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>348.9260991630057</v>
       </c>
       <c r="F2" t="n">
-        <v>99.20830010848152</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
         <v>400</v>
@@ -27427,22 +27427,22 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>185.3566856159496</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>222.1153568062989</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>252.3364829231459</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>358.909580840975</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>378.2098390737216</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>389.6064368699203</v>
@@ -27455,7 +27455,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>157.8252483534483</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -27464,7 +27464,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>145.5577298436975</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27476,7 +27476,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>67.69846245683961</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27503,7 +27503,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>59.18642621600367</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -27512,19 +27512,19 @@
         <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>216.3098444776729</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>226.1116663261494</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>107.7175483130062</v>
+        <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>47.64793159193283</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>190.5961130869169</v>
       </c>
     </row>
     <row r="4">
@@ -27579,7 +27579,7 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>38.15196793284785</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>148.0265635717656</v>
@@ -27588,16 +27588,16 @@
         <v>211.5726649703493</v>
       </c>
       <c r="T4" t="n">
-        <v>230.8471636524779</v>
+        <v>229.3283696525923</v>
       </c>
       <c r="U4" t="n">
         <v>284.3183371157911</v>
       </c>
       <c r="V4" t="n">
-        <v>243.6240755350413</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>283.2948374677749</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -27613,16 +27613,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>390.1031041228389</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>378.1144210805207</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>369.0957251250487</v>
       </c>
       <c r="E5" t="n">
-        <v>390.8378626949542</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>400</v>
@@ -27634,7 +27634,7 @@
         <v>329.4930616586638</v>
       </c>
       <c r="I5" t="n">
-        <v>171.0890268032919</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27664,22 +27664,22 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>185.3566856159496</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>252.3364829231459</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>105.9455839586147</v>
+        <v>333.6094813630181</v>
       </c>
       <c r="W5" t="n">
-        <v>358.909580840975</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>378.2098390737216</v>
+        <v>1.048958987329797</v>
       </c>
       <c r="Y5" t="n">
         <v>389.6064368699203</v>
@@ -27698,7 +27698,7 @@
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>137.45025063969</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
@@ -27740,13 +27740,13 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>59.18642621600367</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>99.70452562333119</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>186.7982527956746</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
         <v>0</v>
@@ -27755,13 +27755,13 @@
         <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>238.9027100790231</v>
       </c>
       <c r="X6" t="n">
-        <v>195.9378182409833</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>165.2740621572825</v>
       </c>
     </row>
     <row r="7">
@@ -27771,7 +27771,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>181.719814997536</v>
       </c>
       <c r="C7" t="n">
         <v>167.9198098429365</v>
@@ -27780,7 +27780,7 @@
         <v>151.5411742405149</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>150.4889240962943</v>
       </c>
       <c r="F7" t="n">
         <v>150.9558484244806</v>
@@ -27819,22 +27819,22 @@
         <v>38.15196793284785</v>
       </c>
       <c r="R7" t="n">
-        <v>148.0265635717656</v>
+        <v>135.4299118985452</v>
       </c>
       <c r="S7" t="n">
         <v>211.5726649703493</v>
       </c>
       <c r="T7" t="n">
-        <v>230.8471636524779</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>284.3183371157911</v>
       </c>
       <c r="V7" t="n">
-        <v>63.59803769751881</v>
+        <v>258.1279513971616</v>
       </c>
       <c r="W7" t="n">
-        <v>283.2948374677749</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>228.939939463578</v>
@@ -27853,7 +27853,7 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>378.1144210805207</v>
       </c>
       <c r="D8" t="n">
         <v>369.0957251250487</v>
@@ -27862,13 +27862,13 @@
         <v>390.8378626949542</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>329.4930616586638</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>171.0890268032919</v>
@@ -27898,13 +27898,13 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>89.73190363910518</v>
       </c>
       <c r="S8" t="n">
-        <v>185.3566856159496</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>222.1153568062989</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>252.3364829231459</v>
@@ -27913,13 +27913,13 @@
         <v>333.6094813630181</v>
       </c>
       <c r="W8" t="n">
-        <v>358.909580840975</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>378.2098390737216</v>
+        <v>237.1500269824789</v>
       </c>
       <c r="Y8" t="n">
-        <v>30.91182770649601</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -27935,19 +27935,19 @@
         <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>7.832539582966319</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>133.3468600696244</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>49.32288970647717</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>98.93847887876893</v>
       </c>
       <c r="I9" t="n">
         <v>67.69846245683961</v>
@@ -27977,13 +27977,13 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>59.18642621600367</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>186.7982527956746</v>
+        <v>0</v>
       </c>
       <c r="U9" t="n">
         <v>0</v>
@@ -27992,7 +27992,7 @@
         <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>0</v>
+        <v>238.9027100790231</v>
       </c>
       <c r="X9" t="n">
         <v>0</v>
@@ -28053,19 +28053,19 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>38.15196793284785</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
         <v>148.0265635717656</v>
       </c>
       <c r="S10" t="n">
-        <v>211.5726649703493</v>
+        <v>189.0241322230513</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>230.8471636524779</v>
       </c>
       <c r="U10" t="n">
-        <v>170.1466629723319</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>258.1279513971616</v>
@@ -28111,19 +28111,19 @@
         <v>113.4301655082087</v>
       </c>
       <c r="J11" t="n">
+        <v>0</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0</v>
+      </c>
+      <c r="L11" t="n">
         <v>113.4301655082087</v>
       </c>
-      <c r="K11" t="n">
+      <c r="M11" t="n">
         <v>113.4301655082087</v>
       </c>
-      <c r="L11" t="n">
-        <v>85.24810502388578</v>
-      </c>
-      <c r="M11" t="n">
-        <v>0</v>
-      </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>85.24810502388482</v>
       </c>
       <c r="O11" t="n">
         <v>0</v>
@@ -28187,7 +28187,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>14.56549128550371</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -28214,7 +28214,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>14.5654912855027</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -28348,28 +28348,28 @@
         <v>113.4301655082087</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>113.4301655082087</v>
       </c>
       <c r="K14" t="n">
         <v>113.4301655082087</v>
       </c>
       <c r="L14" t="n">
+        <v>0</v>
+      </c>
+      <c r="M14" t="n">
+        <v>0</v>
+      </c>
+      <c r="N14" t="n">
         <v>113.4301655082087</v>
       </c>
-      <c r="M14" t="n">
-        <v>113.4301655082087</v>
-      </c>
-      <c r="N14" t="n">
-        <v>0</v>
-      </c>
       <c r="O14" t="n">
-        <v>85.2481050238859</v>
+        <v>0</v>
       </c>
       <c r="P14" t="n">
         <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>85.24810502388468</v>
       </c>
       <c r="R14" t="n">
         <v>113.4301655082087</v>
@@ -28418,13 +28418,13 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>14.56549128550283</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>14.56549128550371</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -28506,7 +28506,7 @@
         <v>113.4301655082087</v>
       </c>
       <c r="J16" t="n">
-        <v>113.4301655082094</v>
+        <v>113.4301655082087</v>
       </c>
       <c r="K16" t="n">
         <v>113.4301655082087</v>
@@ -28524,7 +28524,7 @@
         <v>113.4301655082087</v>
       </c>
       <c r="P16" t="n">
-        <v>113.4301655082087</v>
+        <v>113.4301655082088</v>
       </c>
       <c r="Q16" t="n">
         <v>113.4301655082087</v>
@@ -28585,31 +28585,31 @@
         <v>166.1290651424569</v>
       </c>
       <c r="J17" t="n">
+        <v>0</v>
+      </c>
+      <c r="K17" t="n">
+        <v>0</v>
+      </c>
+      <c r="L17" t="n">
+        <v>0</v>
+      </c>
+      <c r="M17" t="n">
+        <v>116.9787331327011</v>
+      </c>
+      <c r="N17" t="n">
+        <v>0</v>
+      </c>
+      <c r="O17" t="n">
+        <v>0</v>
+      </c>
+      <c r="P17" t="n">
         <v>166.1290651424569</v>
       </c>
-      <c r="K17" t="n">
+      <c r="Q17" t="n">
         <v>166.1290651424569</v>
       </c>
-      <c r="L17" t="n">
-        <v>40.58157162935021</v>
-      </c>
-      <c r="M17" t="n">
-        <v>0</v>
-      </c>
-      <c r="N17" t="n">
-        <v>0</v>
-      </c>
-      <c r="O17" t="n">
-        <v>0</v>
-      </c>
-      <c r="P17" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q17" t="n">
-        <v>0</v>
-      </c>
       <c r="R17" t="n">
-        <v>166.1290651424569</v>
+        <v>89.73190363910518</v>
       </c>
       <c r="S17" t="n">
         <v>166.1290651424569</v>
@@ -28655,7 +28655,7 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>14.56549128550373</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -28688,7 +28688,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>14.5654912855027</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -28731,16 +28731,16 @@
         <v>150.4889240962943</v>
       </c>
       <c r="F19" t="n">
-        <v>150.9558484244806</v>
+        <v>166.1290651424569</v>
       </c>
       <c r="G19" t="n">
         <v>166.1290651424569</v>
       </c>
       <c r="H19" t="n">
-        <v>157.7789187685189</v>
+        <v>166.1290651424569</v>
       </c>
       <c r="I19" t="n">
-        <v>142.7610139533483</v>
+        <v>147.8207661206955</v>
       </c>
       <c r="J19" t="n">
         <v>59.456666199969</v>
@@ -28764,10 +28764,10 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>84.83758476280077</v>
+        <v>38.15196793284785</v>
       </c>
       <c r="R19" t="n">
-        <v>148.0265635717656</v>
+        <v>166.1290651424569</v>
       </c>
       <c r="S19" t="n">
         <v>166.1290651424569</v>
@@ -28822,7 +28822,7 @@
         <v>166.1290651424569</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>116.9787331327011</v>
       </c>
       <c r="K20" t="n">
         <v>0</v>
@@ -28831,7 +28831,7 @@
         <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>166.1290651424569</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
         <v>166.1290651424569</v>
@@ -28840,13 +28840,13 @@
         <v>0</v>
       </c>
       <c r="P20" t="n">
-        <v>0</v>
+        <v>166.1290651424569</v>
       </c>
       <c r="Q20" t="n">
-        <v>40.58157162935046</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>166.1290651424569</v>
+        <v>89.73190363910518</v>
       </c>
       <c r="S20" t="n">
         <v>166.1290651424569</v>
@@ -28898,7 +28898,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>14.56549128550371</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -28925,7 +28925,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>14.5654912855027</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -28962,19 +28962,19 @@
         <v>166.1290651424569</v>
       </c>
       <c r="D22" t="n">
-        <v>166.1290651424569</v>
+        <v>151.5411742405149</v>
       </c>
       <c r="E22" t="n">
-        <v>166.1290651424569</v>
+        <v>150.4889240962943</v>
       </c>
       <c r="F22" t="n">
-        <v>166.1290651424569</v>
+        <v>152.0796990554076</v>
       </c>
       <c r="G22" t="n">
         <v>166.1290651424569</v>
       </c>
       <c r="H22" t="n">
-        <v>159.0632869323909</v>
+        <v>157.7789187685189</v>
       </c>
       <c r="I22" t="n">
         <v>142.7610139533483</v>
@@ -29001,7 +29001,7 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>38.15196793284785</v>
+        <v>83.71373413187378</v>
       </c>
       <c r="R22" t="n">
         <v>148.0265635717656</v>
@@ -29059,14 +29059,14 @@
         <v>166.1290651424569</v>
       </c>
       <c r="J23" t="n">
+        <v>116.9787331327009</v>
+      </c>
+      <c r="K23" t="n">
+        <v>0</v>
+      </c>
+      <c r="L23" t="n">
         <v>166.1290651424569</v>
       </c>
-      <c r="K23" t="n">
-        <v>40.58157162934944</v>
-      </c>
-      <c r="L23" t="n">
-        <v>0</v>
-      </c>
       <c r="M23" t="n">
         <v>0</v>
       </c>
@@ -29074,16 +29074,16 @@
         <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>0</v>
+        <v>166.1290651424569</v>
       </c>
       <c r="P23" t="n">
-        <v>166.1290651424569</v>
+        <v>0</v>
       </c>
       <c r="Q23" t="n">
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>166.1290651424569</v>
+        <v>89.73190363910518</v>
       </c>
       <c r="S23" t="n">
         <v>166.1290651424569</v>
@@ -29132,10 +29132,10 @@
         <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>14.56549128550326</v>
+        <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>14.56549128550325</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -29202,7 +29202,7 @@
         <v>151.5411742405149</v>
       </c>
       <c r="E25" t="n">
-        <v>150.4889240962943</v>
+        <v>151.6127747272213</v>
       </c>
       <c r="F25" t="n">
         <v>150.9558484244806</v>
@@ -29211,13 +29211,13 @@
         <v>166.1290651424569</v>
       </c>
       <c r="H25" t="n">
-        <v>157.7789187685189</v>
+        <v>166.1290651424569</v>
       </c>
       <c r="I25" t="n">
-        <v>166.1290651424569</v>
+        <v>142.7610139533483</v>
       </c>
       <c r="J25" t="n">
-        <v>82.7742318408133</v>
+        <v>59.456666199969</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -29235,13 +29235,13 @@
         <v>0</v>
       </c>
       <c r="P25" t="n">
-        <v>0</v>
+        <v>19.10911825439662</v>
       </c>
       <c r="Q25" t="n">
         <v>38.15196793284785</v>
       </c>
       <c r="R25" t="n">
-        <v>148.0265635717656</v>
+        <v>166.1290651424569</v>
       </c>
       <c r="S25" t="n">
         <v>166.1290651424569</v>
@@ -29369,10 +29369,10 @@
         <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>14.56549128550336</v>
+        <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>14.56549128550334</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -29454,7 +29454,7 @@
         <v>126.7869503557441</v>
       </c>
       <c r="J28" t="n">
-        <v>126.7869503557441</v>
+        <v>59.456666199969</v>
       </c>
       <c r="K28" t="n">
         <v>126.7869503557441</v>
@@ -29466,13 +29466,13 @@
         <v>126.7869503557441</v>
       </c>
       <c r="N28" t="n">
+        <v>84.63718158143514</v>
+      </c>
+      <c r="O28" t="n">
         <v>126.7869503557441</v>
       </c>
-      <c r="O28" t="n">
-        <v>0</v>
-      </c>
       <c r="P28" t="n">
-        <v>17.3068974256594</v>
+        <v>0</v>
       </c>
       <c r="Q28" t="n">
         <v>38.15196793284785</v>
@@ -29509,76 +29509,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>126.7869503557442</v>
+        <v>126.7869503557441</v>
       </c>
       <c r="C29" t="n">
-        <v>126.7869503557442</v>
+        <v>126.7869503557441</v>
       </c>
       <c r="D29" t="n">
-        <v>126.7869503557442</v>
+        <v>126.7869503557441</v>
       </c>
       <c r="E29" t="n">
-        <v>126.7869503557442</v>
+        <v>126.7869503557441</v>
       </c>
       <c r="F29" t="n">
-        <v>126.7869503557442</v>
+        <v>126.7869503557441</v>
       </c>
       <c r="G29" t="n">
-        <v>126.7869503557442</v>
+        <v>126.7869503557441</v>
       </c>
       <c r="H29" t="n">
-        <v>126.7869503557442</v>
+        <v>126.7869503557441</v>
       </c>
       <c r="I29" t="n">
-        <v>126.7869503557442</v>
+        <v>126.7869503557441</v>
       </c>
       <c r="J29" t="n">
-        <v>126.7869503557442</v>
+        <v>126.7869503557441</v>
       </c>
       <c r="K29" t="n">
-        <v>126.7869503557442</v>
+        <v>126.7869503557441</v>
       </c>
       <c r="L29" t="n">
-        <v>126.7869503557442</v>
+        <v>126.7869503557441</v>
       </c>
       <c r="M29" t="n">
-        <v>126.7869503557442</v>
+        <v>126.7869503557441</v>
       </c>
       <c r="N29" t="n">
-        <v>126.7869503557442</v>
+        <v>126.7869503557441</v>
       </c>
       <c r="O29" t="n">
-        <v>126.7869503557442</v>
+        <v>126.7869503557441</v>
       </c>
       <c r="P29" t="n">
-        <v>126.7869503557442</v>
+        <v>126.7869503557441</v>
       </c>
       <c r="Q29" t="n">
-        <v>126.7869503557442</v>
+        <v>126.7869503557441</v>
       </c>
       <c r="R29" t="n">
-        <v>126.7869503557442</v>
+        <v>126.7869503557441</v>
       </c>
       <c r="S29" t="n">
-        <v>126.7869503557442</v>
+        <v>126.7869503557441</v>
       </c>
       <c r="T29" t="n">
-        <v>126.7869503557442</v>
+        <v>126.7869503557441</v>
       </c>
       <c r="U29" t="n">
-        <v>126.7869503557442</v>
+        <v>126.7869503557441</v>
       </c>
       <c r="V29" t="n">
-        <v>126.7869503557442</v>
+        <v>126.7869503557441</v>
       </c>
       <c r="W29" t="n">
-        <v>126.7869503557442</v>
+        <v>126.7869503557441</v>
       </c>
       <c r="X29" t="n">
-        <v>126.7869503557442</v>
+        <v>126.7869503557441</v>
       </c>
       <c r="Y29" t="n">
-        <v>126.7869503557442</v>
+        <v>126.7869503557441</v>
       </c>
     </row>
     <row r="30">
@@ -29606,10 +29606,10 @@
         <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>14.56549128550336</v>
       </c>
       <c r="I30" t="n">
-        <v>14.56549128550336</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>126.7869503557442</v>
+        <v>126.7869503557441</v>
       </c>
       <c r="C31" t="n">
-        <v>126.7869503557442</v>
+        <v>126.7869503557441</v>
       </c>
       <c r="D31" t="n">
-        <v>126.7869503557442</v>
+        <v>126.7869503557441</v>
       </c>
       <c r="E31" t="n">
-        <v>126.7869503557442</v>
+        <v>126.7869503557441</v>
       </c>
       <c r="F31" t="n">
-        <v>126.7869503557442</v>
+        <v>126.7869503557441</v>
       </c>
       <c r="G31" t="n">
-        <v>126.7869503557442</v>
+        <v>126.7869503557441</v>
       </c>
       <c r="H31" t="n">
-        <v>126.7869503557442</v>
+        <v>126.7869503557441</v>
       </c>
       <c r="I31" t="n">
-        <v>126.7869503557442</v>
+        <v>126.7869503557441</v>
       </c>
       <c r="J31" t="n">
-        <v>59.456666199969</v>
+        <v>126.7869503557441</v>
       </c>
       <c r="K31" t="n">
-        <v>126.7869503557442</v>
+        <v>55.45886535850785</v>
       </c>
       <c r="L31" t="n">
-        <v>126.7869503557442</v>
+        <v>126.7869503557441</v>
       </c>
       <c r="M31" t="n">
-        <v>126.7869503557442</v>
+        <v>0</v>
       </c>
       <c r="N31" t="n">
-        <v>126.7869503557442</v>
+        <v>0</v>
       </c>
       <c r="O31" t="n">
-        <v>0</v>
+        <v>126.7869503557441</v>
       </c>
       <c r="P31" t="n">
-        <v>84.63718158143355</v>
+        <v>126.7869503557441</v>
       </c>
       <c r="Q31" t="n">
-        <v>38.15196793284785</v>
+        <v>126.7869503557441</v>
       </c>
       <c r="R31" t="n">
-        <v>126.7869503557442</v>
+        <v>126.7869503557441</v>
       </c>
       <c r="S31" t="n">
-        <v>126.7869503557442</v>
+        <v>126.7869503557441</v>
       </c>
       <c r="T31" t="n">
-        <v>126.7869503557442</v>
+        <v>126.7869503557441</v>
       </c>
       <c r="U31" t="n">
-        <v>126.7869503557442</v>
+        <v>126.7869503557441</v>
       </c>
       <c r="V31" t="n">
-        <v>126.7869503557442</v>
+        <v>126.7869503557441</v>
       </c>
       <c r="W31" t="n">
-        <v>126.7869503557442</v>
+        <v>126.7869503557441</v>
       </c>
       <c r="X31" t="n">
-        <v>126.7869503557442</v>
+        <v>126.7869503557441</v>
       </c>
       <c r="Y31" t="n">
-        <v>126.7869503557442</v>
+        <v>126.7869503557441</v>
       </c>
     </row>
     <row r="32">
@@ -29746,76 +29746,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>137.084479969859</v>
+        <v>137.0844799698592</v>
       </c>
       <c r="C32" t="n">
-        <v>137.084479969859</v>
+        <v>137.0844799698592</v>
       </c>
       <c r="D32" t="n">
-        <v>137.084479969859</v>
+        <v>137.0844799698592</v>
       </c>
       <c r="E32" t="n">
-        <v>137.084479969859</v>
+        <v>137.0844799698592</v>
       </c>
       <c r="F32" t="n">
-        <v>137.084479969859</v>
+        <v>137.0844799698592</v>
       </c>
       <c r="G32" t="n">
-        <v>137.084479969859</v>
+        <v>137.0844799698592</v>
       </c>
       <c r="H32" t="n">
-        <v>137.084479969859</v>
+        <v>137.0844799698592</v>
       </c>
       <c r="I32" t="n">
-        <v>137.084479969859</v>
+        <v>137.0844799698592</v>
       </c>
       <c r="J32" t="n">
-        <v>23.8920257647665</v>
+        <v>137.0844799698592</v>
       </c>
       <c r="K32" t="n">
-        <v>137.084479969859</v>
+        <v>137.0844799698592</v>
       </c>
       <c r="L32" t="n">
-        <v>137.084479969859</v>
+        <v>137.0844799698592</v>
       </c>
       <c r="M32" t="n">
-        <v>137.084479969859</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>0</v>
+        <v>137.0844799698592</v>
       </c>
       <c r="O32" t="n">
-        <v>137.084479969859</v>
+        <v>23.89202576476271</v>
       </c>
       <c r="P32" t="n">
-        <v>137.084479969859</v>
+        <v>137.0844799698592</v>
       </c>
       <c r="Q32" t="n">
-        <v>137.084479969859</v>
+        <v>137.0844799698592</v>
       </c>
       <c r="R32" t="n">
-        <v>137.084479969859</v>
+        <v>137.0844799698592</v>
       </c>
       <c r="S32" t="n">
-        <v>137.084479969859</v>
+        <v>137.0844799698592</v>
       </c>
       <c r="T32" t="n">
-        <v>137.084479969859</v>
+        <v>137.0844799698592</v>
       </c>
       <c r="U32" t="n">
-        <v>137.084479969859</v>
+        <v>137.0844799698592</v>
       </c>
       <c r="V32" t="n">
-        <v>137.084479969859</v>
+        <v>137.0844799698592</v>
       </c>
       <c r="W32" t="n">
-        <v>137.084479969859</v>
+        <v>137.0844799698592</v>
       </c>
       <c r="X32" t="n">
-        <v>137.084479969859</v>
+        <v>137.0844799698592</v>
       </c>
       <c r="Y32" t="n">
-        <v>137.084479969859</v>
+        <v>137.0844799698592</v>
       </c>
     </row>
     <row r="33">
@@ -29837,7 +29837,7 @@
         <v>0</v>
       </c>
       <c r="F33" t="n">
-        <v>0</v>
+        <v>14.56549128550353</v>
       </c>
       <c r="G33" t="n">
         <v>0</v>
@@ -29846,7 +29846,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>14.56549128550351</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>137.084479969859</v>
+        <v>137.0844799698592</v>
       </c>
       <c r="C34" t="n">
-        <v>137.084479969859</v>
+        <v>137.0844799698592</v>
       </c>
       <c r="D34" t="n">
-        <v>137.084479969859</v>
+        <v>137.0844799698592</v>
       </c>
       <c r="E34" t="n">
-        <v>137.084479969859</v>
+        <v>137.0844799698592</v>
       </c>
       <c r="F34" t="n">
-        <v>137.084479969859</v>
+        <v>137.0844799698592</v>
       </c>
       <c r="G34" t="n">
-        <v>137.084479969859</v>
+        <v>137.0844799698592</v>
       </c>
       <c r="H34" t="n">
-        <v>137.084479969859</v>
+        <v>137.0844799698592</v>
       </c>
       <c r="I34" t="n">
-        <v>137.084479969859</v>
+        <v>137.0844799698592</v>
       </c>
       <c r="J34" t="n">
-        <v>137.084479969859</v>
+        <v>110.0343984032026</v>
       </c>
       <c r="K34" t="n">
         <v>0</v>
       </c>
       <c r="L34" t="n">
-        <v>0</v>
+        <v>137.0844799698592</v>
       </c>
       <c r="M34" t="n">
-        <v>137.084479969859</v>
+        <v>0</v>
       </c>
       <c r="N34" t="n">
-        <v>137.084479969859</v>
+        <v>0</v>
       </c>
       <c r="O34" t="n">
-        <v>71.88243047035797</v>
+        <v>0</v>
       </c>
       <c r="P34" t="n">
-        <v>0</v>
+        <v>137.0844799698592</v>
       </c>
       <c r="Q34" t="n">
-        <v>38.15196793284785</v>
+        <v>137.0844799698592</v>
       </c>
       <c r="R34" t="n">
-        <v>137.084479969859</v>
+        <v>137.0844799698592</v>
       </c>
       <c r="S34" t="n">
-        <v>137.084479969859</v>
+        <v>137.0844799698592</v>
       </c>
       <c r="T34" t="n">
-        <v>137.084479969859</v>
+        <v>137.0844799698592</v>
       </c>
       <c r="U34" t="n">
-        <v>137.084479969859</v>
+        <v>137.0844799698592</v>
       </c>
       <c r="V34" t="n">
-        <v>137.084479969859</v>
+        <v>137.0844799698592</v>
       </c>
       <c r="W34" t="n">
-        <v>137.084479969859</v>
+        <v>137.0844799698592</v>
       </c>
       <c r="X34" t="n">
-        <v>137.084479969859</v>
+        <v>137.0844799698592</v>
       </c>
       <c r="Y34" t="n">
-        <v>137.084479969859</v>
+        <v>137.0844799698592</v>
       </c>
     </row>
     <row r="35">
@@ -30007,25 +30007,25 @@
         <v>166.1290651424569</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>166.1290651424569</v>
       </c>
       <c r="K35" t="n">
+        <v>0</v>
+      </c>
+      <c r="L35" t="n">
         <v>166.1290651424569</v>
       </c>
-      <c r="L35" t="n">
-        <v>40.58157162934941</v>
-      </c>
       <c r="M35" t="n">
         <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>166.1290651424569</v>
+        <v>0</v>
       </c>
       <c r="O35" t="n">
         <v>0</v>
       </c>
       <c r="P35" t="n">
-        <v>0</v>
+        <v>40.58157162934918</v>
       </c>
       <c r="Q35" t="n">
         <v>0</v>
@@ -30071,7 +30071,7 @@
         <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>0</v>
+        <v>14.5654912855033</v>
       </c>
       <c r="F36" t="n">
         <v>0</v>
@@ -30110,7 +30110,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>14.5654912855036</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -30174,7 +30174,7 @@
         <v>0</v>
       </c>
       <c r="M37" t="n">
-        <v>0</v>
+        <v>46.68561682995298</v>
       </c>
       <c r="N37" t="n">
         <v>0</v>
@@ -30183,7 +30183,7 @@
         <v>0</v>
       </c>
       <c r="P37" t="n">
-        <v>46.68561682995329</v>
+        <v>0</v>
       </c>
       <c r="Q37" t="n">
         <v>38.15196793284785</v>
@@ -30244,7 +30244,7 @@
         <v>166.1290651424569</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>166.1290651424569</v>
       </c>
       <c r="K38" t="n">
         <v>0</v>
@@ -30256,7 +30256,7 @@
         <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>40.58157162934947</v>
+        <v>0</v>
       </c>
       <c r="O38" t="n">
         <v>166.1290651424569</v>
@@ -30265,10 +30265,10 @@
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>166.1290651424569</v>
+        <v>116.9787331327003</v>
       </c>
       <c r="R38" t="n">
-        <v>166.1290651424569</v>
+        <v>89.73190363910518</v>
       </c>
       <c r="S38" t="n">
         <v>166.1290651424569</v>
@@ -30314,13 +30314,13 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>14.56549128550373</v>
+        <v>0</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>14.56549128550415</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -30390,13 +30390,13 @@
         <v>150.4889240962943</v>
       </c>
       <c r="F40" t="n">
-        <v>150.9558484244806</v>
+        <v>152.0796990554076</v>
       </c>
       <c r="G40" t="n">
         <v>166.1290651424569</v>
       </c>
       <c r="H40" t="n">
-        <v>166.1290651424569</v>
+        <v>157.7789187685189</v>
       </c>
       <c r="I40" t="n">
         <v>142.7610139533483</v>
@@ -30420,10 +30420,10 @@
         <v>0</v>
       </c>
       <c r="P40" t="n">
-        <v>0</v>
+        <v>45.56176619902594</v>
       </c>
       <c r="Q40" t="n">
-        <v>76.48743838886315</v>
+        <v>38.15196793284785</v>
       </c>
       <c r="R40" t="n">
         <v>148.0265635717656</v>
@@ -30457,28 +30457,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>134.2731860038984</v>
+        <v>134.2731860038985</v>
       </c>
       <c r="C41" t="n">
-        <v>134.2731860038984</v>
+        <v>134.2731860038985</v>
       </c>
       <c r="D41" t="n">
-        <v>134.2731860038984</v>
+        <v>134.2731860038985</v>
       </c>
       <c r="E41" t="n">
-        <v>134.2731860038984</v>
+        <v>134.2731860038985</v>
       </c>
       <c r="F41" t="n">
-        <v>134.2731860038984</v>
+        <v>134.2731860038985</v>
       </c>
       <c r="G41" t="n">
-        <v>134.2731860038984</v>
+        <v>134.2731860038985</v>
       </c>
       <c r="H41" t="n">
-        <v>134.2731860038984</v>
+        <v>134.2731860038985</v>
       </c>
       <c r="I41" t="n">
-        <v>134.2731860038984</v>
+        <v>134.2731860038985</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -30487,46 +30487,46 @@
         <v>0</v>
       </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>46.41730540591914</v>
       </c>
       <c r="M41" t="n">
         <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>134.2731860038984</v>
+        <v>134.2731860038985</v>
       </c>
       <c r="O41" t="n">
-        <v>134.2731860038984</v>
+        <v>0</v>
       </c>
       <c r="P41" t="n">
-        <v>134.2731860038984</v>
+        <v>134.2731860038985</v>
       </c>
       <c r="Q41" t="n">
-        <v>1.876023041126672</v>
+        <v>134.2731860038985</v>
       </c>
       <c r="R41" t="n">
-        <v>134.2731860038984</v>
+        <v>89.73190363910518</v>
       </c>
       <c r="S41" t="n">
-        <v>134.2731860038984</v>
+        <v>134.2731860038985</v>
       </c>
       <c r="T41" t="n">
-        <v>134.2731860038984</v>
+        <v>134.2731860038985</v>
       </c>
       <c r="U41" t="n">
-        <v>134.2731860038984</v>
+        <v>134.2731860038985</v>
       </c>
       <c r="V41" t="n">
-        <v>134.2731860038984</v>
+        <v>134.2731860038985</v>
       </c>
       <c r="W41" t="n">
-        <v>134.2731860038984</v>
+        <v>134.2731860038985</v>
       </c>
       <c r="X41" t="n">
-        <v>134.2731860038984</v>
+        <v>134.2731860038985</v>
       </c>
       <c r="Y41" t="n">
-        <v>134.2731860038984</v>
+        <v>134.2731860038985</v>
       </c>
     </row>
     <row r="42">
@@ -30554,7 +30554,7 @@
         <v>0</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>14.56549128550373</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
@@ -30587,7 +30587,7 @@
         <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>14.56549128550353</v>
+        <v>0</v>
       </c>
       <c r="T42" t="n">
         <v>0</v>
@@ -30615,31 +30615,31 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>134.2731860038984</v>
+        <v>134.2731860038985</v>
       </c>
       <c r="C43" t="n">
-        <v>134.2731860038984</v>
+        <v>134.2731860038985</v>
       </c>
       <c r="D43" t="n">
-        <v>134.2731860038984</v>
+        <v>134.2731860038985</v>
       </c>
       <c r="E43" t="n">
-        <v>134.2731860038984</v>
+        <v>134.2731860038985</v>
       </c>
       <c r="F43" t="n">
-        <v>134.2731860038984</v>
+        <v>134.2731860038985</v>
       </c>
       <c r="G43" t="n">
-        <v>134.2731860038984</v>
+        <v>134.2731860038985</v>
       </c>
       <c r="H43" t="n">
-        <v>134.2731860038984</v>
+        <v>134.2731860038985</v>
       </c>
       <c r="I43" t="n">
-        <v>134.2731860038984</v>
+        <v>134.2731860038985</v>
       </c>
       <c r="J43" t="n">
-        <v>134.2731860038984</v>
+        <v>59.456666199969</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
@@ -30648,43 +30648,43 @@
         <v>0</v>
       </c>
       <c r="M43" t="n">
-        <v>134.2731860038984</v>
+        <v>134.2731860038985</v>
       </c>
       <c r="N43" t="n">
-        <v>134.2731860038984</v>
+        <v>104.9056080357866</v>
       </c>
       <c r="O43" t="n">
         <v>0</v>
       </c>
       <c r="P43" t="n">
-        <v>30.08908823185818</v>
+        <v>134.2731860038985</v>
       </c>
       <c r="Q43" t="n">
-        <v>134.2731860038984</v>
+        <v>134.2731860038985</v>
       </c>
       <c r="R43" t="n">
-        <v>134.2731860038984</v>
+        <v>134.2731860038985</v>
       </c>
       <c r="S43" t="n">
-        <v>134.2731860038984</v>
+        <v>134.2731860038985</v>
       </c>
       <c r="T43" t="n">
-        <v>134.2731860038984</v>
+        <v>134.2731860038985</v>
       </c>
       <c r="U43" t="n">
-        <v>134.2731860038984</v>
+        <v>134.2731860038985</v>
       </c>
       <c r="V43" t="n">
-        <v>134.2731860038984</v>
+        <v>134.2731860038985</v>
       </c>
       <c r="W43" t="n">
-        <v>134.2731860038984</v>
+        <v>134.2731860038985</v>
       </c>
       <c r="X43" t="n">
-        <v>134.2731860038984</v>
+        <v>134.2731860038985</v>
       </c>
       <c r="Y43" t="n">
-        <v>134.2731860038984</v>
+        <v>134.2731860038985</v>
       </c>
     </row>
     <row r="44">
@@ -30694,76 +30694,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>134.2731860038984</v>
+        <v>134.2731860038985</v>
       </c>
       <c r="C44" t="n">
-        <v>134.2731860038984</v>
+        <v>134.2731860038985</v>
       </c>
       <c r="D44" t="n">
-        <v>134.2731860038984</v>
+        <v>134.2731860038985</v>
       </c>
       <c r="E44" t="n">
-        <v>134.2731860038984</v>
+        <v>134.2731860038985</v>
       </c>
       <c r="F44" t="n">
-        <v>134.2731860038984</v>
+        <v>134.2731860038985</v>
       </c>
       <c r="G44" t="n">
-        <v>134.2731860038984</v>
+        <v>134.2731860038985</v>
       </c>
       <c r="H44" t="n">
-        <v>134.2731860038984</v>
+        <v>134.2731860038985</v>
       </c>
       <c r="I44" t="n">
-        <v>134.2731860038984</v>
+        <v>134.2731860038985</v>
       </c>
       <c r="J44" t="n">
-        <v>134.2731860038984</v>
+        <v>46.41730540591921</v>
       </c>
       <c r="K44" t="n">
         <v>0</v>
       </c>
       <c r="L44" t="n">
-        <v>134.2731860038984</v>
+        <v>134.2731860038985</v>
       </c>
       <c r="M44" t="n">
-        <v>134.2731860038984</v>
+        <v>134.2731860038985</v>
       </c>
       <c r="N44" t="n">
         <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>0</v>
+        <v>134.2731860038985</v>
       </c>
       <c r="P44" t="n">
         <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>1.876023041126217</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>134.2731860038984</v>
+        <v>89.73190363910518</v>
       </c>
       <c r="S44" t="n">
-        <v>134.2731860038984</v>
+        <v>134.2731860038985</v>
       </c>
       <c r="T44" t="n">
-        <v>134.2731860038984</v>
+        <v>134.2731860038985</v>
       </c>
       <c r="U44" t="n">
-        <v>134.2731860038984</v>
+        <v>134.2731860038985</v>
       </c>
       <c r="V44" t="n">
-        <v>134.2731860038984</v>
+        <v>134.2731860038985</v>
       </c>
       <c r="W44" t="n">
-        <v>134.2731860038984</v>
+        <v>134.2731860038985</v>
       </c>
       <c r="X44" t="n">
-        <v>134.2731860038984</v>
+        <v>134.2731860038985</v>
       </c>
       <c r="Y44" t="n">
-        <v>134.2731860038984</v>
+        <v>134.2731860038985</v>
       </c>
     </row>
     <row r="45">
@@ -30794,7 +30794,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>14.56549128550326</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -30824,7 +30824,7 @@
         <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>14.56549128550395</v>
+        <v>0</v>
       </c>
       <c r="T45" t="n">
         <v>0</v>
@@ -30852,43 +30852,43 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>134.2731860038984</v>
+        <v>134.2731860038985</v>
       </c>
       <c r="C46" t="n">
-        <v>134.2731860038984</v>
+        <v>134.2731860038985</v>
       </c>
       <c r="D46" t="n">
-        <v>134.2731860038984</v>
+        <v>134.2731860038985</v>
       </c>
       <c r="E46" t="n">
-        <v>134.2731860038984</v>
+        <v>134.2731860038985</v>
       </c>
       <c r="F46" t="n">
-        <v>134.2731860038984</v>
+        <v>134.2731860038985</v>
       </c>
       <c r="G46" t="n">
-        <v>134.2731860038984</v>
+        <v>134.2731860038985</v>
       </c>
       <c r="H46" t="n">
-        <v>134.2731860038984</v>
+        <v>134.2731860038985</v>
       </c>
       <c r="I46" t="n">
-        <v>134.2731860038984</v>
+        <v>134.2731860038985</v>
       </c>
       <c r="J46" t="n">
-        <v>134.2731860038984</v>
+        <v>59.456666199969</v>
       </c>
       <c r="K46" t="n">
-        <v>134.2731860038984</v>
+        <v>134.2731860038985</v>
       </c>
       <c r="L46" t="n">
-        <v>134.2731860038984</v>
+        <v>104.9056080357866</v>
       </c>
       <c r="M46" t="n">
-        <v>0</v>
+        <v>134.2731860038985</v>
       </c>
       <c r="N46" t="n">
-        <v>126.2103063029088</v>
+        <v>0</v>
       </c>
       <c r="O46" t="n">
         <v>0</v>
@@ -30897,31 +30897,31 @@
         <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>38.15196793284785</v>
+        <v>134.2731860038985</v>
       </c>
       <c r="R46" t="n">
-        <v>134.2731860038984</v>
+        <v>134.2731860038985</v>
       </c>
       <c r="S46" t="n">
-        <v>134.2731860038984</v>
+        <v>134.2731860038985</v>
       </c>
       <c r="T46" t="n">
-        <v>134.2731860038984</v>
+        <v>134.2731860038985</v>
       </c>
       <c r="U46" t="n">
-        <v>134.2731860038984</v>
+        <v>134.2731860038985</v>
       </c>
       <c r="V46" t="n">
-        <v>134.2731860038984</v>
+        <v>134.2731860038985</v>
       </c>
       <c r="W46" t="n">
-        <v>134.2731860038984</v>
+        <v>134.2731860038985</v>
       </c>
       <c r="X46" t="n">
-        <v>134.2731860038984</v>
+        <v>134.2731860038985</v>
       </c>
       <c r="Y46" t="n">
-        <v>134.2731860038984</v>
+        <v>134.2731860038985</v>
       </c>
     </row>
   </sheetData>
@@ -34705,13 +34705,13 @@
         <v>351.3993667524709</v>
       </c>
       <c r="M2" t="n">
-        <v>397.2112790435232</v>
+        <v>239.6121113956028</v>
       </c>
       <c r="N2" t="n">
         <v>382.1528875633492</v>
       </c>
       <c r="O2" t="n">
-        <v>150.486271213531</v>
+        <v>308.0854388614484</v>
       </c>
       <c r="P2" t="n">
         <v>230.4615115717709</v>
@@ -34775,28 +34775,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>60.86277427586479</v>
       </c>
       <c r="K3" t="n">
         <v>231.8086389496855</v>
       </c>
       <c r="L3" t="n">
-        <v>369.5170153233491</v>
+        <v>353.5677178903715</v>
       </c>
       <c r="M3" t="n">
-        <v>485.5013706600316</v>
+        <v>485.5013706600309</v>
       </c>
       <c r="N3" t="n">
-        <v>280.0353916503467</v>
+        <v>485.5013706600309</v>
       </c>
       <c r="O3" t="n">
-        <v>396.1615664486372</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>305.147393207775</v>
       </c>
       <c r="Q3" t="n">
-        <v>159.3652826117113</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34933,16 +34933,16 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>72.72580229576329</v>
       </c>
       <c r="K5" t="n">
-        <v>157.6926670163131</v>
+        <v>242.5660323684674</v>
       </c>
       <c r="L5" t="n">
         <v>351.3993667524709</v>
       </c>
       <c r="M5" t="n">
-        <v>397.2112790435232</v>
+        <v>239.6121113956028</v>
       </c>
       <c r="N5" t="n">
         <v>382.1528875633492</v>
@@ -35018,13 +35018,13 @@
         <v>231.8086389496855</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>283.542239490054</v>
       </c>
       <c r="M6" t="n">
-        <v>442.9075221017675</v>
+        <v>485.5013706600309</v>
       </c>
       <c r="N6" t="n">
-        <v>485.5013706600316</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
         <v>396.1615664486372</v>
@@ -35033,7 +35033,7 @@
         <v>305.147393207775</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>159.3652826117113</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35255,10 +35255,10 @@
         <v>231.8086389496855</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>369.5170153233491</v>
       </c>
       <c r="M9" t="n">
-        <v>489.93268031336</v>
+        <v>40.69581689574456</v>
       </c>
       <c r="N9" t="n">
         <v>516.4299455789112</v>
@@ -35270,7 +35270,7 @@
         <v>305.147393207775</v>
       </c>
       <c r="Q9" t="n">
-        <v>79.64543451744501</v>
+        <v>159.3652826117113</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35407,19 +35407,19 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>186.155967803972</v>
+        <v>72.72580229576329</v>
       </c>
       <c r="K11" t="n">
-        <v>355.9961978766761</v>
+        <v>242.5660323684674</v>
       </c>
       <c r="L11" t="n">
-        <v>436.6474717763567</v>
+        <v>464.8295322606797</v>
       </c>
       <c r="M11" t="n">
-        <v>397.2112790435232</v>
+        <v>510.6414445517319</v>
       </c>
       <c r="N11" t="n">
-        <v>382.1528875633492</v>
+        <v>467.400992587234</v>
       </c>
       <c r="O11" t="n">
         <v>308.0854388614484</v>
@@ -35431,7 +35431,7 @@
         <v>208.8162803430946</v>
       </c>
       <c r="R11" t="n">
-        <v>23.69826186910353</v>
+        <v>23.69826186910355</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,7 +35486,7 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>60.86277427586579</v>
+        <v>60.86277427586479</v>
       </c>
       <c r="K12" t="n">
         <v>231.8086389496855</v>
@@ -35504,7 +35504,7 @@
         <v>396.1615664486372</v>
       </c>
       <c r="P12" t="n">
-        <v>305.147393207775</v>
+        <v>305.1473932077745</v>
       </c>
       <c r="Q12" t="n">
         <v>159.3652826117113</v>
@@ -35565,7 +35565,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>53.97349930823972</v>
+        <v>53.97349930823973</v>
       </c>
       <c r="K13" t="n">
         <v>147.373789492697</v>
@@ -35574,19 +35574,19 @@
         <v>215.0534780337234</v>
       </c>
       <c r="M13" t="n">
-        <v>232.6155252330589</v>
+        <v>232.615525233059</v>
       </c>
       <c r="N13" t="n">
         <v>233.0486925280071</v>
       </c>
       <c r="O13" t="n">
-        <v>212.8883942917336</v>
+        <v>212.8883942917337</v>
       </c>
       <c r="P13" t="n">
         <v>177.0346945265297</v>
       </c>
       <c r="Q13" t="n">
-        <v>75.27819757536086</v>
+        <v>75.27819757536088</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35644,31 +35644,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>72.72580229576329</v>
+        <v>186.155967803972</v>
       </c>
       <c r="K14" t="n">
         <v>355.9961978766761</v>
       </c>
       <c r="L14" t="n">
-        <v>464.8295322606796</v>
+        <v>351.3993667524709</v>
       </c>
       <c r="M14" t="n">
-        <v>510.6414445517319</v>
+        <v>397.2112790435232</v>
       </c>
       <c r="N14" t="n">
-        <v>382.1528875633492</v>
+        <v>495.583053071558</v>
       </c>
       <c r="O14" t="n">
-        <v>393.3335438853343</v>
+        <v>308.0854388614484</v>
       </c>
       <c r="P14" t="n">
         <v>230.4615115717709</v>
       </c>
       <c r="Q14" t="n">
-        <v>95.38611483488586</v>
+        <v>180.6342198587705</v>
       </c>
       <c r="R14" t="n">
-        <v>23.69826186910352</v>
+        <v>23.69826186910355</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,7 +35723,7 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>60.86277427586579</v>
+        <v>60.86277427586489</v>
       </c>
       <c r="K15" t="n">
         <v>231.8086389496855</v>
@@ -35802,7 +35802,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>53.97349930824036</v>
+        <v>53.97349930823973</v>
       </c>
       <c r="K16" t="n">
         <v>147.373789492697</v>
@@ -35811,19 +35811,19 @@
         <v>215.0534780337234</v>
       </c>
       <c r="M16" t="n">
-        <v>232.6155252330589</v>
+        <v>232.615525233059</v>
       </c>
       <c r="N16" t="n">
         <v>233.0486925280071</v>
       </c>
       <c r="O16" t="n">
-        <v>212.8883942917336</v>
+        <v>212.8883942917337</v>
       </c>
       <c r="P16" t="n">
-        <v>177.0346945265297</v>
+        <v>177.0346945265298</v>
       </c>
       <c r="Q16" t="n">
-        <v>75.27819757536085</v>
+        <v>75.27819757536088</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35881,16 +35881,16 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>238.8548674382202</v>
+        <v>72.72580229576329</v>
       </c>
       <c r="K17" t="n">
-        <v>408.6950975109244</v>
+        <v>242.5660323684674</v>
       </c>
       <c r="L17" t="n">
-        <v>391.9809383818211</v>
+        <v>351.3993667524709</v>
       </c>
       <c r="M17" t="n">
-        <v>397.2112790435232</v>
+        <v>514.1900121762243</v>
       </c>
       <c r="N17" t="n">
         <v>382.1528875633492</v>
@@ -35899,13 +35899,13 @@
         <v>308.0854388614484</v>
       </c>
       <c r="P17" t="n">
-        <v>230.4615115717709</v>
+        <v>396.5905767142278</v>
       </c>
       <c r="Q17" t="n">
-        <v>95.38611483488586</v>
+        <v>261.5151799773428</v>
       </c>
       <c r="R17" t="n">
-        <v>76.39716150335175</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35972,7 +35972,7 @@
         <v>489.93268031336</v>
       </c>
       <c r="N18" t="n">
-        <v>516.4299455789112</v>
+        <v>516.4299455789111</v>
       </c>
       <c r="O18" t="n">
         <v>396.1615664486372</v>
@@ -35981,7 +35981,7 @@
         <v>305.147393207775</v>
       </c>
       <c r="Q18" t="n">
-        <v>159.3652826117116</v>
+        <v>159.3652826117113</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36027,16 +36027,16 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>15.17321671797629</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>8.350146373938031</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>5.05975216734729</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -36060,10 +36060,10 @@
         <v>63.604529018321</v>
       </c>
       <c r="Q19" t="n">
-        <v>46.68561682995292</v>
+        <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>18.10250157069137</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -36118,7 +36118,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>72.72580229576329</v>
+        <v>189.7045354284644</v>
       </c>
       <c r="K20" t="n">
         <v>242.5660323684674</v>
@@ -36127,7 +36127,7 @@
         <v>351.3993667524709</v>
       </c>
       <c r="M20" t="n">
-        <v>563.3403441859801</v>
+        <v>397.2112790435232</v>
       </c>
       <c r="N20" t="n">
         <v>548.2819527058061</v>
@@ -36136,13 +36136,13 @@
         <v>308.0854388614484</v>
       </c>
       <c r="P20" t="n">
-        <v>230.4615115717709</v>
+        <v>396.5905767142278</v>
       </c>
       <c r="Q20" t="n">
-        <v>135.9676864642363</v>
+        <v>95.38611483488586</v>
       </c>
       <c r="R20" t="n">
-        <v>76.39716150335175</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36206,7 +36206,7 @@
         <v>369.5170153233491</v>
       </c>
       <c r="M21" t="n">
-        <v>489.93268031336</v>
+        <v>489.9326803133602</v>
       </c>
       <c r="N21" t="n">
         <v>516.4299455789112</v>
@@ -36218,7 +36218,7 @@
         <v>305.147393207775</v>
       </c>
       <c r="Q21" t="n">
-        <v>159.3652826117116</v>
+        <v>159.3652826117113</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36258,19 +36258,19 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>14.58789090194205</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>15.6401410461626</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>15.17321671797629</v>
+        <v>1.123850630926996</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>1.284368163872009</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -36297,7 +36297,7 @@
         <v>63.604529018321</v>
       </c>
       <c r="Q22" t="n">
-        <v>0</v>
+        <v>45.56176619902593</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36355,13 +36355,13 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>238.8548674382202</v>
+        <v>189.7045354284642</v>
       </c>
       <c r="K23" t="n">
-        <v>283.1476039978169</v>
+        <v>242.5660323684674</v>
       </c>
       <c r="L23" t="n">
-        <v>351.3993667524709</v>
+        <v>517.5284318949278</v>
       </c>
       <c r="M23" t="n">
         <v>397.2112790435232</v>
@@ -36370,16 +36370,16 @@
         <v>382.1528875633492</v>
       </c>
       <c r="O23" t="n">
-        <v>308.0854388614484</v>
+        <v>474.2145040039054</v>
       </c>
       <c r="P23" t="n">
-        <v>396.5905767142278</v>
+        <v>230.4615115717709</v>
       </c>
       <c r="Q23" t="n">
         <v>95.38611483488586</v>
       </c>
       <c r="R23" t="n">
-        <v>76.39716150335175</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36498,7 +36498,7 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>1.123850630926996</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -36507,13 +36507,13 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>8.350146373938031</v>
       </c>
       <c r="I25" t="n">
-        <v>23.36805118910868</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>23.3175656408443</v>
+        <v>0</v>
       </c>
       <c r="K25" t="n">
         <v>33.9436239844883</v>
@@ -36531,13 +36531,13 @@
         <v>99.45822878352493</v>
       </c>
       <c r="P25" t="n">
-        <v>63.604529018321</v>
+        <v>82.71364727271762</v>
       </c>
       <c r="Q25" t="n">
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>18.10250157069137</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -36598,7 +36598,7 @@
         <v>369.3529827242115</v>
       </c>
       <c r="L26" t="n">
-        <v>478.1863171082151</v>
+        <v>478.186317108215</v>
       </c>
       <c r="M26" t="n">
         <v>523.9982293992673</v>
@@ -36610,13 +36610,13 @@
         <v>434.8723892171926</v>
       </c>
       <c r="P26" t="n">
-        <v>357.2484619275151</v>
+        <v>357.248461927515</v>
       </c>
       <c r="Q26" t="n">
         <v>222.17306519063</v>
       </c>
       <c r="R26" t="n">
-        <v>37.05504671663893</v>
+        <v>37.05504671663891</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36750,7 +36750,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>67.3302841557751</v>
+        <v>0</v>
       </c>
       <c r="K28" t="n">
         <v>160.7305743402324</v>
@@ -36759,16 +36759,16 @@
         <v>228.4102628812587</v>
       </c>
       <c r="M28" t="n">
-        <v>245.9723100805944</v>
+        <v>245.9723100805943</v>
       </c>
       <c r="N28" t="n">
-        <v>246.4054773755425</v>
+        <v>204.2557086012335</v>
       </c>
       <c r="O28" t="n">
-        <v>99.45822878352493</v>
+        <v>226.245179139269</v>
       </c>
       <c r="P28" t="n">
-        <v>80.9114264439804</v>
+        <v>63.604529018321</v>
       </c>
       <c r="Q28" t="n">
         <v>0</v>
@@ -36832,28 +36832,28 @@
         <v>199.5127526515074</v>
       </c>
       <c r="K29" t="n">
-        <v>369.3529827242116</v>
+        <v>369.3529827242115</v>
       </c>
       <c r="L29" t="n">
-        <v>478.1863171082151</v>
+        <v>478.186317108215</v>
       </c>
       <c r="M29" t="n">
         <v>523.9982293992673</v>
       </c>
       <c r="N29" t="n">
-        <v>508.9398379190934</v>
+        <v>508.9398379190933</v>
       </c>
       <c r="O29" t="n">
         <v>434.8723892171926</v>
       </c>
       <c r="P29" t="n">
-        <v>357.2484619275151</v>
+        <v>357.248461927515</v>
       </c>
       <c r="Q29" t="n">
         <v>222.17306519063</v>
       </c>
       <c r="R29" t="n">
-        <v>37.05504671663897</v>
+        <v>37.05504671663891</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36987,28 +36987,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>0</v>
+        <v>67.3302841557751</v>
       </c>
       <c r="K31" t="n">
-        <v>160.7305743402325</v>
+        <v>89.40248934299615</v>
       </c>
       <c r="L31" t="n">
-        <v>228.4102628812588</v>
+        <v>228.4102628812587</v>
       </c>
       <c r="M31" t="n">
-        <v>245.9723100805944</v>
+        <v>119.1853597248502</v>
       </c>
       <c r="N31" t="n">
-        <v>246.4054773755425</v>
+        <v>119.6185270197983</v>
       </c>
       <c r="O31" t="n">
-        <v>99.45822878352493</v>
+        <v>226.245179139269</v>
       </c>
       <c r="P31" t="n">
-        <v>148.2417105997546</v>
+        <v>190.3914793740651</v>
       </c>
       <c r="Q31" t="n">
-        <v>0</v>
+        <v>88.63498242289624</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37066,31 +37066,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>96.61782806052979</v>
+        <v>209.8102822656225</v>
       </c>
       <c r="K32" t="n">
-        <v>379.6505123383265</v>
+        <v>379.6505123383266</v>
       </c>
       <c r="L32" t="n">
-        <v>488.48384672233</v>
+        <v>488.4838467223301</v>
       </c>
       <c r="M32" t="n">
-        <v>534.2957590133822</v>
+        <v>397.2112790435232</v>
       </c>
       <c r="N32" t="n">
-        <v>382.1528875633492</v>
+        <v>519.2373675332084</v>
       </c>
       <c r="O32" t="n">
-        <v>445.1699188313074</v>
+        <v>331.9774646262111</v>
       </c>
       <c r="P32" t="n">
-        <v>367.54599154163</v>
+        <v>367.5459915416301</v>
       </c>
       <c r="Q32" t="n">
-        <v>232.4705948047449</v>
+        <v>232.470594804745</v>
       </c>
       <c r="R32" t="n">
-        <v>47.35257633075383</v>
+        <v>47.352576330754</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37224,28 +37224,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>77.62781376989003</v>
+        <v>50.57773220323356</v>
       </c>
       <c r="K34" t="n">
         <v>33.9436239844883</v>
       </c>
       <c r="L34" t="n">
-        <v>101.6233125255146</v>
+        <v>238.7077924953738</v>
       </c>
       <c r="M34" t="n">
-        <v>256.2698396947093</v>
+        <v>119.1853597248502</v>
       </c>
       <c r="N34" t="n">
-        <v>256.7030069896574</v>
+        <v>119.6185270197983</v>
       </c>
       <c r="O34" t="n">
-        <v>171.3406592538829</v>
+        <v>99.45822878352493</v>
       </c>
       <c r="P34" t="n">
-        <v>63.604529018321</v>
+        <v>200.6890089881802</v>
       </c>
       <c r="Q34" t="n">
-        <v>0</v>
+        <v>98.93251203701134</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37303,31 +37303,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>72.72580229576329</v>
+        <v>238.8548674382202</v>
       </c>
       <c r="K35" t="n">
-        <v>408.6950975109244</v>
+        <v>242.5660323684674</v>
       </c>
       <c r="L35" t="n">
-        <v>391.9809383818204</v>
+        <v>517.5284318949278</v>
       </c>
       <c r="M35" t="n">
         <v>397.2112790435232</v>
       </c>
       <c r="N35" t="n">
-        <v>548.2819527058061</v>
+        <v>382.1528875633492</v>
       </c>
       <c r="O35" t="n">
         <v>308.0854388614484</v>
       </c>
       <c r="P35" t="n">
-        <v>230.4615115717709</v>
+        <v>271.0430832011201</v>
       </c>
       <c r="Q35" t="n">
         <v>95.38611483488586</v>
       </c>
       <c r="R35" t="n">
-        <v>76.39716150335173</v>
+        <v>76.39716150335175</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37382,7 +37382,7 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>60.86277427586489</v>
+        <v>60.86277427586479</v>
       </c>
       <c r="K36" t="n">
         <v>231.8086389496855</v>
@@ -37470,7 +37470,7 @@
         <v>101.6233125255146</v>
       </c>
       <c r="M37" t="n">
-        <v>119.1853597248502</v>
+        <v>165.8709765548032</v>
       </c>
       <c r="N37" t="n">
         <v>119.6185270197983</v>
@@ -37479,7 +37479,7 @@
         <v>99.45822878352493</v>
       </c>
       <c r="P37" t="n">
-        <v>110.2901458482743</v>
+        <v>63.604529018321</v>
       </c>
       <c r="Q37" t="n">
         <v>0</v>
@@ -37540,7 +37540,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>72.72580229576329</v>
+        <v>238.8548674382202</v>
       </c>
       <c r="K38" t="n">
         <v>242.5660323684674</v>
@@ -37552,19 +37552,19 @@
         <v>397.2112790435232</v>
       </c>
       <c r="N38" t="n">
-        <v>422.7344591926987</v>
+        <v>382.1528875633492</v>
       </c>
       <c r="O38" t="n">
-        <v>474.2145040039053</v>
+        <v>474.2145040039054</v>
       </c>
       <c r="P38" t="n">
         <v>230.4615115717709</v>
       </c>
       <c r="Q38" t="n">
-        <v>261.5151799773428</v>
+        <v>212.3648479675862</v>
       </c>
       <c r="R38" t="n">
-        <v>76.39716150335173</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37625,7 +37625,7 @@
         <v>231.8086389496855</v>
       </c>
       <c r="L39" t="n">
-        <v>369.5170153233492</v>
+        <v>369.5170153233491</v>
       </c>
       <c r="M39" t="n">
         <v>489.93268031336</v>
@@ -37634,7 +37634,7 @@
         <v>516.4299455789112</v>
       </c>
       <c r="O39" t="n">
-        <v>396.1615664486372</v>
+        <v>396.1615664486365</v>
       </c>
       <c r="P39" t="n">
         <v>305.147393207775</v>
@@ -37686,13 +37686,13 @@
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>1.123850630926996</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>8.350146373938003</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -37716,10 +37716,10 @@
         <v>99.45822878352493</v>
       </c>
       <c r="P40" t="n">
-        <v>63.604529018321</v>
+        <v>109.1662952173469</v>
       </c>
       <c r="Q40" t="n">
-        <v>38.33547045601531</v>
+        <v>0</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37783,25 +37783,25 @@
         <v>242.5660323684674</v>
       </c>
       <c r="L41" t="n">
-        <v>351.3993667524709</v>
+        <v>397.8166721583901</v>
       </c>
       <c r="M41" t="n">
         <v>397.2112790435232</v>
       </c>
       <c r="N41" t="n">
-        <v>516.4260735672476</v>
+        <v>516.4260735672477</v>
       </c>
       <c r="O41" t="n">
-        <v>442.3586248653469</v>
+        <v>308.0854388614484</v>
       </c>
       <c r="P41" t="n">
         <v>364.7346975756694</v>
       </c>
       <c r="Q41" t="n">
-        <v>97.26213787601253</v>
+        <v>229.6593008387844</v>
       </c>
       <c r="R41" t="n">
-        <v>44.54128236479326</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37871,7 +37871,7 @@
         <v>516.4299455789112</v>
       </c>
       <c r="O42" t="n">
-        <v>396.1615664486372</v>
+        <v>396.161566448637</v>
       </c>
       <c r="P42" t="n">
         <v>305.147393207775</v>
@@ -37935,7 +37935,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>74.81651980392945</v>
+        <v>0</v>
       </c>
       <c r="K43" t="n">
         <v>33.9436239844883</v>
@@ -37947,16 +37947,16 @@
         <v>253.4585457287487</v>
       </c>
       <c r="N43" t="n">
-        <v>253.8917130236968</v>
+        <v>224.5241350555849</v>
       </c>
       <c r="O43" t="n">
         <v>99.45822878352493</v>
       </c>
       <c r="P43" t="n">
-        <v>93.69361725017919</v>
+        <v>197.8777150222195</v>
       </c>
       <c r="Q43" t="n">
-        <v>96.12121807105059</v>
+        <v>96.12121807105065</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38014,7 +38014,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>206.9989882996617</v>
+        <v>119.1431077016825</v>
       </c>
       <c r="K44" t="n">
         <v>242.5660323684674</v>
@@ -38023,22 +38023,22 @@
         <v>485.6725527563694</v>
       </c>
       <c r="M44" t="n">
-        <v>531.4844650474216</v>
+        <v>531.4844650474217</v>
       </c>
       <c r="N44" t="n">
         <v>382.1528875633492</v>
       </c>
       <c r="O44" t="n">
-        <v>308.0854388614484</v>
+        <v>442.3586248653469</v>
       </c>
       <c r="P44" t="n">
         <v>230.4615115717709</v>
       </c>
       <c r="Q44" t="n">
-        <v>97.26213787601208</v>
+        <v>95.38611483488586</v>
       </c>
       <c r="R44" t="n">
-        <v>44.54128236479326</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38105,7 +38105,7 @@
         <v>489.93268031336</v>
       </c>
       <c r="N45" t="n">
-        <v>516.4299455789111</v>
+        <v>516.4299455789112</v>
       </c>
       <c r="O45" t="n">
         <v>396.1615664486372</v>
@@ -38172,19 +38172,19 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>74.81651980392945</v>
+        <v>0</v>
       </c>
       <c r="K46" t="n">
-        <v>168.2168099883867</v>
+        <v>168.2168099883868</v>
       </c>
       <c r="L46" t="n">
-        <v>235.8964985294131</v>
+        <v>206.5289205613012</v>
       </c>
       <c r="M46" t="n">
-        <v>119.1853597248502</v>
+        <v>253.4585457287487</v>
       </c>
       <c r="N46" t="n">
-        <v>245.8288333227072</v>
+        <v>119.6185270197983</v>
       </c>
       <c r="O46" t="n">
         <v>99.45822878352493</v>
@@ -38193,7 +38193,7 @@
         <v>63.604529018321</v>
       </c>
       <c r="Q46" t="n">
-        <v>0</v>
+        <v>96.12121807105065</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
